--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT5" t="n">
         <v>0.83</v>
@@ -1715,7 +1715,7 @@
         <v>1.86</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT15" t="n">
         <v>0.33</v>
@@ -4557,7 +4557,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT31" t="n">
         <v>1.14</v>
@@ -8008,7 +8008,7 @@
         <v>1.83</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>2.6</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT53" t="n">
         <v>1.38</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -15519,7 +15519,7 @@
         <v>1.67</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>2.32</v>
@@ -19782,7 +19782,7 @@
         <v>1.14</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT98" t="n">
         <v>0.57</v>
@@ -27953,6 +27953,209 @@
         <v>12</v>
       </c>
       <c r="BK135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5240195</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45035.91666666666</v>
+      </c>
+      <c r="F136" t="n">
+        <v>12</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>6</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2</v>
+      </c>
+      <c r="S136" t="n">
+        <v>8</v>
+      </c>
+      <c r="T136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK136" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.43</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU11" t="n">
         <v>2.15</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -6384,7 +6384,7 @@
         <v>0.86</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU29" t="n">
         <v>1.95</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT39" t="n">
         <v>1.14</v>
@@ -9226,7 +9226,7 @@
         <v>1.14</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU43" t="n">
         <v>1.81</v>
@@ -12474,7 +12474,7 @@
         <v>1.83</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU59" t="n">
         <v>1.98</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT61" t="n">
         <v>1.6</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT78" t="n">
         <v>0.57</v>
@@ -16940,7 +16940,7 @@
         <v>2.6</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU81" t="n">
         <v>1.68</v>
@@ -20794,7 +20794,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT100" t="n">
         <v>1.14</v>
@@ -22218,7 +22218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -25060,7 +25060,7 @@
         <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU121" t="n">
         <v>1.98</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT125" t="n">
         <v>0.86</v>
@@ -28157,6 +28157,209 @@
       </c>
       <c r="BK136" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5240232</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45037.90277777778</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>7</v>
+      </c>
+      <c r="S137" t="n">
+        <v>7</v>
+      </c>
+      <c r="T137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.71</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>2.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU15" t="n">
         <v>1.91</v>
@@ -3948,7 +3948,7 @@
         <v>1.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU17" t="n">
         <v>2.06</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT25" t="n">
         <v>0.57</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>1.61</v>
@@ -6993,7 +6993,7 @@
         <v>1.43</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU32" t="n">
         <v>1.45</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT33" t="n">
         <v>1.38</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>2.6</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>2.71</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU44" t="n">
         <v>2.03</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT45" t="n">
         <v>0.57</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT48" t="n">
         <v>0.57</v>
@@ -10647,7 +10647,7 @@
         <v>1.86</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU50" t="n">
         <v>1.78</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>1.43</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT56" t="n">
         <v>0.83</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12677,7 +12677,7 @@
         <v>2.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU60" t="n">
         <v>2.02</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT64" t="n">
         <v>1.38</v>
@@ -13692,7 +13692,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU65" t="n">
         <v>1.64</v>
@@ -13895,7 +13895,7 @@
         <v>1.14</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU66" t="n">
         <v>1.84</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT70" t="n">
         <v>0.83</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT71" t="n">
         <v>0.57</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT74" t="n">
         <v>1.33</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT77" t="n">
         <v>0.57</v>
@@ -16331,7 +16331,7 @@
         <v>1.57</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>1.83</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU82" t="n">
         <v>1.76</v>
@@ -17749,10 +17749,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU85" t="n">
         <v>2.18</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT87" t="n">
         <v>0.83</v>
@@ -18967,10 +18967,10 @@
         <v>1.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU91" t="n">
         <v>2.01</v>
@@ -19376,7 +19376,7 @@
         <v>1.86</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU93" t="n">
         <v>1.76</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT96" t="n">
         <v>1.71</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT101" t="n">
         <v>0.83</v>
@@ -21606,7 +21606,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT104" t="n">
         <v>1.6</v>
@@ -22015,7 +22015,7 @@
         <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22421,7 +22421,7 @@
         <v>1.71</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU108" t="n">
         <v>1.57</v>
@@ -22621,7 +22621,7 @@
         <v>0.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT109" t="n">
         <v>0.83</v>
@@ -22827,7 +22827,7 @@
         <v>2.71</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -23842,7 +23842,7 @@
         <v>1.29</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU115" t="n">
         <v>1.55</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -24651,7 +24651,7 @@
         <v>0.83</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT119" t="n">
         <v>0.71</v>
@@ -25466,7 +25466,7 @@
         <v>1.83</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU123" t="n">
         <v>1.64</v>
@@ -25872,7 +25872,7 @@
         <v>1.57</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU125" t="n">
         <v>1.54</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT126" t="n">
         <v>0.83</v>
@@ -26275,10 +26275,10 @@
         <v>0.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU127" t="n">
         <v>1.85</v>
@@ -28359,6 +28359,818 @@
         <v>10</v>
       </c>
       <c r="BK137" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5240225</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45038.66666666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>15</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Atlético Huila</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['20', '45+3']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R138" t="n">
+        <v>3</v>
+      </c>
+      <c r="S138" t="n">
+        <v>9</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5240228</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45038.75694444445</v>
+      </c>
+      <c r="F139" t="n">
+        <v>15</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>3</v>
+      </c>
+      <c r="N139" t="n">
+        <v>3</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['27', '31', '49']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>5</v>
+      </c>
+      <c r="R139" t="n">
+        <v>5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>10</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5240227</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45038.84722222222</v>
+      </c>
+      <c r="F140" t="n">
+        <v>15</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>4</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1</v>
+      </c>
+      <c r="S140" t="n">
+        <v>5</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V140" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5240230</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45038.9375</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['64', '74', '85']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>3</v>
+      </c>
+      <c r="R141" t="n">
+        <v>4</v>
+      </c>
+      <c r="S141" t="n">
+        <v>7</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V141" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK141" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT3" t="n">
         <v>0.38</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
         <v>0.83</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT9" t="n">
         <v>0.57</v>
@@ -2933,7 +2933,7 @@
         <v>1.29</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT15" t="n">
         <v>0.29</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT16" t="n">
         <v>0.57</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>1.29</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT23" t="n">
         <v>0.83</v>
@@ -5369,7 +5369,7 @@
         <v>2.71</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU24" t="n">
         <v>2.08</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT30" t="n">
         <v>0.57</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.86</v>
@@ -7602,7 +7602,7 @@
         <v>1.71</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU35" t="n">
         <v>2.19</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT36" t="n">
         <v>0.83</v>
@@ -9023,7 +9023,7 @@
         <v>0.86</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.97</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.65</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT47" t="n">
         <v>0.83</v>
@@ -10444,7 +10444,7 @@
         <v>0.86</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU49" t="n">
         <v>1.92</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT53" t="n">
         <v>1.38</v>
@@ -11459,7 +11459,7 @@
         <v>1.14</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT58" t="n">
         <v>0.29</v>
@@ -12880,7 +12880,7 @@
         <v>1.57</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.76</v>
@@ -13083,7 +13083,7 @@
         <v>1.29</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU62" t="n">
         <v>1.61</v>
@@ -14098,7 +14098,7 @@
         <v>1.43</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU67" t="n">
         <v>1.47</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>2.71</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>2.01</v>
@@ -15722,7 +15722,7 @@
         <v>1.29</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT76" t="n">
         <v>0.83</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT80" t="n">
         <v>0.83</v>
@@ -17346,7 +17346,7 @@
         <v>0.86</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU83" t="n">
         <v>1.63</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT88" t="n">
         <v>1.14</v>
@@ -18767,7 +18767,7 @@
         <v>0.86</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.59</v>
@@ -19576,7 +19576,7 @@
         <v>0.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT94" t="n">
         <v>1.14</v>
@@ -19985,7 +19985,7 @@
         <v>1.86</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU96" t="n">
         <v>2.07</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT98" t="n">
         <v>0.57</v>
@@ -20594,7 +20594,7 @@
         <v>1.86</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU99" t="n">
         <v>1.85</v>
@@ -20797,7 +20797,7 @@
         <v>1.57</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.61</v>
@@ -21200,7 +21200,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT102" t="n">
         <v>0.71</v>
@@ -21406,7 +21406,7 @@
         <v>1.83</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU103" t="n">
         <v>1.6</v>
@@ -21609,7 +21609,7 @@
         <v>1.63</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU104" t="n">
         <v>1.81</v>
@@ -21812,7 +21812,7 @@
         <v>0.86</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU105" t="n">
         <v>1.58</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT106" t="n">
         <v>0.29</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT107" t="n">
         <v>1.25</v>
@@ -24857,7 +24857,7 @@
         <v>1.71</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU120" t="n">
         <v>1.46</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT121" t="n">
         <v>1.25</v>
@@ -25260,10 +25260,10 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.35</v>
@@ -25666,10 +25666,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU124" t="n">
         <v>1.39</v>
@@ -28102,7 +28102,7 @@
         <v>1.4</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT136" t="n">
         <v>1.33</v>
@@ -29172,6 +29172,818 @@
       </c>
       <c r="BK141" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5240231</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45039.75</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3</v>
+      </c>
+      <c r="R142" t="n">
+        <v>6</v>
+      </c>
+      <c r="S142" t="n">
+        <v>9</v>
+      </c>
+      <c r="T142" t="n">
+        <v>4</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5240226</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45039.84027777778</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>3</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>7</v>
+      </c>
+      <c r="T143" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5240224</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45039.93055555555</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['2', '3']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>3</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>3</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5240229</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45040.92361111111</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['15', '90+3']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>5</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>5</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V145" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT2" t="n">
         <v>0.83</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT4" t="n">
         <v>1.14</v>
@@ -1512,7 +1512,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT6" t="n">
         <v>1.33</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT7" t="n">
         <v>0.71</v>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.63</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
         <v>0.75</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT11" t="n">
         <v>1.25</v>
@@ -3136,7 +3136,7 @@
         <v>1.63</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT14" t="n">
         <v>0.63</v>
@@ -3542,7 +3542,7 @@
         <v>2.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU15" t="n">
         <v>1.91</v>
@@ -3745,7 +3745,7 @@
         <v>2.13</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.83</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT22" t="n">
         <v>1.14</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT24" t="n">
         <v>0.63</v>
@@ -5572,7 +5572,7 @@
         <v>1.63</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>2.16</v>
@@ -6181,7 +6181,7 @@
         <v>1.63</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU28" t="n">
         <v>1.46</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT29" t="n">
         <v>1.25</v>
@@ -6587,7 +6587,7 @@
         <v>2.13</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU30" t="n">
         <v>2.5</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT32" t="n">
         <v>0.88</v>
@@ -7399,7 +7399,7 @@
         <v>1.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>0.63</v>
@@ -7805,7 +7805,7 @@
         <v>1.63</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU36" t="n">
         <v>1.59</v>
@@ -8211,7 +8211,7 @@
         <v>2.6</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT39" t="n">
         <v>1.14</v>
@@ -8820,7 +8820,7 @@
         <v>1.63</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU41" t="n">
         <v>1.23</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT42" t="n">
         <v>1.5</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT44" t="n">
         <v>0.75</v>
@@ -9632,7 +9632,7 @@
         <v>1.63</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU45" t="n">
         <v>2.31</v>
@@ -10241,7 +10241,7 @@
         <v>1.86</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>2.44</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT49" t="n">
         <v>1.63</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT50" t="n">
         <v>0.88</v>
@@ -10850,7 +10850,7 @@
         <v>2.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU51" t="n">
         <v>2.46</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT52" t="n">
         <v>0.38</v>
@@ -11659,7 +11659,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT55" t="n">
         <v>0.71</v>
@@ -11865,7 +11865,7 @@
         <v>1.63</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU56" t="n">
         <v>1.2</v>
@@ -12068,7 +12068,7 @@
         <v>1.63</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU57" t="n">
         <v>1.77</v>
@@ -12271,7 +12271,7 @@
         <v>1.43</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT61" t="n">
         <v>1.5</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT67" t="n">
         <v>1.63</v>
@@ -14301,7 +14301,7 @@
         <v>2.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU68" t="n">
         <v>1.75</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>2.25</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU71" t="n">
         <v>2.08</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT72" t="n">
         <v>1.38</v>
@@ -15313,10 +15313,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU73" t="n">
         <v>1.76</v>
@@ -15925,7 +15925,7 @@
         <v>1.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU76" t="n">
         <v>1.7</v>
@@ -16128,7 +16128,7 @@
         <v>1.63</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -16534,7 +16534,7 @@
         <v>1.63</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16737,7 +16737,7 @@
         <v>2.13</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU80" t="n">
         <v>1.8</v>
@@ -17143,7 +17143,7 @@
         <v>1.83</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU82" t="n">
         <v>1.76</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT83" t="n">
         <v>0.63</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT84" t="n">
         <v>0.71</v>
@@ -18158,7 +18158,7 @@
         <v>1.63</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT89" t="n">
         <v>0.83</v>
@@ -18764,7 +18764,7 @@
         <v>0.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19170,10 +19170,10 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU92" t="n">
         <v>1.45</v>
@@ -19373,7 +19373,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT93" t="n">
         <v>0.38</v>
@@ -20391,7 +20391,7 @@
         <v>2.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU98" t="n">
         <v>1.64</v>
@@ -20591,7 +20591,7 @@
         <v>1.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT99" t="n">
         <v>1.63</v>
@@ -20794,7 +20794,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1</v>
@@ -21000,7 +21000,7 @@
         <v>1.86</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU101" t="n">
         <v>1.91</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT105" t="n">
         <v>1.63</v>
@@ -22015,7 +22015,7 @@
         <v>2.13</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22418,7 +22418,7 @@
         <v>0.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
         <v>0.88</v>
@@ -22624,7 +22624,7 @@
         <v>1.63</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT110" t="n">
         <v>0.38</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.48</v>
@@ -23436,7 +23436,7 @@
         <v>1.14</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU113" t="n">
         <v>1.82</v>
@@ -23639,7 +23639,7 @@
         <v>2.6</v>
       </c>
       <c r="AT114" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -24045,7 +24045,7 @@
         <v>2.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU116" t="n">
         <v>1.89</v>
@@ -24245,7 +24245,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT117" t="n">
         <v>1.14</v>
@@ -24448,7 +24448,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT118" t="n">
         <v>1.38</v>
@@ -24854,7 +24854,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT120" t="n">
         <v>1.63</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT125" t="n">
         <v>0.75</v>
@@ -26075,7 +26075,7 @@
         <v>1.63</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU126" t="n">
         <v>1.83</v>
@@ -26278,7 +26278,7 @@
         <v>2.25</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU127" t="n">
         <v>1.85</v>
@@ -26481,7 +26481,7 @@
         <v>1.14</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU128" t="n">
         <v>1.88</v>
@@ -26684,7 +26684,7 @@
         <v>1.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -26884,10 +26884,10 @@
         <v>0.71</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27087,7 +27087,7 @@
         <v>0.83</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT131" t="n">
         <v>1.14</v>
@@ -27290,10 +27290,10 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU132" t="n">
         <v>1.74</v>
@@ -27493,7 +27493,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT133" t="n">
         <v>1.38</v>
@@ -27696,10 +27696,10 @@
         <v>0.4</v>
       </c>
       <c r="AS134" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT134" t="n">
         <v>0.86</v>
-      </c>
-      <c r="AT134" t="n">
-        <v>0.83</v>
       </c>
       <c r="AU134" t="n">
         <v>1.59</v>
@@ -27902,7 +27902,7 @@
         <v>1.5</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU135" t="n">
         <v>1.65</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT137" t="n">
         <v>1.25</v>
@@ -28917,7 +28917,7 @@
         <v>1.63</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU140" t="n">
         <v>1.78</v>
@@ -29984,6 +29984,1427 @@
       </c>
       <c r="BK145" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5240237</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45041.75</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>4</v>
+      </c>
+      <c r="R146" t="n">
+        <v>6</v>
+      </c>
+      <c r="S146" t="n">
+        <v>10</v>
+      </c>
+      <c r="T146" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5240242</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45041.84027777778</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>3</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5240234</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45041.93055555555</v>
+      </c>
+      <c r="F148" t="n">
+        <v>16</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Atlético Huila</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>5</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['3', '52']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['27', '45+1', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>5</v>
+      </c>
+      <c r="R148" t="n">
+        <v>5</v>
+      </c>
+      <c r="S148" t="n">
+        <v>10</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5240236</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45042.66666666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>16</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>11</v>
+      </c>
+      <c r="R149" t="n">
+        <v>5</v>
+      </c>
+      <c r="S149" t="n">
+        <v>16</v>
+      </c>
+      <c r="T149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5240233</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45042.75694444445</v>
+      </c>
+      <c r="F150" t="n">
+        <v>16</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>7</v>
+      </c>
+      <c r="R150" t="n">
+        <v>4</v>
+      </c>
+      <c r="S150" t="n">
+        <v>11</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V150" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5240241</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45042.84722222222</v>
+      </c>
+      <c r="F151" t="n">
+        <v>16</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>3</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>3</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['17', '36', '45+4']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>3</v>
+      </c>
+      <c r="R151" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" t="n">
+        <v>6</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5240238</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45042.9375</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['20', '69']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>3</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V152" t="n">
+        <v>6</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.88</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
         <v>1.63</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT17" t="n">
         <v>0.38</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT21" t="n">
         <v>0.71</v>
@@ -4963,7 +4963,7 @@
         <v>0.88</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.95</v>
@@ -5166,7 +5166,7 @@
         <v>1.43</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU23" t="n">
         <v>1.29</v>
@@ -8008,7 +8008,7 @@
         <v>1.83</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU37" t="n">
         <v>2.6</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT38" t="n">
         <v>0.38</v>
@@ -8414,7 +8414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.47</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT40" t="n">
         <v>0.71</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT43" t="n">
         <v>1.25</v>
@@ -10038,7 +10038,7 @@
         <v>2.13</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT60" t="n">
         <v>0.88</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT62" t="n">
         <v>0.63</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT66" t="n">
         <v>0.75</v>
@@ -14707,7 +14707,7 @@
         <v>1.63</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU70" t="n">
         <v>2.31</v>
@@ -15519,7 +15519,7 @@
         <v>1.86</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU74" t="n">
         <v>2.32</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT75" t="n">
         <v>1.5</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT81" t="n">
         <v>1.25</v>
@@ -17952,7 +17952,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT86" t="n">
         <v>1.38</v>
@@ -18361,7 +18361,7 @@
         <v>2.13</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.88</v>
@@ -18564,7 +18564,7 @@
         <v>2.75</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU89" t="n">
         <v>1.85</v>
@@ -19579,7 +19579,7 @@
         <v>1.43</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.45</v>
@@ -19779,10 +19779,10 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT95" t="n">
         <v>1.14</v>
-      </c>
-      <c r="AT95" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -23233,7 +23233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU112" t="n">
         <v>1.64</v>
@@ -23433,7 +23433,7 @@
         <v>0.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT113" t="n">
         <v>0.63</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT114" t="n">
         <v>1.22</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT115" t="n">
         <v>0.75</v>
@@ -24248,7 +24248,7 @@
         <v>1.63</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.52</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT128" t="n">
         <v>0.5</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT129" t="n">
         <v>0.88</v>
@@ -27090,7 +27090,7 @@
         <v>1.75</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.89</v>
@@ -28105,7 +28105,7 @@
         <v>2.5</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU136" t="n">
         <v>1.61</v>
@@ -31405,6 +31405,615 @@
       </c>
       <c r="BK152" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5240235</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45043.75</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>3</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2</v>
+      </c>
+      <c r="S153" t="n">
+        <v>5</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2</v>
+      </c>
+      <c r="V153" t="n">
+        <v>5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5240239</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45043.84027777778</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2</v>
+      </c>
+      <c r="K154" t="n">
+        <v>4</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>5</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['5', '44', '58']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['2', '29']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3</v>
+      </c>
+      <c r="R154" t="n">
+        <v>4</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5240240</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45043.93055555555</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3</v>
+      </c>
+      <c r="L155" t="n">
+        <v>4</v>
+      </c>
+      <c r="M155" t="n">
+        <v>3</v>
+      </c>
+      <c r="N155" t="n">
+        <v>7</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['31', '38', '47', '81']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['22', '83', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>5</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1</v>
+      </c>
+      <c r="S155" t="n">
+        <v>6</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V155" t="n">
+        <v>5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT3" t="n">
         <v>0.38</v>
@@ -2730,7 +2730,7 @@
         <v>1.63</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU11" t="n">
         <v>2.15</v>
@@ -3339,7 +3339,7 @@
         <v>0.88</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT18" t="n">
         <v>0.88</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU19" t="n">
         <v>1.29</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT23" t="n">
         <v>0.86</v>
@@ -5369,7 +5369,7 @@
         <v>2.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU24" t="n">
         <v>2.08</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT26" t="n">
         <v>0.38</v>
@@ -6384,7 +6384,7 @@
         <v>0.88</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU29" t="n">
         <v>1.95</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU35" t="n">
         <v>2.19</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT37" t="n">
         <v>1.14</v>
@@ -9023,7 +9023,7 @@
         <v>0.88</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU42" t="n">
         <v>1.97</v>
@@ -9226,7 +9226,7 @@
         <v>1.38</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU43" t="n">
         <v>1.81</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
         <v>0.5</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT51" t="n">
         <v>1.22</v>
@@ -11256,7 +11256,7 @@
         <v>2.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU53" t="n">
         <v>1.73</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT58" t="n">
         <v>0.38</v>
@@ -12471,10 +12471,10 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU59" t="n">
         <v>1.98</v>
@@ -12880,7 +12880,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU61" t="n">
         <v>1.76</v>
@@ -13083,7 +13083,7 @@
         <v>1.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU62" t="n">
         <v>1.61</v>
@@ -13486,10 +13486,10 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU64" t="n">
         <v>1.95</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT71" t="n">
         <v>0.5</v>
@@ -15113,7 +15113,7 @@
         <v>0.88</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.14</v>
@@ -15722,7 +15722,7 @@
         <v>1.25</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -16940,7 +16940,7 @@
         <v>2.67</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU81" t="n">
         <v>1.68</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT82" t="n">
         <v>0.38</v>
@@ -17346,7 +17346,7 @@
         <v>0.88</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU83" t="n">
         <v>1.63</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
         <v>0.88</v>
@@ -17955,7 +17955,7 @@
         <v>2.67</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU86" t="n">
         <v>1.6</v>
@@ -18967,7 +18967,7 @@
         <v>1.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT91" t="n">
         <v>0.75</v>
@@ -19576,7 +19576,7 @@
         <v>0.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT94" t="n">
         <v>1</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT96" t="n">
         <v>1.63</v>
@@ -20188,7 +20188,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU97" t="n">
         <v>1.69</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT101" t="n">
         <v>0.86</v>
@@ -21403,10 +21403,10 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU103" t="n">
         <v>1.6</v>
@@ -21609,7 +21609,7 @@
         <v>1.63</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU104" t="n">
         <v>1.81</v>
@@ -22215,10 +22215,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT116" t="n">
         <v>0.88</v>
@@ -24451,7 +24451,7 @@
         <v>1.75</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU118" t="n">
         <v>1.96</v>
@@ -25060,7 +25060,7 @@
         <v>2.13</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU121" t="n">
         <v>1.98</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25463,7 +25463,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT123" t="n">
         <v>0.88</v>
@@ -25669,7 +25669,7 @@
         <v>1.63</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU124" t="n">
         <v>1.39</v>
@@ -26275,7 +26275,7 @@
         <v>0.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT127" t="n">
         <v>0.38</v>
@@ -27496,7 +27496,7 @@
         <v>1.5</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU133" t="n">
         <v>1.4</v>
@@ -28308,7 +28308,7 @@
         <v>1.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU137" t="n">
         <v>1.47</v>
@@ -28711,7 +28711,7 @@
         <v>0.57</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT139" t="n">
         <v>0.88</v>
@@ -29117,7 +29117,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>0.75</v>
@@ -29323,7 +29323,7 @@
         <v>1.63</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU142" t="n">
         <v>1.41</v>
@@ -29523,7 +29523,7 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT143" t="n">
         <v>1.63</v>
@@ -29729,7 +29729,7 @@
         <v>2.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU144" t="n">
         <v>1.67</v>
@@ -32014,6 +32014,818 @@
       </c>
       <c r="BK155" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5240251</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45045.66666666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>17</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['36', '81']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>5</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>8</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5240247</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45045.75694444445</v>
+      </c>
+      <c r="F157" t="n">
+        <v>17</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['7', '45+7']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>6</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>8</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V157" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5240249</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45045.84722222222</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['40', '45+4']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>6</v>
+      </c>
+      <c r="R158" t="n">
+        <v>3</v>
+      </c>
+      <c r="S158" t="n">
+        <v>9</v>
+      </c>
+      <c r="T158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5240243</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45045.9375</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['36', '45+1', '59']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>3</v>
+      </c>
+      <c r="R159" t="n">
+        <v>7</v>
+      </c>
+      <c r="S159" t="n">
+        <v>10</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V159" t="n">
+        <v>4</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.63</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT5" t="n">
         <v>0.86</v>
@@ -1918,7 +1918,7 @@
         <v>1.63</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
         <v>0.88</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT9" t="n">
         <v>0.63</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT13" t="n">
         <v>1.22</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT15" t="n">
         <v>0.38</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5</v>
@@ -3948,7 +3948,7 @@
         <v>1.25</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>2.06</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
         <v>1.71</v>
@@ -4760,7 +4760,7 @@
         <v>1.38</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -5775,7 +5775,7 @@
         <v>2.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU27" t="n">
         <v>1.61</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT28" t="n">
         <v>1.22</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT30" t="n">
         <v>0.63</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU31" t="n">
         <v>1.86</v>
@@ -6993,7 +6993,7 @@
         <v>1.63</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU32" t="n">
         <v>1.45</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT34" t="n">
         <v>1.22</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT36" t="n">
         <v>0.86</v>
@@ -8617,7 +8617,7 @@
         <v>1.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU40" t="n">
         <v>1.58</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT41" t="n">
         <v>0.88</v>
@@ -9429,7 +9429,7 @@
         <v>2.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU44" t="n">
         <v>2.03</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT45" t="n">
         <v>0.63</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU46" t="n">
         <v>1.65</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT47" t="n">
         <v>0.86</v>
@@ -10444,7 +10444,7 @@
         <v>0.88</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU49" t="n">
         <v>1.92</v>
@@ -10647,7 +10647,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU50" t="n">
         <v>1.78</v>
@@ -11053,7 +11053,7 @@
         <v>1.63</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT53" t="n">
         <v>1.22</v>
@@ -11459,7 +11459,7 @@
         <v>1.38</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11662,7 +11662,7 @@
         <v>0.88</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU55" t="n">
         <v>1.71</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT56" t="n">
         <v>0.86</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT57" t="n">
         <v>0.88</v>
@@ -12677,7 +12677,7 @@
         <v>2.67</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU60" t="n">
         <v>2.02</v>
@@ -13689,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU65" t="n">
         <v>1.64</v>
@@ -13895,7 +13895,7 @@
         <v>1.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU66" t="n">
         <v>1.84</v>
@@ -14098,7 +14098,7 @@
         <v>1.63</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU67" t="n">
         <v>1.47</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT68" t="n">
         <v>1.22</v>
@@ -14504,7 +14504,7 @@
         <v>2.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU69" t="n">
         <v>2.01</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT70" t="n">
         <v>0.86</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT76" t="n">
         <v>0.86</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT77" t="n">
         <v>0.5</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT79" t="n">
         <v>0.88</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT80" t="n">
         <v>0.86</v>
@@ -17549,7 +17549,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU85" t="n">
         <v>2.18</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT87" t="n">
         <v>0.86</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18767,7 +18767,7 @@
         <v>0.88</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU90" t="n">
         <v>1.59</v>
@@ -18970,7 +18970,7 @@
         <v>2.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU91" t="n">
         <v>2.01</v>
@@ -19376,7 +19376,7 @@
         <v>1.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.76</v>
@@ -19985,7 +19985,7 @@
         <v>2</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU96" t="n">
         <v>2.07</v>
@@ -20185,7 +20185,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT97" t="n">
         <v>1.22</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT98" t="n">
         <v>0.63</v>
@@ -20594,7 +20594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU99" t="n">
         <v>1.85</v>
@@ -20797,7 +20797,7 @@
         <v>1.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU100" t="n">
         <v>1.61</v>
@@ -21200,10 +21200,10 @@
         <v>0.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU102" t="n">
         <v>1.47</v>
@@ -21606,7 +21606,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT104" t="n">
         <v>1.71</v>
@@ -21812,7 +21812,7 @@
         <v>0.88</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU105" t="n">
         <v>1.58</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT106" t="n">
         <v>0.38</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU108" t="n">
         <v>1.57</v>
@@ -22621,7 +22621,7 @@
         <v>0.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT109" t="n">
         <v>0.86</v>
@@ -22827,7 +22827,7 @@
         <v>2.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
         <v>0.86</v>
@@ -23842,7 +23842,7 @@
         <v>1.25</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU115" t="n">
         <v>1.55</v>
@@ -24651,10 +24651,10 @@
         <v>0.83</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU119" t="n">
         <v>1.59</v>
@@ -24857,7 +24857,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU120" t="n">
         <v>1.46</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT121" t="n">
         <v>1.11</v>
@@ -25263,7 +25263,7 @@
         <v>1.63</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU122" t="n">
         <v>1.35</v>
@@ -25466,7 +25466,7 @@
         <v>1.57</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU123" t="n">
         <v>1.64</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT124" t="n">
         <v>0.5600000000000001</v>
@@ -25872,7 +25872,7 @@
         <v>1.5</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU125" t="n">
         <v>1.54</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT126" t="n">
         <v>0.86</v>
@@ -27899,7 +27899,7 @@
         <v>0.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT135" t="n">
         <v>0.63</v>
@@ -28102,7 +28102,7 @@
         <v>1.4</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT136" t="n">
         <v>1.14</v>
@@ -28508,10 +28508,10 @@
         <v>0.43</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU138" t="n">
         <v>1.63</v>
@@ -28714,7 +28714,7 @@
         <v>2.33</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU139" t="n">
         <v>1.78</v>
@@ -28914,7 +28914,7 @@
         <v>0.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT140" t="n">
         <v>0.38</v>
@@ -29120,7 +29120,7 @@
         <v>2</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU141" t="n">
         <v>1.87</v>
@@ -29320,7 +29320,7 @@
         <v>1.6</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT142" t="n">
         <v>1.71</v>
@@ -29526,7 +29526,7 @@
         <v>1.63</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU143" t="n">
         <v>1.41</v>
@@ -29726,7 +29726,7 @@
         <v>0.71</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT144" t="n">
         <v>0.5600000000000001</v>
@@ -29929,10 +29929,10 @@
         <v>1.14</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU145" t="n">
         <v>1.86</v>
@@ -32826,6 +32826,1224 @@
       </c>
       <c r="BK159" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5240246</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45046.66666666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['46', '83']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>6</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2</v>
+      </c>
+      <c r="S160" t="n">
+        <v>8</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5240248</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45046.75694444445</v>
+      </c>
+      <c r="F161" t="n">
+        <v>17</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>9</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2</v>
+      </c>
+      <c r="S161" t="n">
+        <v>11</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5240250</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45046.84722222222</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>4</v>
+      </c>
+      <c r="L162" t="n">
+        <v>5</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" t="n">
+        <v>7</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['21', '24', '40', '88', '90+6']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['45+4', '79']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>6</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V162" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5240245</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45046.9375</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>8</v>
+      </c>
+      <c r="R163" t="n">
+        <v>5</v>
+      </c>
+      <c r="S163" t="n">
+        <v>13</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5240252</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45047.70833333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Atlético Huila</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>9</v>
+      </c>
+      <c r="R164" t="n">
+        <v>4</v>
+      </c>
+      <c r="S164" t="n">
+        <v>13</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2</v>
+      </c>
+      <c r="V164" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5240244</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45047.80208333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>5</v>
+      </c>
+      <c r="R165" t="n">
+        <v>4</v>
+      </c>
+      <c r="S165" t="n">
+        <v>9</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK165"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.88</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT7" t="n">
         <v>0.63</v>
@@ -2324,7 +2324,7 @@
         <v>1.44</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT11" t="n">
         <v>1.11</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.63</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU23" t="n">
         <v>1.29</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT24" t="n">
         <v>0.5600000000000001</v>
@@ -6587,7 +6587,7 @@
         <v>2.22</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>2.5</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT32" t="n">
         <v>0.78</v>
@@ -8008,7 +8008,7 @@
         <v>1.57</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>2.6</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT38" t="n">
         <v>0.38</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT44" t="n">
         <v>0.78</v>
@@ -9632,7 +9632,7 @@
         <v>1.78</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU45" t="n">
         <v>2.31</v>
@@ -10038,7 +10038,7 @@
         <v>2.22</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT52" t="n">
         <v>0.67</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT60" t="n">
         <v>0.78</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT67" t="n">
         <v>1.44</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT69" t="n">
         <v>0.89</v>
@@ -14707,7 +14707,7 @@
         <v>1.78</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU70" t="n">
         <v>2.31</v>
@@ -15316,7 +15316,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.76</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>2.32</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT81" t="n">
         <v>1.11</v>
@@ -17952,7 +17952,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT86" t="n">
         <v>1.22</v>
@@ -18561,10 +18561,10 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU89" t="n">
         <v>1.85</v>
@@ -19170,7 +19170,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT92" t="n">
         <v>1.22</v>
@@ -19782,7 +19782,7 @@
         <v>1.38</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -20391,7 +20391,7 @@
         <v>2.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU98" t="n">
         <v>1.64</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT110" t="n">
         <v>0.67</v>
@@ -23233,7 +23233,7 @@
         <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU112" t="n">
         <v>1.64</v>
@@ -23436,7 +23436,7 @@
         <v>1.38</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU113" t="n">
         <v>1.82</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT114" t="n">
         <v>1.22</v>
@@ -24245,7 +24245,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT117" t="n">
         <v>1</v>
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT132" t="n">
         <v>0.86</v>
@@ -27902,7 +27902,7 @@
         <v>1.67</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU135" t="n">
         <v>1.65</v>
@@ -28105,7 +28105,7 @@
         <v>2.33</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.61</v>
@@ -30338,7 +30338,7 @@
         <v>1.5</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU147" t="n">
         <v>1.4</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT151" t="n">
         <v>0.88</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT152" t="n">
         <v>0.5</v>
@@ -31556,7 +31556,7 @@
         <v>1.25</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU153" t="n">
         <v>1.63</v>
@@ -31959,10 +31959,10 @@
         <v>1.33</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -34044,6 +34044,615 @@
       </c>
       <c r="BK165" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5240221</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45050.83680555555</v>
+      </c>
+      <c r="F166" t="n">
+        <v>14</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>7</v>
+      </c>
+      <c r="R166" t="n">
+        <v>4</v>
+      </c>
+      <c r="S166" t="n">
+        <v>11</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V166" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5240219</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45050.92708333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>14</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['3', '39']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>7</v>
+      </c>
+      <c r="R167" t="n">
+        <v>10</v>
+      </c>
+      <c r="S167" t="n">
+        <v>17</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5240261</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45051.85416666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>18</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2</v>
+      </c>
+      <c r="S168" t="n">
+        <v>4</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT2" t="n">
         <v>0.88</v>
@@ -1309,7 +1309,7 @@
         <v>2.56</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5600000000000001</v>
@@ -3745,7 +3745,7 @@
         <v>2.22</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU22" t="n">
         <v>1.95</v>
@@ -5572,7 +5572,7 @@
         <v>1.78</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU25" t="n">
         <v>2.16</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT29" t="n">
         <v>1.11</v>
@@ -7805,7 +7805,7 @@
         <v>1.44</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU36" t="n">
         <v>1.59</v>
@@ -8414,7 +8414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU39" t="n">
         <v>1.47</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT42" t="n">
         <v>1.71</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU48" t="n">
         <v>2.44</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT49" t="n">
         <v>1.44</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT50" t="n">
         <v>0.78</v>
@@ -11659,7 +11659,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT55" t="n">
         <v>0.63</v>
@@ -11865,7 +11865,7 @@
         <v>1.78</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU56" t="n">
         <v>1.2</v>
@@ -14910,7 +14910,7 @@
         <v>2.33</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU71" t="n">
         <v>2.08</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT72" t="n">
         <v>1.22</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT73" t="n">
         <v>0.67</v>
@@ -16128,7 +16128,7 @@
         <v>1.78</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -16737,7 +16737,7 @@
         <v>2.22</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU80" t="n">
         <v>1.8</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT83" t="n">
         <v>0.5600000000000001</v>
@@ -18361,7 +18361,7 @@
         <v>2.22</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU88" t="n">
         <v>1.88</v>
@@ -18764,7 +18764,7 @@
         <v>0.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT90" t="n">
         <v>0.89</v>
@@ -19373,7 +19373,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT93" t="n">
         <v>0.67</v>
@@ -19579,7 +19579,7 @@
         <v>1.63</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU94" t="n">
         <v>1.45</v>
@@ -20591,7 +20591,7 @@
         <v>1.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT99" t="n">
         <v>1.44</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT105" t="n">
         <v>1.44</v>
@@ -22624,7 +22624,7 @@
         <v>1.78</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU111" t="n">
         <v>1.48</v>
@@ -24248,7 +24248,7 @@
         <v>1.78</v>
       </c>
       <c r="AT117" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU117" t="n">
         <v>1.52</v>
@@ -24448,7 +24448,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT118" t="n">
         <v>1.22</v>
@@ -26481,7 +26481,7 @@
         <v>1.38</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU128" t="n">
         <v>1.88</v>
@@ -26884,7 +26884,7 @@
         <v>0.71</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT130" t="n">
         <v>1.22</v>
@@ -27087,10 +27087,10 @@
         <v>0.83</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU131" t="n">
         <v>1.89</v>
@@ -27696,10 +27696,10 @@
         <v>0.4</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU134" t="n">
         <v>1.59</v>
@@ -30132,10 +30132,10 @@
         <v>0.83</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU146" t="n">
         <v>1.48</v>
@@ -30741,7 +30741,7 @@
         <v>0.83</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT149" t="n">
         <v>0.86</v>
@@ -30944,7 +30944,7 @@
         <v>0.29</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT150" t="n">
         <v>0.38</v>
@@ -31353,7 +31353,7 @@
         <v>1.78</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU152" t="n">
         <v>1.49</v>
@@ -31759,7 +31759,7 @@
         <v>1.38</v>
       </c>
       <c r="AT154" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU154" t="n">
         <v>1.82</v>
@@ -34314,10 +34314,10 @@
         <v>7</v>
       </c>
       <c r="R167" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S167" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T167" t="n">
         <v>2.55</v>
@@ -34652,6 +34652,615 @@
         <v>17</v>
       </c>
       <c r="BK168" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5240257</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45052.75347222222</v>
+      </c>
+      <c r="F169" t="n">
+        <v>18</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2</v>
+      </c>
+      <c r="L169" t="n">
+        <v>3</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['18', '45+1', '63']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>2</v>
+      </c>
+      <c r="R169" t="n">
+        <v>5</v>
+      </c>
+      <c r="S169" t="n">
+        <v>7</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5240253</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45052.84375</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>3</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['2', '20']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>5</v>
+      </c>
+      <c r="R170" t="n">
+        <v>5</v>
+      </c>
+      <c r="S170" t="n">
+        <v>10</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2</v>
+      </c>
+      <c r="V170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5240256</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45052.93402777778</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['11', '64']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>4</v>
+      </c>
+      <c r="R171" t="n">
+        <v>5</v>
+      </c>
+      <c r="S171" t="n">
+        <v>9</v>
+      </c>
+      <c r="T171" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK171" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.11</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.89</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT7" t="n">
         <v>0.63</v>
@@ -2121,7 +2121,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
         <v>0.78</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT11" t="n">
         <v>1.11</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT12" t="n">
         <v>1.44</v>
@@ -3136,7 +3136,7 @@
         <v>1.78</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
         <v>1.91</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT17" t="n">
         <v>0.67</v>
@@ -4151,7 +4151,7 @@
         <v>1.57</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT21" t="n">
         <v>0.63</v>
@@ -5166,7 +5166,7 @@
         <v>1.63</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU23" t="n">
         <v>1.29</v>
@@ -6181,7 +6181,7 @@
         <v>1.44</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.46</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT32" t="n">
         <v>0.78</v>
@@ -7399,7 +7399,7 @@
         <v>1.78</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT35" t="n">
         <v>0.5600000000000001</v>
@@ -8008,7 +8008,7 @@
         <v>1.57</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU37" t="n">
         <v>2.6</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT39" t="n">
         <v>0.89</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT40" t="n">
         <v>0.63</v>
@@ -8820,7 +8820,7 @@
         <v>1.78</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU41" t="n">
         <v>1.23</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT43" t="n">
         <v>1.11</v>
@@ -10038,7 +10038,7 @@
         <v>2.22</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10850,7 +10850,7 @@
         <v>2.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU51" t="n">
         <v>2.46</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT52" t="n">
         <v>0.67</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT54" t="n">
         <v>0.89</v>
@@ -12068,7 +12068,7 @@
         <v>1.44</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU57" t="n">
         <v>1.77</v>
@@ -12271,7 +12271,7 @@
         <v>1.63</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT60" t="n">
         <v>0.78</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>1.71</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT62" t="n">
         <v>0.5600000000000001</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT66" t="n">
         <v>0.78</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT67" t="n">
         <v>1.44</v>
@@ -14301,7 +14301,7 @@
         <v>2.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.75</v>
@@ -14707,7 +14707,7 @@
         <v>1.78</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU70" t="n">
         <v>2.31</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU74" t="n">
         <v>2.32</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT75" t="n">
         <v>1.71</v>
@@ -15925,7 +15925,7 @@
         <v>1.44</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU76" t="n">
         <v>1.7</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT78" t="n">
         <v>0.78</v>
@@ -16534,7 +16534,7 @@
         <v>1.78</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT81" t="n">
         <v>1.11</v>
@@ -17143,7 +17143,7 @@
         <v>1.57</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU82" t="n">
         <v>1.76</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT84" t="n">
         <v>0.63</v>
@@ -17952,7 +17952,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT86" t="n">
         <v>1.22</v>
@@ -18158,7 +18158,7 @@
         <v>1.78</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -18564,7 +18564,7 @@
         <v>2.56</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU89" t="n">
         <v>1.85</v>
@@ -19170,10 +19170,10 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.45</v>
@@ -19779,10 +19779,10 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -20794,7 +20794,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT100" t="n">
         <v>0.89</v>
@@ -21000,7 +21000,7 @@
         <v>2</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU101" t="n">
         <v>1.91</v>
@@ -22015,7 +22015,7 @@
         <v>2.22</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22418,7 +22418,7 @@
         <v>0.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT108" t="n">
         <v>0.78</v>
@@ -23233,7 +23233,7 @@
         <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU112" t="n">
         <v>1.64</v>
@@ -23433,7 +23433,7 @@
         <v>0.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT113" t="n">
         <v>0.67</v>
@@ -23636,10 +23636,10 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT115" t="n">
         <v>0.78</v>
@@ -24045,7 +24045,7 @@
         <v>2.33</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU116" t="n">
         <v>1.89</v>
@@ -24245,7 +24245,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT117" t="n">
         <v>0.89</v>
@@ -24854,7 +24854,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT120" t="n">
         <v>1.44</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT125" t="n">
         <v>0.78</v>
@@ -26075,7 +26075,7 @@
         <v>1.78</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU126" t="n">
         <v>1.83</v>
@@ -26278,7 +26278,7 @@
         <v>2.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU127" t="n">
         <v>1.85</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT128" t="n">
         <v>0.44</v>
@@ -26681,10 +26681,10 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -26887,7 +26887,7 @@
         <v>1.11</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27293,7 +27293,7 @@
         <v>2.56</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU132" t="n">
         <v>1.74</v>
@@ -27493,7 +27493,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT133" t="n">
         <v>1.22</v>
@@ -28105,7 +28105,7 @@
         <v>2.33</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU136" t="n">
         <v>1.61</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT137" t="n">
         <v>1.11</v>
@@ -28917,7 +28917,7 @@
         <v>1.78</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU140" t="n">
         <v>1.78</v>
@@ -30335,7 +30335,7 @@
         <v>0.57</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT147" t="n">
         <v>0.67</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.39</v>
@@ -30744,7 +30744,7 @@
         <v>1.11</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU149" t="n">
         <v>1.59</v>
@@ -30947,7 +30947,7 @@
         <v>1.89</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU150" t="n">
         <v>1.94</v>
@@ -31150,7 +31150,7 @@
         <v>2.56</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU151" t="n">
         <v>1.73</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT152" t="n">
         <v>0.44</v>
@@ -31553,10 +31553,10 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU153" t="n">
         <v>1.63</v>
@@ -31756,7 +31756,7 @@
         <v>1.14</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT154" t="n">
         <v>0.89</v>
@@ -31959,10 +31959,10 @@
         <v>1.33</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -34192,10 +34192,10 @@
         <v>0.86</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU166" t="n">
         <v>1.65</v>
@@ -34395,10 +34395,10 @@
         <v>1.14</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT167" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU167" t="n">
         <v>1.42</v>
@@ -34514,13 +34514,13 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T168" t="n">
         <v>2.6</v>
@@ -35262,6 +35262,1224 @@
       </c>
       <c r="BK171" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5240255</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>3</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['51', '64', '88']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>6</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>8</v>
+      </c>
+      <c r="T172" t="n">
+        <v>3</v>
+      </c>
+      <c r="U172" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5240258</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45053.75694444445</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3</v>
+      </c>
+      <c r="L173" t="n">
+        <v>3</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['34', '44', '87']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>6</v>
+      </c>
+      <c r="R173" t="n">
+        <v>4</v>
+      </c>
+      <c r="S173" t="n">
+        <v>10</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V173" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5240260</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45053.84722222222</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>5</v>
+      </c>
+      <c r="R174" t="n">
+        <v>11</v>
+      </c>
+      <c r="S174" t="n">
+        <v>16</v>
+      </c>
+      <c r="T174" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5240262</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45053.9375</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>4</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>4</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['19', '58', '77', '87']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>7</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1</v>
+      </c>
+      <c r="S175" t="n">
+        <v>8</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U175" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5240259</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45054.84375</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['3', '42']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>6</v>
+      </c>
+      <c r="R176" t="n">
+        <v>4</v>
+      </c>
+      <c r="S176" t="n">
+        <v>10</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5240254</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45054.9375</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Atlético Huila</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['45+2', '47']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>6</v>
+      </c>
+      <c r="R177" t="n">
+        <v>5</v>
+      </c>
+      <c r="S177" t="n">
+        <v>11</v>
+      </c>
+      <c r="T177" t="n">
+        <v>4</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT3" t="n">
         <v>0.67</v>
@@ -1512,7 +1512,7 @@
         <v>2.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT23" t="n">
         <v>0.78</v>
@@ -7805,7 +7805,7 @@
         <v>1.44</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>1.59</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT38" t="n">
         <v>0.33</v>
@@ -11865,7 +11865,7 @@
         <v>1.78</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.2</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT58" t="n">
         <v>0.33</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT60" t="n">
         <v>0.78</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -15925,7 +15925,7 @@
         <v>1.44</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU76" t="n">
         <v>1.7</v>
@@ -16737,7 +16737,7 @@
         <v>2.22</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU80" t="n">
         <v>1.8</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT81" t="n">
         <v>1.11</v>
@@ -17952,7 +17952,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT86" t="n">
         <v>1.22</v>
@@ -18158,7 +18158,7 @@
         <v>1.78</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -19576,7 +19576,7 @@
         <v>0.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT94" t="n">
         <v>0.89</v>
@@ -21000,7 +21000,7 @@
         <v>2</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU101" t="n">
         <v>1.91</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT107" t="n">
         <v>1.11</v>
@@ -22624,7 +22624,7 @@
         <v>1.78</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT114" t="n">
         <v>1.1</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT122" t="n">
         <v>0.89</v>
@@ -26075,7 +26075,7 @@
         <v>1.78</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU126" t="n">
         <v>1.83</v>
@@ -27293,7 +27293,7 @@
         <v>2.56</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU132" t="n">
         <v>1.74</v>
@@ -27699,7 +27699,7 @@
         <v>1.11</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU134" t="n">
         <v>1.59</v>
@@ -29523,7 +29523,7 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT143" t="n">
         <v>1.44</v>
@@ -30135,7 +30135,7 @@
         <v>1.11</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU146" t="n">
         <v>1.48</v>
@@ -30744,7 +30744,7 @@
         <v>1.11</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU149" t="n">
         <v>1.59</v>
@@ -31959,7 +31959,7 @@
         <v>1.33</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT155" t="n">
         <v>1.22</v>
@@ -32365,7 +32365,7 @@
         <v>1.38</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT157" t="n">
         <v>1.22</v>
@@ -34192,7 +34192,7 @@
         <v>0.86</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT166" t="n">
         <v>0.78</v>
@@ -35007,7 +35007,7 @@
         <v>1.89</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU170" t="n">
         <v>1.89</v>
@@ -35616,7 +35616,7 @@
         <v>1.9</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU173" t="n">
         <v>1.42</v>
@@ -35816,7 +35816,7 @@
         <v>0.88</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT174" t="n">
         <v>0.78</v>
@@ -36480,6 +36480,412 @@
       </c>
       <c r="BK177" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5240124</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45056.83333333334</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>9</v>
+      </c>
+      <c r="R178" t="n">
+        <v>3</v>
+      </c>
+      <c r="S178" t="n">
+        <v>12</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5240103</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45056.92361111111</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>3</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['30', '65', '84']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>11</v>
+      </c>
+      <c r="R179" t="n">
+        <v>4</v>
+      </c>
+      <c r="S179" t="n">
+        <v>15</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V179" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.9</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT8" t="n">
         <v>0.78</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT9" t="n">
         <v>0.67</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.9</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU11" t="n">
         <v>2.15</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
         <v>0.78</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU19" t="n">
         <v>1.29</v>
@@ -4760,7 +4760,7 @@
         <v>1.56</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU27" t="n">
         <v>1.61</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT28" t="n">
         <v>1.1</v>
@@ -6384,7 +6384,7 @@
         <v>1.11</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU29" t="n">
         <v>1.95</v>
@@ -6993,7 +6993,7 @@
         <v>1.9</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU32" t="n">
         <v>1.45</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT33" t="n">
         <v>1.22</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT34" t="n">
         <v>1.1</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT36" t="n">
         <v>0.67</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
         <v>1.22</v>
@@ -8617,7 +8617,7 @@
         <v>1.44</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.58</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT41" t="n">
         <v>0.78</v>
@@ -9023,7 +9023,7 @@
         <v>1.11</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU42" t="n">
         <v>1.97</v>
@@ -9226,7 +9226,7 @@
         <v>1.56</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU43" t="n">
         <v>1.81</v>
@@ -9429,7 +9429,7 @@
         <v>2.56</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU44" t="n">
         <v>2.03</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT46" t="n">
         <v>0.89</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT48" t="n">
         <v>0.44</v>
@@ -10647,7 +10647,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU50" t="n">
         <v>1.78</v>
@@ -11662,7 +11662,7 @@
         <v>1.11</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU55" t="n">
         <v>1.71</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT56" t="n">
         <v>0.67</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT57" t="n">
         <v>0.78</v>
@@ -12471,10 +12471,10 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU59" t="n">
         <v>1.98</v>
@@ -12677,7 +12677,7 @@
         <v>2.56</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU60" t="n">
         <v>2.02</v>
@@ -12880,7 +12880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU61" t="n">
         <v>1.76</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT65" t="n">
         <v>0.67</v>
@@ -13895,7 +13895,7 @@
         <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU66" t="n">
         <v>1.84</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT74" t="n">
         <v>1.22</v>
@@ -15722,7 +15722,7 @@
         <v>1.44</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT76" t="n">
         <v>0.78</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT77" t="n">
         <v>0.44</v>
@@ -16331,7 +16331,7 @@
         <v>1.67</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16940,7 +16940,7 @@
         <v>2.56</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU81" t="n">
         <v>1.68</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT82" t="n">
         <v>0.33</v>
@@ -17549,7 +17549,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -17749,10 +17749,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU85" t="n">
         <v>2.18</v>
@@ -18155,7 +18155,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT87" t="n">
         <v>0.78</v>
@@ -18970,7 +18970,7 @@
         <v>2.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU91" t="n">
         <v>2.01</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT96" t="n">
         <v>1.44</v>
@@ -20185,7 +20185,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT97" t="n">
         <v>1.22</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT101" t="n">
         <v>0.78</v>
@@ -21200,10 +21200,10 @@
         <v>0.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU102" t="n">
         <v>1.47</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
         <v>0.5600000000000001</v>
@@ -21606,10 +21606,10 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU104" t="n">
         <v>1.81</v>
@@ -22218,7 +22218,7 @@
         <v>1.56</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22421,7 +22421,7 @@
         <v>1.33</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU108" t="n">
         <v>1.57</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT112" t="n">
         <v>0.78</v>
@@ -23842,7 +23842,7 @@
         <v>1.44</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU115" t="n">
         <v>1.55</v>
@@ -24651,10 +24651,10 @@
         <v>0.83</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU119" t="n">
         <v>1.59</v>
@@ -25060,7 +25060,7 @@
         <v>2.22</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU121" t="n">
         <v>1.98</v>
@@ -25463,10 +25463,10 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU123" t="n">
         <v>1.64</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT124" t="n">
         <v>0.5600000000000001</v>
@@ -25872,7 +25872,7 @@
         <v>1.67</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU125" t="n">
         <v>1.54</v>
@@ -27899,7 +27899,7 @@
         <v>0.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT135" t="n">
         <v>0.67</v>
@@ -28308,7 +28308,7 @@
         <v>1.67</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU137" t="n">
         <v>1.47</v>
@@ -28508,7 +28508,7 @@
         <v>0.43</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT138" t="n">
         <v>0.67</v>
@@ -28714,7 +28714,7 @@
         <v>2.33</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU139" t="n">
         <v>1.78</v>
@@ -29117,10 +29117,10 @@
         <v>0.86</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU141" t="n">
         <v>1.87</v>
@@ -29320,10 +29320,10 @@
         <v>1.6</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU142" t="n">
         <v>1.41</v>
@@ -32162,7 +32162,7 @@
         <v>0.63</v>
       </c>
       <c r="AS156" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT156" t="n">
         <v>0.5600000000000001</v>
@@ -32571,7 +32571,7 @@
         <v>2.33</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU158" t="n">
         <v>1.71</v>
@@ -32771,10 +32771,10 @@
         <v>1.5</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU159" t="n">
         <v>1.57</v>
@@ -32974,7 +32974,7 @@
         <v>1</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT160" t="n">
         <v>0.89</v>
@@ -33383,7 +33383,7 @@
         <v>2.22</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU162" t="n">
         <v>1.87</v>
@@ -33586,7 +33586,7 @@
         <v>2.33</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU163" t="n">
         <v>1.57</v>
@@ -33786,7 +33786,7 @@
         <v>0.38</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT164" t="n">
         <v>0.67</v>
@@ -33989,10 +33989,10 @@
         <v>0.71</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU165" t="n">
         <v>1.63</v>
@@ -36886,6 +36886,1021 @@
       </c>
       <c r="BK179" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5240223</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45057.83333333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>15</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>3</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['9', '44']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['41', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>6</v>
+      </c>
+      <c r="R180" t="n">
+        <v>8</v>
+      </c>
+      <c r="S180" t="n">
+        <v>14</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2</v>
+      </c>
+      <c r="V180" t="n">
+        <v>6</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5240210</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45057.91666666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>13</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>2</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['39', '89']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>6</v>
+      </c>
+      <c r="R181" t="n">
+        <v>2</v>
+      </c>
+      <c r="S181" t="n">
+        <v>8</v>
+      </c>
+      <c r="T181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5240272</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45058.75</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>3</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['11', '30']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>6</v>
+      </c>
+      <c r="R182" t="n">
+        <v>11</v>
+      </c>
+      <c r="S182" t="n">
+        <v>17</v>
+      </c>
+      <c r="T182" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5240264</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45058.83680555555</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>4</v>
+      </c>
+      <c r="R183" t="n">
+        <v>7</v>
+      </c>
+      <c r="S183" t="n">
+        <v>11</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5240266</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45058.92708333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>10</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2</v>
+      </c>
+      <c r="S184" t="n">
+        <v>12</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V184" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT5" t="n">
         <v>0.67</v>
@@ -1918,7 +1918,7 @@
         <v>1.9</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.44</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT13" t="n">
         <v>1.1</v>
@@ -3339,7 +3339,7 @@
         <v>1.11</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.33</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT16" t="n">
         <v>0.44</v>
@@ -3948,7 +3948,7 @@
         <v>1.44</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU17" t="n">
         <v>2.06</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
         <v>0.78</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU19" t="n">
         <v>1.29</v>
@@ -4760,7 +4760,7 @@
         <v>1.56</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>0.78</v>
@@ -5369,7 +5369,7 @@
         <v>2.56</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU24" t="n">
         <v>2.08</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT25" t="n">
         <v>0.44</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT30" t="n">
         <v>0.67</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU31" t="n">
         <v>1.86</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU35" t="n">
         <v>2.19</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT37" t="n">
         <v>1.22</v>
@@ -8617,7 +8617,7 @@
         <v>1.44</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU40" t="n">
         <v>1.58</v>
@@ -9023,7 +9023,7 @@
         <v>1.11</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.97</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT45" t="n">
         <v>0.67</v>
@@ -9835,7 +9835,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU46" t="n">
         <v>1.65</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT47" t="n">
         <v>0.78</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT48" t="n">
         <v>0.44</v>
@@ -10444,7 +10444,7 @@
         <v>1.11</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU49" t="n">
         <v>1.92</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT51" t="n">
         <v>1.1</v>
@@ -11053,7 +11053,7 @@
         <v>1.9</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -11253,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.73</v>
@@ -11459,7 +11459,7 @@
         <v>1.56</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11662,7 +11662,7 @@
         <v>1.11</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU55" t="n">
         <v>1.71</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
         <v>0.33</v>
@@ -12471,7 +12471,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT59" t="n">
         <v>1.3</v>
@@ -12880,7 +12880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU61" t="n">
         <v>1.76</v>
@@ -13083,7 +13083,7 @@
         <v>1.44</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU62" t="n">
         <v>1.61</v>
@@ -13486,10 +13486,10 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.95</v>
@@ -13692,7 +13692,7 @@
         <v>1.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU65" t="n">
         <v>1.64</v>
@@ -14098,7 +14098,7 @@
         <v>1.9</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU67" t="n">
         <v>1.47</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT68" t="n">
         <v>1.1</v>
@@ -14504,7 +14504,7 @@
         <v>2.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU69" t="n">
         <v>2.01</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT70" t="n">
         <v>0.78</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT71" t="n">
         <v>0.44</v>
@@ -15113,7 +15113,7 @@
         <v>1.11</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT74" t="n">
         <v>1.22</v>
@@ -15722,7 +15722,7 @@
         <v>1.44</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT79" t="n">
         <v>0.78</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT80" t="n">
         <v>0.67</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT82" t="n">
         <v>0.33</v>
@@ -17346,7 +17346,7 @@
         <v>1.11</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU83" t="n">
         <v>1.63</v>
@@ -17549,7 +17549,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT85" t="n">
         <v>0.8</v>
@@ -17955,7 +17955,7 @@
         <v>2.56</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.6</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT88" t="n">
         <v>0.89</v>
@@ -18767,7 +18767,7 @@
         <v>1.11</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU90" t="n">
         <v>1.59</v>
@@ -18967,7 +18967,7 @@
         <v>1.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT91" t="n">
         <v>0.7</v>
@@ -19376,7 +19376,7 @@
         <v>1.89</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU93" t="n">
         <v>1.76</v>
@@ -19576,7 +19576,7 @@
         <v>0.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT94" t="n">
         <v>0.89</v>
@@ -19982,10 +19982,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU96" t="n">
         <v>2.07</v>
@@ -20188,7 +20188,7 @@
         <v>1.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.69</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT98" t="n">
         <v>0.67</v>
@@ -20594,7 +20594,7 @@
         <v>1.89</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU99" t="n">
         <v>1.85</v>
@@ -20797,7 +20797,7 @@
         <v>1.67</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU100" t="n">
         <v>1.61</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT101" t="n">
         <v>0.78</v>
@@ -21203,7 +21203,7 @@
         <v>1.3</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU102" t="n">
         <v>1.47</v>
@@ -21403,10 +21403,10 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU103" t="n">
         <v>1.6</v>
@@ -21609,7 +21609,7 @@
         <v>1.9</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU104" t="n">
         <v>1.81</v>
@@ -21812,7 +21812,7 @@
         <v>1.11</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU105" t="n">
         <v>1.58</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT106" t="n">
         <v>0.33</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT107" t="n">
         <v>1.3</v>
@@ -22621,7 +22621,7 @@
         <v>0.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT109" t="n">
         <v>0.67</v>
@@ -22827,7 +22827,7 @@
         <v>2.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT116" t="n">
         <v>0.78</v>
@@ -24451,7 +24451,7 @@
         <v>1.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.96</v>
@@ -24654,7 +24654,7 @@
         <v>1.9</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU119" t="n">
         <v>1.59</v>
@@ -24857,7 +24857,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU120" t="n">
         <v>1.46</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT121" t="n">
         <v>1.3</v>
@@ -25260,10 +25260,10 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU122" t="n">
         <v>1.35</v>
@@ -25463,7 +25463,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT123" t="n">
         <v>0.8</v>
@@ -25669,7 +25669,7 @@
         <v>1.3</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU124" t="n">
         <v>1.39</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT126" t="n">
         <v>0.78</v>
@@ -26275,7 +26275,7 @@
         <v>0.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT127" t="n">
         <v>0.33</v>
@@ -27496,7 +27496,7 @@
         <v>1.33</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.4</v>
@@ -28102,7 +28102,7 @@
         <v>1.4</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT136" t="n">
         <v>1.22</v>
@@ -28511,7 +28511,7 @@
         <v>1.9</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU138" t="n">
         <v>1.63</v>
@@ -28711,7 +28711,7 @@
         <v>0.57</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT139" t="n">
         <v>0.8</v>
@@ -28914,7 +28914,7 @@
         <v>0.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT140" t="n">
         <v>0.33</v>
@@ -29117,7 +29117,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT141" t="n">
         <v>0.7</v>
@@ -29323,7 +29323,7 @@
         <v>1.3</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU142" t="n">
         <v>1.41</v>
@@ -29523,10 +29523,10 @@
         <v>1.71</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU143" t="n">
         <v>1.41</v>
@@ -29726,10 +29726,10 @@
         <v>0.71</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU144" t="n">
         <v>1.67</v>
@@ -29929,10 +29929,10 @@
         <v>1.14</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU145" t="n">
         <v>1.86</v>
@@ -32162,10 +32162,10 @@
         <v>0.63</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU156" t="n">
         <v>1.89</v>
@@ -32365,10 +32365,10 @@
         <v>1.38</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.43</v>
@@ -32568,7 +32568,7 @@
         <v>1.25</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT158" t="n">
         <v>1.3</v>
@@ -32771,10 +32771,10 @@
         <v>1.5</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU159" t="n">
         <v>1.57</v>
@@ -32977,7 +32977,7 @@
         <v>1.9</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -33177,10 +33177,10 @@
         <v>1.63</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU161" t="n">
         <v>1.77</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT162" t="n">
         <v>0.8</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT163" t="n">
         <v>0.7</v>
@@ -33789,7 +33789,7 @@
         <v>1.3</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU164" t="n">
         <v>1.38</v>
@@ -33992,7 +33992,7 @@
         <v>1.6</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU165" t="n">
         <v>1.63</v>
@@ -36628,7 +36628,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT178" t="n">
         <v>0.78</v>
@@ -37034,10 +37034,10 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU180" t="n">
         <v>1.57</v>
@@ -37237,10 +37237,10 @@
         <v>1.71</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU181" t="n">
         <v>1.89</v>
@@ -37901,6 +37901,1427 @@
       </c>
       <c r="BK184" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5240267</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45059.75694444445</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>10</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2</v>
+      </c>
+      <c r="S185" t="n">
+        <v>12</v>
+      </c>
+      <c r="T185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5240265</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45059.84722222222</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>12</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1</v>
+      </c>
+      <c r="S186" t="n">
+        <v>13</v>
+      </c>
+      <c r="T186" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5240268</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45059.9375</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>5</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>10</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V187" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5240263</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['90+10']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>15</v>
+      </c>
+      <c r="R188" t="n">
+        <v>3</v>
+      </c>
+      <c r="S188" t="n">
+        <v>18</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V188" t="n">
+        <v>5</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5240270</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45060.75694444445</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>7</v>
+      </c>
+      <c r="R189" t="n">
+        <v>2</v>
+      </c>
+      <c r="S189" t="n">
+        <v>9</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V189" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5240269</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45060.84722222222</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>3</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['14', '75']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>5</v>
+      </c>
+      <c r="R190" t="n">
+        <v>6</v>
+      </c>
+      <c r="S190" t="n">
+        <v>11</v>
+      </c>
+      <c r="T190" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V190" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5240271</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45060.9375</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Atlético Huila</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>3</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3</v>
+      </c>
+      <c r="L191" t="n">
+        <v>5</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>5</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['12', '37', '45+4', '47', '65']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>5</v>
+      </c>
+      <c r="R191" t="n">
+        <v>3</v>
+      </c>
+      <c r="S191" t="n">
+        <v>8</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V191" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.6</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.3</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
         <v>0.7</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
         <v>1.4</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT14" t="n">
         <v>0.6</v>
@@ -3542,7 +3542,7 @@
         <v>2.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU15" t="n">
         <v>1.91</v>
@@ -3745,7 +3745,7 @@
         <v>2.1</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT17" t="n">
         <v>0.6</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU19" t="n">
         <v>1.29</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
         <v>0.7</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.95</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU23" t="n">
         <v>1.29</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT24" t="n">
         <v>0.6</v>
@@ -5572,7 +5572,7 @@
         <v>1.7</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU25" t="n">
         <v>2.16</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT29" t="n">
         <v>1.3</v>
@@ -6587,7 +6587,7 @@
         <v>2.1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU30" t="n">
         <v>2.5</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT35" t="n">
         <v>0.6</v>
@@ -7805,7 +7805,7 @@
         <v>1.3</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU36" t="n">
         <v>1.59</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU37" t="n">
         <v>2.6</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.47</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT40" t="n">
         <v>0.7</v>
@@ -8820,7 +8820,7 @@
         <v>1.9</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU41" t="n">
         <v>1.23</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.97</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>1.3</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT44" t="n">
         <v>0.7</v>
@@ -9632,7 +9632,7 @@
         <v>1.7</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU45" t="n">
         <v>2.31</v>
@@ -10038,7 +10038,7 @@
         <v>2.1</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10241,7 +10241,7 @@
         <v>1.9</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU48" t="n">
         <v>2.44</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT49" t="n">
         <v>1.4</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT50" t="n">
         <v>0.8</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>0.9</v>
@@ -11659,7 +11659,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT55" t="n">
         <v>0.7</v>
@@ -11865,7 +11865,7 @@
         <v>1.9</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU56" t="n">
         <v>1.2</v>
@@ -12068,7 +12068,7 @@
         <v>1.3</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU57" t="n">
         <v>1.77</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12471,7 +12471,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT59" t="n">
         <v>1.3</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
         <v>0.8</v>
@@ -12877,10 +12877,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU61" t="n">
         <v>1.76</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT62" t="n">
         <v>0.6</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT66" t="n">
         <v>0.7</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT69" t="n">
         <v>0.9</v>
@@ -14707,7 +14707,7 @@
         <v>1.7</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU70" t="n">
         <v>2.31</v>
@@ -14910,7 +14910,7 @@
         <v>2.4</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU71" t="n">
         <v>2.08</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT72" t="n">
         <v>1.1</v>
@@ -15313,10 +15313,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU73" t="n">
         <v>1.76</v>
@@ -15519,7 +15519,7 @@
         <v>1.9</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU74" t="n">
         <v>2.32</v>
@@ -15719,10 +15719,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -15925,7 +15925,7 @@
         <v>1.3</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU76" t="n">
         <v>1.7</v>
@@ -16128,7 +16128,7 @@
         <v>1.9</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT78" t="n">
         <v>0.8</v>
@@ -16534,7 +16534,7 @@
         <v>1.7</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16737,7 +16737,7 @@
         <v>2.1</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU80" t="n">
         <v>1.8</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT81" t="n">
         <v>1.3</v>
@@ -17140,10 +17140,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU82" t="n">
         <v>1.76</v>
@@ -17343,7 +17343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT83" t="n">
         <v>0.6</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT84" t="n">
         <v>0.7</v>
@@ -17952,7 +17952,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT86" t="n">
         <v>1.1</v>
@@ -18158,7 +18158,7 @@
         <v>1.9</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -18361,7 +18361,7 @@
         <v>2.1</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.88</v>
@@ -18561,10 +18561,10 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU89" t="n">
         <v>1.85</v>
@@ -18764,7 +18764,7 @@
         <v>0.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT90" t="n">
         <v>0.9</v>
@@ -19373,7 +19373,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT93" t="n">
         <v>0.6</v>
@@ -19579,7 +19579,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.45</v>
@@ -19779,10 +19779,10 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -20391,7 +20391,7 @@
         <v>2.2</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU98" t="n">
         <v>1.64</v>
@@ -20591,7 +20591,7 @@
         <v>1.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT99" t="n">
         <v>1.4</v>
@@ -20794,7 +20794,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT100" t="n">
         <v>0.9</v>
@@ -21000,7 +21000,7 @@
         <v>1.9</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU101" t="n">
         <v>1.91</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT103" t="n">
         <v>0.6</v>
@@ -21609,7 +21609,7 @@
         <v>1.9</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU104" t="n">
         <v>1.81</v>
@@ -21809,7 +21809,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT105" t="n">
         <v>1.4</v>
@@ -22015,7 +22015,7 @@
         <v>2.1</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22418,7 +22418,7 @@
         <v>0.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT108" t="n">
         <v>0.8</v>
@@ -22624,7 +22624,7 @@
         <v>1.7</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT110" t="n">
         <v>0.6</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU111" t="n">
         <v>1.48</v>
@@ -23233,7 +23233,7 @@
         <v>1.6</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU112" t="n">
         <v>1.64</v>
@@ -23433,10 +23433,10 @@
         <v>0.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU113" t="n">
         <v>1.82</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT114" t="n">
         <v>1.1</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT115" t="n">
         <v>0.7</v>
@@ -24045,7 +24045,7 @@
         <v>2.4</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU116" t="n">
         <v>1.89</v>
@@ -24248,7 +24248,7 @@
         <v>1.9</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.52</v>
@@ -24448,7 +24448,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT118" t="n">
         <v>1.1</v>
@@ -24854,7 +24854,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT120" t="n">
         <v>1.4</v>
@@ -25463,7 +25463,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT123" t="n">
         <v>0.8</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT125" t="n">
         <v>0.7</v>
@@ -26075,7 +26075,7 @@
         <v>1.7</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU126" t="n">
         <v>1.83</v>
@@ -26278,7 +26278,7 @@
         <v>2.4</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU127" t="n">
         <v>1.85</v>
@@ -26478,10 +26478,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU128" t="n">
         <v>1.88</v>
@@ -26681,10 +26681,10 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -26884,7 +26884,7 @@
         <v>0.71</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT130" t="n">
         <v>1.1</v>
@@ -27087,10 +27087,10 @@
         <v>0.83</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU131" t="n">
         <v>1.89</v>
@@ -27290,10 +27290,10 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU132" t="n">
         <v>1.74</v>
@@ -27493,7 +27493,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT133" t="n">
         <v>1.1</v>
@@ -27696,10 +27696,10 @@
         <v>0.4</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU134" t="n">
         <v>1.59</v>
@@ -27902,7 +27902,7 @@
         <v>1.6</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU135" t="n">
         <v>1.65</v>
@@ -28105,7 +28105,7 @@
         <v>2.2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.61</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT137" t="n">
         <v>1.3</v>
@@ -28917,7 +28917,7 @@
         <v>1.7</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU140" t="n">
         <v>1.78</v>
@@ -29323,7 +29323,7 @@
         <v>1.3</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU142" t="n">
         <v>1.41</v>
@@ -30132,10 +30132,10 @@
         <v>0.83</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU146" t="n">
         <v>1.48</v>
@@ -30335,10 +30335,10 @@
         <v>0.57</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU147" t="n">
         <v>1.4</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT148" t="n">
         <v>1.1</v>
@@ -30741,10 +30741,10 @@
         <v>0.83</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU149" t="n">
         <v>1.59</v>
@@ -30944,10 +30944,10 @@
         <v>0.29</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU150" t="n">
         <v>1.94</v>
@@ -31147,10 +31147,10 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU151" t="n">
         <v>1.73</v>
@@ -31353,7 +31353,7 @@
         <v>1.9</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU152" t="n">
         <v>1.49</v>
@@ -31553,10 +31553,10 @@
         <v>0.83</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU153" t="n">
         <v>1.63</v>
@@ -31756,10 +31756,10 @@
         <v>1.14</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.82</v>
@@ -31959,10 +31959,10 @@
         <v>1.33</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -32771,10 +32771,10 @@
         <v>1.5</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU159" t="n">
         <v>1.57</v>
@@ -34192,10 +34192,10 @@
         <v>0.86</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU166" t="n">
         <v>1.65</v>
@@ -34398,7 +34398,7 @@
         <v>1.9</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.42</v>
@@ -34598,10 +34598,10 @@
         <v>0.63</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU168" t="n">
         <v>1.7</v>
@@ -34801,10 +34801,10 @@
         <v>0.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU169" t="n">
         <v>1.52</v>
@@ -35004,10 +35004,10 @@
         <v>0.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU170" t="n">
         <v>1.89</v>
@@ -35207,10 +35207,10 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.59</v>
@@ -35410,7 +35410,7 @@
         <v>1.22</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT172" t="n">
         <v>1.1</v>
@@ -35616,7 +35616,7 @@
         <v>1.9</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU173" t="n">
         <v>1.42</v>
@@ -35816,10 +35816,10 @@
         <v>0.88</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU174" t="n">
         <v>1.65</v>
@@ -36019,10 +36019,10 @@
         <v>0.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU175" t="n">
         <v>1.44</v>
@@ -36222,10 +36222,10 @@
         <v>0.88</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU176" t="n">
         <v>1.78</v>
@@ -36425,10 +36425,10 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU177" t="n">
         <v>1.43</v>
@@ -36631,7 +36631,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU178" t="n">
         <v>1.49</v>
@@ -36831,10 +36831,10 @@
         <v>0.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU179" t="n">
         <v>1.59</v>
@@ -37034,7 +37034,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT180" t="n">
         <v>0.7</v>
@@ -37240,7 +37240,7 @@
         <v>1.9</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU181" t="n">
         <v>1.89</v>
@@ -38658,7 +38658,7 @@
         <v>1.22</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT188" t="n">
         <v>1.1</v>
@@ -38777,13 +38777,13 @@
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R189" t="n">
         <v>2</v>
       </c>
       <c r="S189" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T189" t="n">
         <v>2.23</v>
@@ -39067,7 +39067,7 @@
         <v>2.4</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU190" t="n">
         <v>1.69</v>
@@ -39322,6 +39322,2036 @@
       </c>
       <c r="BK191" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5240280</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>3</v>
+      </c>
+      <c r="R192" t="n">
+        <v>3</v>
+      </c>
+      <c r="S192" t="n">
+        <v>6</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5240279</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>10</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2</v>
+      </c>
+      <c r="S193" t="n">
+        <v>12</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V193" t="n">
+        <v>4</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5240278</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['19', '54']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>5</v>
+      </c>
+      <c r="R194" t="n">
+        <v>5</v>
+      </c>
+      <c r="S194" t="n">
+        <v>10</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5240277</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>4</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['6', '52', '83']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>5</v>
+      </c>
+      <c r="R195" t="n">
+        <v>6</v>
+      </c>
+      <c r="S195" t="n">
+        <v>11</v>
+      </c>
+      <c r="T195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5240273</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>4</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['53', '68', '83', '90+3']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>18</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2</v>
+      </c>
+      <c r="S196" t="n">
+        <v>20</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V196" t="n">
+        <v>7</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X196" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>33</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5240275</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Atlético Huila</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['45+4', '86']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>9</v>
+      </c>
+      <c r="R197" t="n">
+        <v>1</v>
+      </c>
+      <c r="S197" t="n">
+        <v>10</v>
+      </c>
+      <c r="T197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5240274</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['29', '35']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['45+4', '54']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>3</v>
+      </c>
+      <c r="R198" t="n">
+        <v>10</v>
+      </c>
+      <c r="S198" t="n">
+        <v>13</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5240281</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>3</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['52', '90', '90+2']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>8</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2</v>
+      </c>
+      <c r="S199" t="n">
+        <v>10</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V199" t="n">
+        <v>6</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5240276</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>3</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['39', '86']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>9</v>
+      </c>
+      <c r="R200" t="n">
+        <v>7</v>
+      </c>
+      <c r="S200" t="n">
+        <v>16</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V200" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5240282</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45063.875</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>3</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['70', '83']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>5</v>
+      </c>
+      <c r="R201" t="n">
+        <v>1</v>
+      </c>
+      <c r="S201" t="n">
+        <v>6</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V201" t="n">
+        <v>6</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT18" t="n">
         <v>0.7</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU19" t="n">
         <v>1.29</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT20" t="n">
         <v>1.1</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT37" t="n">
         <v>1.1</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT39" t="n">
         <v>1.1</v>
@@ -9023,7 +9023,7 @@
         <v>1.3</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU42" t="n">
         <v>1.97</v>
@@ -10444,7 +10444,7 @@
         <v>1.3</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU49" t="n">
         <v>1.92</v>
@@ -12471,7 +12471,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT59" t="n">
         <v>1.3</v>
@@ -12877,10 +12877,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU61" t="n">
         <v>1.76</v>
@@ -14098,7 +14098,7 @@
         <v>1.9</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU67" t="n">
         <v>1.47</v>
@@ -15722,7 +15722,7 @@
         <v>1.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT78" t="n">
         <v>0.8</v>
@@ -17140,7 +17140,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT82" t="n">
         <v>0.3</v>
@@ -19985,7 +19985,7 @@
         <v>1.9</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU96" t="n">
         <v>2.07</v>
@@ -20594,7 +20594,7 @@
         <v>1.8</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU99" t="n">
         <v>1.85</v>
@@ -20794,7 +20794,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT100" t="n">
         <v>0.9</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT103" t="n">
         <v>0.6</v>
@@ -21609,7 +21609,7 @@
         <v>1.9</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU104" t="n">
         <v>1.81</v>
@@ -21812,7 +21812,7 @@
         <v>1.3</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU105" t="n">
         <v>1.58</v>
@@ -24857,7 +24857,7 @@
         <v>1.2</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU120" t="n">
         <v>1.46</v>
@@ -25463,7 +25463,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT123" t="n">
         <v>0.8</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT125" t="n">
         <v>0.7</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT137" t="n">
         <v>1.3</v>
@@ -29323,7 +29323,7 @@
         <v>1.3</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU142" t="n">
         <v>1.41</v>
@@ -29526,7 +29526,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU143" t="n">
         <v>1.41</v>
@@ -30335,7 +30335,7 @@
         <v>0.57</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT147" t="n">
         <v>0.7</v>
@@ -32771,10 +32771,10 @@
         <v>1.5</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU159" t="n">
         <v>1.57</v>
@@ -33180,7 +33180,7 @@
         <v>1.7</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU161" t="n">
         <v>1.77</v>
@@ -36019,7 +36019,7 @@
         <v>0.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT175" t="n">
         <v>0.3</v>
@@ -37034,7 +37034,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT180" t="n">
         <v>0.7</v>
@@ -37240,7 +37240,7 @@
         <v>1.9</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU181" t="n">
         <v>1.89</v>
@@ -38255,7 +38255,7 @@
         <v>2.2</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU186" t="n">
         <v>1.57</v>
@@ -38658,7 +38658,7 @@
         <v>1.22</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT188" t="n">
         <v>1.1</v>
@@ -39067,7 +39067,7 @@
         <v>2.4</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU190" t="n">
         <v>1.69</v>
@@ -39995,13 +39995,13 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R195" t="n">
         <v>6</v>
       </c>
       <c r="S195" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T195" t="n">
         <v>3.5</v>
@@ -40282,7 +40282,7 @@
         <v>0.44</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT196" t="n">
         <v>0.4</v>
@@ -40691,7 +40691,7 @@
         <v>1.8</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU198" t="n">
         <v>1.9</v>
@@ -41297,7 +41297,7 @@
         <v>0.78</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT201" t="n">
         <v>0.7</v>
@@ -41351,6 +41351,412 @@
         <v>21</v>
       </c>
       <c r="BK201" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6166976</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45066.79166666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>9</v>
+      </c>
+      <c r="R202" t="n">
+        <v>7</v>
+      </c>
+      <c r="S202" t="n">
+        <v>16</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6166977</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45066.91666666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['53', '69']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['42', '63']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>3</v>
+      </c>
+      <c r="R203" t="n">
+        <v>3</v>
+      </c>
+      <c r="S203" t="n">
+        <v>6</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK203" t="n">
         <v>13</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK203"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT5" t="n">
         <v>0.6</v>
@@ -1715,7 +1715,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT15" t="n">
         <v>0.3</v>
@@ -4557,7 +4557,7 @@
         <v>1.73</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT31" t="n">
         <v>0.9</v>
@@ -8008,7 +8008,7 @@
         <v>1.73</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU37" t="n">
         <v>2.6</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT53" t="n">
         <v>1.1</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT68" t="n">
         <v>1.1</v>
@@ -15519,7 +15519,7 @@
         <v>1.9</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU74" t="n">
         <v>2.32</v>
@@ -19782,7 +19782,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU95" t="n">
         <v>1.81</v>
@@ -20388,7 +20388,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT98" t="n">
         <v>0.7</v>
@@ -28102,10 +28102,10 @@
         <v>1.4</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU136" t="n">
         <v>1.61</v>
@@ -29726,7 +29726,7 @@
         <v>0.71</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT144" t="n">
         <v>0.6</v>
@@ -31962,7 +31962,7 @@
         <v>2.4</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT163" t="n">
         <v>0.7</v>
@@ -34398,7 +34398,7 @@
         <v>1.9</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU167" t="n">
         <v>1.42</v>
@@ -36428,7 +36428,7 @@
         <v>1.2</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU177" t="n">
         <v>1.43</v>
@@ -38252,7 +38252,7 @@
         <v>1.44</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT186" t="n">
         <v>1.36</v>
@@ -39879,7 +39879,7 @@
         <v>1.3</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU194" t="n">
         <v>1.52</v>
@@ -41758,6 +41758,209 @@
       </c>
       <c r="BK203" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6166978</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45067.83333333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>2</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3</v>
+      </c>
+      <c r="R204" t="n">
+        <v>1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>4</v>
+      </c>
+      <c r="T204" t="n">
+        <v>3</v>
+      </c>
+      <c r="U204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK204"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.9</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU11" t="n">
         <v>2.15</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT26" t="n">
         <v>0.6</v>
@@ -6384,7 +6384,7 @@
         <v>1.3</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU29" t="n">
         <v>1.95</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU43" t="n">
         <v>1.81</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT51" t="n">
         <v>1.1</v>
@@ -12474,7 +12474,7 @@
         <v>1.73</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU59" t="n">
         <v>1.98</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT64" t="n">
         <v>1.1</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT71" t="n">
         <v>0.4</v>
@@ -16940,7 +16940,7 @@
         <v>2.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU81" t="n">
         <v>1.68</v>
@@ -18967,7 +18967,7 @@
         <v>1.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT91" t="n">
         <v>0.7</v>
@@ -22218,7 +22218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT116" t="n">
         <v>0.7</v>
@@ -25060,7 +25060,7 @@
         <v>2.1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU121" t="n">
         <v>1.98</v>
@@ -26275,7 +26275,7 @@
         <v>0.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT127" t="n">
         <v>0.3</v>
@@ -28308,7 +28308,7 @@
         <v>1.73</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU137" t="n">
         <v>1.47</v>
@@ -28711,7 +28711,7 @@
         <v>0.57</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT139" t="n">
         <v>0.8</v>
@@ -32568,10 +32568,10 @@
         <v>1.25</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU158" t="n">
         <v>1.71</v>
@@ -37443,7 +37443,7 @@
         <v>1.3</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU182" t="n">
         <v>1.41</v>
@@ -39064,7 +39064,7 @@
         <v>1.88</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT190" t="n">
         <v>1.55</v>
@@ -41961,6 +41961,209 @@
       </c>
       <c r="BK204" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6166979</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45068.83333333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2</v>
+      </c>
+      <c r="K205" t="n">
+        <v>3</v>
+      </c>
+      <c r="L205" t="n">
+        <v>5</v>
+      </c>
+      <c r="M205" t="n">
+        <v>3</v>
+      </c>
+      <c r="N205" t="n">
+        <v>8</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['36', '63', '65', '81', '90+5']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['21', '30', '79']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R205" t="n">
+        <v>6</v>
+      </c>
+      <c r="S205" t="n">
+        <v>12</v>
+      </c>
+      <c r="T205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U205" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V205" t="n">
+        <v>3</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT4" t="n">
         <v>1.1</v>
@@ -1512,7 +1512,7 @@
         <v>2.09</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT7" t="n">
         <v>0.7</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT11" t="n">
         <v>1.18</v>
@@ -3136,7 +3136,7 @@
         <v>1.7</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT16" t="n">
         <v>0.4</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT24" t="n">
         <v>0.6</v>
@@ -6181,7 +6181,7 @@
         <v>1.3</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.46</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT30" t="n">
         <v>0.7</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT32" t="n">
         <v>0.8</v>
@@ -7196,7 +7196,7 @@
         <v>1.9</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>1.9</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1.3</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>1.59</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT38" t="n">
         <v>0.3</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT44" t="n">
         <v>0.7</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT47" t="n">
         <v>0.7</v>
@@ -10850,7 +10850,7 @@
         <v>2.45</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>2.46</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT52" t="n">
         <v>0.6</v>
@@ -11256,7 +11256,7 @@
         <v>2.09</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU53" t="n">
         <v>1.73</v>
@@ -11865,7 +11865,7 @@
         <v>1.9</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU56" t="n">
         <v>1.2</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT60" t="n">
         <v>0.8</v>
@@ -13286,7 +13286,7 @@
         <v>1.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -13489,7 +13489,7 @@
         <v>2.45</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU64" t="n">
         <v>1.95</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT67" t="n">
         <v>1.36</v>
@@ -14301,7 +14301,7 @@
         <v>2.09</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.75</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT69" t="n">
         <v>0.9</v>
@@ -15113,7 +15113,7 @@
         <v>1.3</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15925,7 +15925,7 @@
         <v>1.3</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU76" t="n">
         <v>1.7</v>
@@ -16734,10 +16734,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU80" t="n">
         <v>1.8</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT81" t="n">
         <v>1.18</v>
@@ -17952,10 +17952,10 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU86" t="n">
         <v>1.6</v>
@@ -18158,7 +18158,7 @@
         <v>1.9</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT88" t="n">
         <v>1.1</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT89" t="n">
         <v>0.7</v>
@@ -19170,10 +19170,10 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.45</v>
@@ -20188,7 +20188,7 @@
         <v>1.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU97" t="n">
         <v>1.69</v>
@@ -21000,7 +21000,7 @@
         <v>1.9</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU101" t="n">
         <v>1.91</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT106" t="n">
         <v>0.3</v>
@@ -22624,7 +22624,7 @@
         <v>1.7</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT110" t="n">
         <v>0.6</v>
@@ -23636,10 +23636,10 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -24245,7 +24245,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT117" t="n">
         <v>1.1</v>
@@ -24451,7 +24451,7 @@
         <v>1.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU118" t="n">
         <v>1.96</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT121" t="n">
         <v>1.18</v>
@@ -26075,7 +26075,7 @@
         <v>1.7</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU126" t="n">
         <v>1.83</v>
@@ -26887,7 +26887,7 @@
         <v>1.3</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27290,10 +27290,10 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU132" t="n">
         <v>1.74</v>
@@ -27496,7 +27496,7 @@
         <v>1.2</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU133" t="n">
         <v>1.4</v>
@@ -27699,7 +27699,7 @@
         <v>1.3</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU134" t="n">
         <v>1.59</v>
@@ -29929,7 +29929,7 @@
         <v>1.14</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT145" t="n">
         <v>0.9</v>
@@ -30135,7 +30135,7 @@
         <v>1.3</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU146" t="n">
         <v>1.48</v>
@@ -30541,7 +30541,7 @@
         <v>1.2</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.39</v>
@@ -30744,7 +30744,7 @@
         <v>1.3</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU149" t="n">
         <v>1.59</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT151" t="n">
         <v>0.7</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT152" t="n">
         <v>0.4</v>
@@ -31959,7 +31959,7 @@
         <v>1.33</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT155" t="n">
         <v>1.09</v>
@@ -32368,7 +32368,7 @@
         <v>1.5</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU157" t="n">
         <v>1.43</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT162" t="n">
         <v>0.8</v>
@@ -34192,7 +34192,7 @@
         <v>0.86</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT166" t="n">
         <v>0.7</v>
@@ -34395,7 +34395,7 @@
         <v>1.14</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT167" t="n">
         <v>1.09</v>
@@ -34598,7 +34598,7 @@
         <v>0.63</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT168" t="n">
         <v>0.7</v>
@@ -35007,7 +35007,7 @@
         <v>1.8</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU170" t="n">
         <v>1.89</v>
@@ -35413,7 +35413,7 @@
         <v>1.6</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>1.55</v>
@@ -35613,10 +35613,10 @@
         <v>0.86</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU173" t="n">
         <v>1.42</v>
@@ -35816,7 +35816,7 @@
         <v>0.88</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT174" t="n">
         <v>0.7</v>
@@ -36631,7 +36631,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU178" t="n">
         <v>1.49</v>
@@ -36831,10 +36831,10 @@
         <v>0.75</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU179" t="n">
         <v>1.59</v>
@@ -38661,7 +38661,7 @@
         <v>1.73</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU188" t="n">
         <v>1.59</v>
@@ -38861,7 +38861,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT189" t="n">
         <v>0.7</v>
@@ -39470,7 +39470,7 @@
         <v>0.67</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT192" t="n">
         <v>0.7</v>
@@ -39676,7 +39676,7 @@
         <v>1.5</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU193" t="n">
         <v>1.74</v>
@@ -40891,7 +40891,7 @@
         <v>0.33</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT199" t="n">
         <v>0.3</v>
@@ -41097,7 +41097,7 @@
         <v>1.6</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU200" t="n">
         <v>1.6</v>
@@ -42164,6 +42164,818 @@
       </c>
       <c r="BK205" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6166983</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45073.92708333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>22</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>7</v>
+      </c>
+      <c r="R206" t="n">
+        <v>4</v>
+      </c>
+      <c r="S206" t="n">
+        <v>11</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V206" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6166981</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>7</v>
+      </c>
+      <c r="R207" t="n">
+        <v>5</v>
+      </c>
+      <c r="S207" t="n">
+        <v>12</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V207" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6166980</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45074.83680555555</v>
+      </c>
+      <c r="F208" t="n">
+        <v>22</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2</v>
+      </c>
+      <c r="R208" t="n">
+        <v>8</v>
+      </c>
+      <c r="S208" t="n">
+        <v>10</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V208" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6166982</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45074.92708333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>22</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['79', '90+2']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>4</v>
+      </c>
+      <c r="R209" t="n">
+        <v>5</v>
+      </c>
+      <c r="S209" t="n">
+        <v>9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V209" t="n">
+        <v>4</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,12 @@
     <t>['79', '90+2']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['45', '83']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -883,9 +889,6 @@
     <t>['11', '30']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['45+4', '86']</t>
   </si>
   <si>
@@ -899,6 +902,15 @@
   </si>
   <si>
     <t>['21', '30', '79']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1973,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT4">
         <v>1.1</v>
@@ -2164,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT5">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2268,7 +2280,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2358,7 +2370,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2546,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT7">
         <v>0.7</v>
@@ -2650,7 +2662,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3032,7 +3044,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3310,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT11">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU11">
         <v>2.15</v>
@@ -3414,7 +3426,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3504,7 +3516,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3695,7 +3707,7 @@
         <v>1.7</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3796,7 +3808,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4074,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT15">
         <v>0.3</v>
@@ -4265,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>0.4</v>
@@ -4369,7 +4381,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4647,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT18">
         <v>0.7</v>
@@ -4751,7 +4763,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4841,7 +4853,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU19">
         <v>1.29</v>
@@ -4942,7 +4954,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5029,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5706,7 +5718,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5793,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT24">
         <v>0.6</v>
@@ -6175,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT26">
         <v>0.6</v>
@@ -6279,7 +6291,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6560,7 +6572,7 @@
         <v>1.3</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU28">
         <v>1.46</v>
@@ -6661,7 +6673,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6751,7 +6763,7 @@
         <v>1.3</v>
       </c>
       <c r="AT29">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU29">
         <v>1.95</v>
@@ -6852,7 +6864,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6939,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT30">
         <v>0.7</v>
@@ -7130,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT31">
         <v>0.9</v>
@@ -7234,7 +7246,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7321,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT32">
         <v>0.8</v>
@@ -7425,7 +7437,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7515,7 +7527,7 @@
         <v>1.9</v>
       </c>
       <c r="AT33">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7706,7 +7718,7 @@
         <v>1.9</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8088,7 +8100,7 @@
         <v>1.3</v>
       </c>
       <c r="AT36">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU36">
         <v>1.59</v>
@@ -8189,7 +8201,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8276,10 +8288,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT37">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>2.6</v>
@@ -8467,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT38">
         <v>0.3</v>
@@ -8658,7 +8670,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT39">
         <v>1.1</v>
@@ -8762,7 +8774,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8953,7 +8965,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9144,7 +9156,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9234,7 +9246,7 @@
         <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU42">
         <v>1.97</v>
@@ -9335,7 +9347,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9425,7 +9437,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU43">
         <v>1.81</v>
@@ -9613,7 +9625,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT44">
         <v>0.7</v>
@@ -10186,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>0.7</v>
@@ -10571,7 +10583,7 @@
         <v>1.3</v>
       </c>
       <c r="AT49">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>1.92</v>
@@ -10672,7 +10684,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10950,10 +10962,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU51">
         <v>2.46</v>
@@ -11141,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT52">
         <v>0.6</v>
@@ -11332,10 +11344,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT53">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.73</v>
@@ -11436,7 +11448,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11818,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11908,7 +11920,7 @@
         <v>1.9</v>
       </c>
       <c r="AT56">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU56">
         <v>1.2</v>
@@ -12009,7 +12021,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12478,10 +12490,10 @@
         <v>1.67</v>
       </c>
       <c r="AS59">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT59">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU59">
         <v>1.98</v>
@@ -12669,7 +12681,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT60">
         <v>0.8</v>
@@ -12860,10 +12872,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT61">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU61">
         <v>1.76</v>
@@ -12964,7 +12976,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13155,7 +13167,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13245,7 +13257,7 @@
         <v>1.2</v>
       </c>
       <c r="AT63">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.93</v>
@@ -13433,10 +13445,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT64">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.95</v>
@@ -13537,7 +13549,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13728,7 +13740,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14006,10 +14018,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT67">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14197,10 +14209,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU68">
         <v>1.75</v>
@@ -14388,7 +14400,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT69">
         <v>0.9</v>
@@ -14770,7 +14782,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT71">
         <v>0.4</v>
@@ -14874,7 +14886,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14964,7 +14976,7 @@
         <v>1.3</v>
       </c>
       <c r="AT72">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -15346,7 +15358,7 @@
         <v>1.9</v>
       </c>
       <c r="AT74">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>2.32</v>
@@ -15447,7 +15459,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15537,7 +15549,7 @@
         <v>1.6</v>
       </c>
       <c r="AT75">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU75">
         <v>1.63</v>
@@ -15728,7 +15740,7 @@
         <v>1.3</v>
       </c>
       <c r="AT76">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU76">
         <v>1.7</v>
@@ -16020,7 +16032,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16107,7 +16119,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT78">
         <v>0.8</v>
@@ -16211,7 +16223,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16489,10 +16501,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT80">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU80">
         <v>1.8</v>
@@ -16593,7 +16605,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16680,10 +16692,10 @@
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT81">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU81">
         <v>1.68</v>
@@ -16871,7 +16883,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT82">
         <v>0.3</v>
@@ -17635,10 +17647,10 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT86">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.6</v>
@@ -17739,7 +17751,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17829,7 +17841,7 @@
         <v>1.9</v>
       </c>
       <c r="AT87">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU87">
         <v>1.81</v>
@@ -18017,7 +18029,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT88">
         <v>1.1</v>
@@ -18208,7 +18220,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT89">
         <v>0.7</v>
@@ -18590,7 +18602,7 @@
         <v>1.25</v>
       </c>
       <c r="AS91">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT91">
         <v>0.7</v>
@@ -18694,7 +18706,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18781,10 +18793,10 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU92">
         <v>1.45</v>
@@ -18885,7 +18897,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19076,7 +19088,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19357,7 +19369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU95">
         <v>1.81</v>
@@ -19458,7 +19470,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19548,7 +19560,7 @@
         <v>1.9</v>
       </c>
       <c r="AT96">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU96">
         <v>2.07</v>
@@ -19739,7 +19751,7 @@
         <v>1.6</v>
       </c>
       <c r="AT97">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>1.69</v>
@@ -19840,7 +19852,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19927,7 +19939,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT98">
         <v>0.7</v>
@@ -20031,7 +20043,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20121,7 +20133,7 @@
         <v>1.8</v>
       </c>
       <c r="AT99">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU99">
         <v>1.85</v>
@@ -20309,7 +20321,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
         <v>0.9</v>
@@ -20503,7 +20515,7 @@
         <v>1.9</v>
       </c>
       <c r="AT101">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU101">
         <v>1.91</v>
@@ -20882,7 +20894,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT103">
         <v>0.6</v>
@@ -21076,7 +21088,7 @@
         <v>1.9</v>
       </c>
       <c r="AT104">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU104">
         <v>1.81</v>
@@ -21177,7 +21189,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21267,7 +21279,7 @@
         <v>1.3</v>
       </c>
       <c r="AT105">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU105">
         <v>1.58</v>
@@ -21455,7 +21467,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>0.3</v>
@@ -21559,7 +21571,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21649,7 +21661,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -22031,7 +22043,7 @@
         <v>1.7</v>
       </c>
       <c r="AT109">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -22132,7 +22144,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22219,7 +22231,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT110">
         <v>0.6</v>
@@ -22983,10 +22995,10 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -23278,7 +23290,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23365,7 +23377,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT116">
         <v>0.7</v>
@@ -23556,7 +23568,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT117">
         <v>1.1</v>
@@ -23660,7 +23672,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23750,7 +23762,7 @@
         <v>1.8</v>
       </c>
       <c r="AT118">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.96</v>
@@ -24042,7 +24054,7 @@
         <v>123</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24132,7 +24144,7 @@
         <v>1.2</v>
       </c>
       <c r="AT120">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU120">
         <v>1.46</v>
@@ -24233,7 +24245,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24320,10 +24332,10 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT121">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU121">
         <v>1.98</v>
@@ -24424,7 +24436,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24702,7 +24714,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT123">
         <v>0.8</v>
@@ -24806,7 +24818,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25084,7 +25096,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
         <v>0.7</v>
@@ -25278,7 +25290,7 @@
         <v>1.7</v>
       </c>
       <c r="AT126">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU126">
         <v>1.83</v>
@@ -25466,7 +25478,7 @@
         <v>0.4</v>
       </c>
       <c r="AS127">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT127">
         <v>0.3</v>
@@ -25761,7 +25773,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25952,7 +25964,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26042,7 +26054,7 @@
         <v>1.3</v>
       </c>
       <c r="AT130">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU130">
         <v>1.51</v>
@@ -26143,7 +26155,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26421,10 +26433,10 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT132">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU132">
         <v>1.74</v>
@@ -26525,7 +26537,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26615,7 +26627,7 @@
         <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.4</v>
@@ -26716,7 +26728,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26806,7 +26818,7 @@
         <v>1.3</v>
       </c>
       <c r="AT134">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU134">
         <v>1.59</v>
@@ -26907,7 +26919,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27185,10 +27197,10 @@
         <v>1.4</v>
       </c>
       <c r="AS136">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT136">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU136">
         <v>1.61</v>
@@ -27376,10 +27388,10 @@
         <v>1.29</v>
       </c>
       <c r="AS137">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT137">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27671,7 +27683,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27758,7 +27770,7 @@
         <v>0.57</v>
       </c>
       <c r="AS139">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT139">
         <v>0.8</v>
@@ -28334,7 +28346,7 @@
         <v>1.3</v>
       </c>
       <c r="AT142">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU142">
         <v>1.41</v>
@@ -28525,7 +28537,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU143">
         <v>1.41</v>
@@ -28713,7 +28725,7 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT144">
         <v>0.6</v>
@@ -28904,7 +28916,7 @@
         <v>1.14</v>
       </c>
       <c r="AS145">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT145">
         <v>0.9</v>
@@ -29008,7 +29020,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29098,7 +29110,7 @@
         <v>1.3</v>
       </c>
       <c r="AT146">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU146">
         <v>1.48</v>
@@ -29286,7 +29298,7 @@
         <v>0.57</v>
       </c>
       <c r="AS147">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT147">
         <v>0.7</v>
@@ -29390,7 +29402,7 @@
         <v>186</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29480,7 +29492,7 @@
         <v>1.2</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU148">
         <v>1.39</v>
@@ -29581,7 +29593,7 @@
         <v>187</v>
       </c>
       <c r="P149" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29671,7 +29683,7 @@
         <v>1.3</v>
       </c>
       <c r="AT149">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU149">
         <v>1.59</v>
@@ -29963,7 +29975,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30050,7 +30062,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT151">
         <v>0.7</v>
@@ -30241,7 +30253,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT152">
         <v>0.4</v>
@@ -30536,7 +30548,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30727,7 +30739,7 @@
         <v>191</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30814,10 +30826,10 @@
         <v>1.33</v>
       </c>
       <c r="AS155">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT155">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU155">
         <v>1.61</v>
@@ -31199,7 +31211,7 @@
         <v>1.5</v>
       </c>
       <c r="AT157">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU157">
         <v>1.43</v>
@@ -31300,7 +31312,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31387,10 +31399,10 @@
         <v>1.25</v>
       </c>
       <c r="AS158">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT158">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU158">
         <v>1.71</v>
@@ -31491,7 +31503,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31578,10 +31590,10 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT159">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU159">
         <v>1.57</v>
@@ -31963,7 +31975,7 @@
         <v>1.7</v>
       </c>
       <c r="AT161">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU161">
         <v>1.77</v>
@@ -32064,7 +32076,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32151,7 +32163,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT162">
         <v>0.8</v>
@@ -32342,7 +32354,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT163">
         <v>0.7</v>
@@ -32828,7 +32840,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -32915,7 +32927,7 @@
         <v>0.86</v>
       </c>
       <c r="AS166">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT166">
         <v>0.7</v>
@@ -33106,10 +33118,10 @@
         <v>1.14</v>
       </c>
       <c r="AS167">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT167">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -33210,7 +33222,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33297,7 +33309,7 @@
         <v>0.63</v>
       </c>
       <c r="AS168">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT168">
         <v>0.7</v>
@@ -33592,7 +33604,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33682,7 +33694,7 @@
         <v>1.8</v>
       </c>
       <c r="AT170">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU170">
         <v>1.89</v>
@@ -33974,7 +33986,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34064,7 +34076,7 @@
         <v>1.6</v>
       </c>
       <c r="AT172">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU172">
         <v>1.55</v>
@@ -34165,7 +34177,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34252,10 +34264,10 @@
         <v>0.86</v>
       </c>
       <c r="AS173">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT173">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU173">
         <v>1.42</v>
@@ -34443,7 +34455,7 @@
         <v>0.88</v>
       </c>
       <c r="AS174">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT174">
         <v>0.7</v>
@@ -34634,7 +34646,7 @@
         <v>0.38</v>
       </c>
       <c r="AS175">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT175">
         <v>0.3</v>
@@ -34929,7 +34941,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35019,7 +35031,7 @@
         <v>1.2</v>
       </c>
       <c r="AT177">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU177">
         <v>1.43</v>
@@ -35210,7 +35222,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU178">
         <v>1.49</v>
@@ -35398,10 +35410,10 @@
         <v>0.75</v>
       </c>
       <c r="AS179">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT179">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU179">
         <v>1.59</v>
@@ -35502,7 +35514,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q180">
         <v>6</v>
@@ -35589,7 +35601,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT180">
         <v>0.7</v>
@@ -35693,7 +35705,7 @@
         <v>85</v>
       </c>
       <c r="P181" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35783,7 +35795,7 @@
         <v>1.9</v>
       </c>
       <c r="AT181">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU181">
         <v>1.89</v>
@@ -35884,7 +35896,7 @@
         <v>128</v>
       </c>
       <c r="P182" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -35974,7 +35986,7 @@
         <v>1.3</v>
       </c>
       <c r="AT182">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU182">
         <v>1.41</v>
@@ -36457,7 +36469,7 @@
         <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="Q185">
         <v>10</v>
@@ -36735,10 +36747,10 @@
         <v>1.44</v>
       </c>
       <c r="AS186">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT186">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU186">
         <v>1.57</v>
@@ -37117,10 +37129,10 @@
         <v>1.22</v>
       </c>
       <c r="AS188">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT188">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU188">
         <v>1.59</v>
@@ -37308,7 +37320,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT189">
         <v>0.7</v>
@@ -37499,10 +37511,10 @@
         <v>1.88</v>
       </c>
       <c r="AS190">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT190">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU190">
         <v>1.69</v>
@@ -37881,7 +37893,7 @@
         <v>0.67</v>
       </c>
       <c r="AS192">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT192">
         <v>0.7</v>
@@ -38075,7 +38087,7 @@
         <v>1.5</v>
       </c>
       <c r="AT193">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU193">
         <v>1.74</v>
@@ -38266,7 +38278,7 @@
         <v>1.3</v>
       </c>
       <c r="AT194">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU194">
         <v>1.52</v>
@@ -38645,7 +38657,7 @@
         <v>0.44</v>
       </c>
       <c r="AS196">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT196">
         <v>0.4</v>
@@ -38749,7 +38761,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -38940,7 +38952,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39030,7 +39042,7 @@
         <v>1.8</v>
       </c>
       <c r="AT198">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU198">
         <v>1.9</v>
@@ -39218,7 +39230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS199">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT199">
         <v>0.3</v>
@@ -39322,7 +39334,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q200">
         <v>9</v>
@@ -39412,7 +39424,7 @@
         <v>1.6</v>
       </c>
       <c r="AT200">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU200">
         <v>1.6</v>
@@ -39513,7 +39525,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39600,7 +39612,7 @@
         <v>0.78</v>
       </c>
       <c r="AS201">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT201">
         <v>0.7</v>
@@ -39791,10 +39803,10 @@
         <v>1.6</v>
       </c>
       <c r="AS202">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT202">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU202">
         <v>1.56</v>
@@ -39895,7 +39907,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -39982,10 +39994,10 @@
         <v>1.4</v>
       </c>
       <c r="AS203">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT203">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU203">
         <v>1.86</v>
@@ -40086,7 +40098,7 @@
         <v>119</v>
       </c>
       <c r="P204" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -40173,10 +40185,10 @@
         <v>1.1</v>
       </c>
       <c r="AS204">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT204">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU204">
         <v>1.56</v>
@@ -40277,7 +40289,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40364,10 +40376,10 @@
         <v>1.3</v>
       </c>
       <c r="AS205">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT205">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU205">
         <v>1.64</v>
@@ -40555,10 +40567,10 @@
         <v>0.8</v>
       </c>
       <c r="AS206">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT206">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU206">
         <v>1.64</v>
@@ -40746,10 +40758,10 @@
         <v>1.1</v>
       </c>
       <c r="AS207">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT207">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU207">
         <v>1.72</v>
@@ -40937,10 +40949,10 @@
         <v>0.6</v>
       </c>
       <c r="AS208">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT208">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU208">
         <v>1.41</v>
@@ -41128,10 +41140,10 @@
         <v>1.1</v>
       </c>
       <c r="AS209">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT209">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU209">
         <v>1.71</v>
@@ -41182,6 +41194,1534 @@
         <v>24</v>
       </c>
       <c r="BK209">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>6166987</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45077.84375</v>
+      </c>
+      <c r="F210">
+        <v>23</v>
+      </c>
+      <c r="G210" t="s">
+        <v>68</v>
+      </c>
+      <c r="H210" t="s">
+        <v>78</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>114</v>
+      </c>
+      <c r="P210" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q210">
+        <v>3</v>
+      </c>
+      <c r="R210">
+        <v>4</v>
+      </c>
+      <c r="S210">
+        <v>7</v>
+      </c>
+      <c r="T210">
+        <v>3.05</v>
+      </c>
+      <c r="U210">
+        <v>2.02</v>
+      </c>
+      <c r="V210">
+        <v>3.7</v>
+      </c>
+      <c r="W210">
+        <v>1.42</v>
+      </c>
+      <c r="X210">
+        <v>2.7</v>
+      </c>
+      <c r="Y210">
+        <v>3.25</v>
+      </c>
+      <c r="Z210">
+        <v>1.32</v>
+      </c>
+      <c r="AA210">
+        <v>9</v>
+      </c>
+      <c r="AB210">
+        <v>1.05</v>
+      </c>
+      <c r="AC210">
+        <v>2.33</v>
+      </c>
+      <c r="AD210">
+        <v>3.2</v>
+      </c>
+      <c r="AE210">
+        <v>3</v>
+      </c>
+      <c r="AF210">
+        <v>1.07</v>
+      </c>
+      <c r="AG210">
+        <v>8.5</v>
+      </c>
+      <c r="AH210">
+        <v>1.37</v>
+      </c>
+      <c r="AI210">
+        <v>3.05</v>
+      </c>
+      <c r="AJ210">
+        <v>2.12</v>
+      </c>
+      <c r="AK210">
+        <v>1.67</v>
+      </c>
+      <c r="AL210">
+        <v>1.85</v>
+      </c>
+      <c r="AM210">
+        <v>1.91</v>
+      </c>
+      <c r="AN210">
+        <v>1.3</v>
+      </c>
+      <c r="AO210">
+        <v>1.29</v>
+      </c>
+      <c r="AP210">
+        <v>1.47</v>
+      </c>
+      <c r="AQ210">
+        <v>2.09</v>
+      </c>
+      <c r="AR210">
+        <v>1</v>
+      </c>
+      <c r="AS210">
+        <v>2.17</v>
+      </c>
+      <c r="AT210">
+        <v>0.92</v>
+      </c>
+      <c r="AU210">
+        <v>1.52</v>
+      </c>
+      <c r="AV210">
+        <v>1.29</v>
+      </c>
+      <c r="AW210">
+        <v>2.81</v>
+      </c>
+      <c r="AX210">
+        <v>1.69</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>2.54</v>
+      </c>
+      <c r="BA210">
+        <v>1.43</v>
+      </c>
+      <c r="BB210">
+        <v>1.4</v>
+      </c>
+      <c r="BC210">
+        <v>1.7</v>
+      </c>
+      <c r="BD210">
+        <v>2.13</v>
+      </c>
+      <c r="BE210">
+        <v>2.85</v>
+      </c>
+      <c r="BF210">
+        <v>6</v>
+      </c>
+      <c r="BG210">
+        <v>4</v>
+      </c>
+      <c r="BH210">
+        <v>11</v>
+      </c>
+      <c r="BI210">
+        <v>12</v>
+      </c>
+      <c r="BJ210">
+        <v>17</v>
+      </c>
+      <c r="BK210">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>6166986</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45077.9375</v>
+      </c>
+      <c r="F211">
+        <v>23</v>
+      </c>
+      <c r="G211" t="s">
+        <v>77</v>
+      </c>
+      <c r="H211" t="s">
+        <v>84</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>85</v>
+      </c>
+      <c r="P211" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q211">
+        <v>3</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>5</v>
+      </c>
+      <c r="T211">
+        <v>2.6</v>
+      </c>
+      <c r="U211">
+        <v>2.07</v>
+      </c>
+      <c r="V211">
+        <v>4.4</v>
+      </c>
+      <c r="W211">
+        <v>1.42</v>
+      </c>
+      <c r="X211">
+        <v>2.65</v>
+      </c>
+      <c r="Y211">
+        <v>2.95</v>
+      </c>
+      <c r="Z211">
+        <v>1.35</v>
+      </c>
+      <c r="AA211">
+        <v>6.8</v>
+      </c>
+      <c r="AB211">
+        <v>1.07</v>
+      </c>
+      <c r="AC211">
+        <v>1.94</v>
+      </c>
+      <c r="AD211">
+        <v>3.35</v>
+      </c>
+      <c r="AE211">
+        <v>3.75</v>
+      </c>
+      <c r="AF211">
+        <v>1.07</v>
+      </c>
+      <c r="AG211">
+        <v>7</v>
+      </c>
+      <c r="AH211">
+        <v>1.3</v>
+      </c>
+      <c r="AI211">
+        <v>3.2</v>
+      </c>
+      <c r="AJ211">
+        <v>2.05</v>
+      </c>
+      <c r="AK211">
+        <v>1.75</v>
+      </c>
+      <c r="AL211">
+        <v>1.8</v>
+      </c>
+      <c r="AM211">
+        <v>1.96</v>
+      </c>
+      <c r="AN211">
+        <v>1.18</v>
+      </c>
+      <c r="AO211">
+        <v>1.28</v>
+      </c>
+      <c r="AP211">
+        <v>1.75</v>
+      </c>
+      <c r="AQ211">
+        <v>2.18</v>
+      </c>
+      <c r="AR211">
+        <v>1.36</v>
+      </c>
+      <c r="AS211">
+        <v>2</v>
+      </c>
+      <c r="AT211">
+        <v>1.5</v>
+      </c>
+      <c r="AU211">
+        <v>1.78</v>
+      </c>
+      <c r="AV211">
+        <v>1</v>
+      </c>
+      <c r="AW211">
+        <v>2.78</v>
+      </c>
+      <c r="AX211">
+        <v>1.69</v>
+      </c>
+      <c r="AY211">
+        <v>7.7</v>
+      </c>
+      <c r="AZ211">
+        <v>2.71</v>
+      </c>
+      <c r="BA211">
+        <v>1.38</v>
+      </c>
+      <c r="BB211">
+        <v>1.65</v>
+      </c>
+      <c r="BC211">
+        <v>2.1</v>
+      </c>
+      <c r="BD211">
+        <v>2.7</v>
+      </c>
+      <c r="BE211">
+        <v>3.8</v>
+      </c>
+      <c r="BF211">
+        <v>4</v>
+      </c>
+      <c r="BG211">
+        <v>5</v>
+      </c>
+      <c r="BH211">
+        <v>11</v>
+      </c>
+      <c r="BI211">
+        <v>5</v>
+      </c>
+      <c r="BJ211">
+        <v>15</v>
+      </c>
+      <c r="BK211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>6166985</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45078.84375</v>
+      </c>
+      <c r="F212">
+        <v>23</v>
+      </c>
+      <c r="G212" t="s">
+        <v>79</v>
+      </c>
+      <c r="H212" t="s">
+        <v>81</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212" t="s">
+        <v>85</v>
+      </c>
+      <c r="P212" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q212">
+        <v>9</v>
+      </c>
+      <c r="R212">
+        <v>8</v>
+      </c>
+      <c r="S212">
+        <v>17</v>
+      </c>
+      <c r="T212">
+        <v>2.41</v>
+      </c>
+      <c r="U212">
+        <v>2.19</v>
+      </c>
+      <c r="V212">
+        <v>5.51</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>2.55</v>
+      </c>
+      <c r="Y212">
+        <v>3.28</v>
+      </c>
+      <c r="Z212">
+        <v>1.33</v>
+      </c>
+      <c r="AA212">
+        <v>8.25</v>
+      </c>
+      <c r="AB212">
+        <v>1.06</v>
+      </c>
+      <c r="AC212">
+        <v>1.67</v>
+      </c>
+      <c r="AD212">
+        <v>3.5</v>
+      </c>
+      <c r="AE212">
+        <v>4.6</v>
+      </c>
+      <c r="AF212">
+        <v>1.07</v>
+      </c>
+      <c r="AG212">
+        <v>7.75</v>
+      </c>
+      <c r="AH212">
+        <v>1.36</v>
+      </c>
+      <c r="AI212">
+        <v>2.87</v>
+      </c>
+      <c r="AJ212">
+        <v>2.05</v>
+      </c>
+      <c r="AK212">
+        <v>1.61</v>
+      </c>
+      <c r="AL212">
+        <v>2.03</v>
+      </c>
+      <c r="AM212">
+        <v>1.75</v>
+      </c>
+      <c r="AN212">
+        <v>1.14</v>
+      </c>
+      <c r="AO212">
+        <v>1.28</v>
+      </c>
+      <c r="AP212">
+        <v>2.06</v>
+      </c>
+      <c r="AQ212">
+        <v>1.73</v>
+      </c>
+      <c r="AR212">
+        <v>0.64</v>
+      </c>
+      <c r="AS212">
+        <v>1.67</v>
+      </c>
+      <c r="AT212">
+        <v>0.67</v>
+      </c>
+      <c r="AU212">
+        <v>1.62</v>
+      </c>
+      <c r="AV212">
+        <v>1.28</v>
+      </c>
+      <c r="AW212">
+        <v>2.9</v>
+      </c>
+      <c r="AX212">
+        <v>1.49</v>
+      </c>
+      <c r="AY212">
+        <v>7.5</v>
+      </c>
+      <c r="AZ212">
+        <v>3.25</v>
+      </c>
+      <c r="BA212">
+        <v>1.3</v>
+      </c>
+      <c r="BB212">
+        <v>1.59</v>
+      </c>
+      <c r="BC212">
+        <v>2.03</v>
+      </c>
+      <c r="BD212">
+        <v>2.7</v>
+      </c>
+      <c r="BE212">
+        <v>3.8</v>
+      </c>
+      <c r="BF212">
+        <v>5</v>
+      </c>
+      <c r="BG212">
+        <v>4</v>
+      </c>
+      <c r="BH212">
+        <v>16</v>
+      </c>
+      <c r="BI212">
+        <v>7</v>
+      </c>
+      <c r="BJ212">
+        <v>21</v>
+      </c>
+      <c r="BK212">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>6166984</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45078.9375</v>
+      </c>
+      <c r="F213">
+        <v>23</v>
+      </c>
+      <c r="G213" t="s">
+        <v>70</v>
+      </c>
+      <c r="H213" t="s">
+        <v>67</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>1</v>
+      </c>
+      <c r="O213" t="s">
+        <v>228</v>
+      </c>
+      <c r="P213" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q213">
+        <v>5</v>
+      </c>
+      <c r="R213">
+        <v>13</v>
+      </c>
+      <c r="S213">
+        <v>18</v>
+      </c>
+      <c r="T213">
+        <v>2.57</v>
+      </c>
+      <c r="U213">
+        <v>2.15</v>
+      </c>
+      <c r="V213">
+        <v>5.08</v>
+      </c>
+      <c r="W213">
+        <v>1.47</v>
+      </c>
+      <c r="X213">
+        <v>2.72</v>
+      </c>
+      <c r="Y213">
+        <v>3.36</v>
+      </c>
+      <c r="Z213">
+        <v>1.33</v>
+      </c>
+      <c r="AA213">
+        <v>8</v>
+      </c>
+      <c r="AB213">
+        <v>1.05</v>
+      </c>
+      <c r="AC213">
+        <v>1.83</v>
+      </c>
+      <c r="AD213">
+        <v>3.35</v>
+      </c>
+      <c r="AE213">
+        <v>4.52</v>
+      </c>
+      <c r="AF213">
+        <v>1.07</v>
+      </c>
+      <c r="AG213">
+        <v>9</v>
+      </c>
+      <c r="AH213">
+        <v>1.38</v>
+      </c>
+      <c r="AI213">
+        <v>3</v>
+      </c>
+      <c r="AJ213">
+        <v>2.07</v>
+      </c>
+      <c r="AK213">
+        <v>1.59</v>
+      </c>
+      <c r="AL213">
+        <v>2.04</v>
+      </c>
+      <c r="AM213">
+        <v>1.74</v>
+      </c>
+      <c r="AN213">
+        <v>1.18</v>
+      </c>
+      <c r="AO213">
+        <v>1.29</v>
+      </c>
+      <c r="AP213">
+        <v>1.92</v>
+      </c>
+      <c r="AQ213">
+        <v>1.82</v>
+      </c>
+      <c r="AR213">
+        <v>1.18</v>
+      </c>
+      <c r="AS213">
+        <v>1.92</v>
+      </c>
+      <c r="AT213">
+        <v>1.08</v>
+      </c>
+      <c r="AU213">
+        <v>1.47</v>
+      </c>
+      <c r="AV213">
+        <v>1.41</v>
+      </c>
+      <c r="AW213">
+        <v>2.88</v>
+      </c>
+      <c r="AX213">
+        <v>1.66</v>
+      </c>
+      <c r="AY213">
+        <v>7</v>
+      </c>
+      <c r="AZ213">
+        <v>2.7</v>
+      </c>
+      <c r="BA213">
+        <v>1.31</v>
+      </c>
+      <c r="BB213">
+        <v>1.6</v>
+      </c>
+      <c r="BC213">
+        <v>2.07</v>
+      </c>
+      <c r="BD213">
+        <v>2.75</v>
+      </c>
+      <c r="BE213">
+        <v>4</v>
+      </c>
+      <c r="BF213">
+        <v>7</v>
+      </c>
+      <c r="BG213">
+        <v>9</v>
+      </c>
+      <c r="BH213">
+        <v>11</v>
+      </c>
+      <c r="BI213">
+        <v>15</v>
+      </c>
+      <c r="BJ213">
+        <v>18</v>
+      </c>
+      <c r="BK213">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>6166991</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45080.84722222222</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>78</v>
+      </c>
+      <c r="H214" t="s">
+        <v>68</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214" t="s">
+        <v>85</v>
+      </c>
+      <c r="P214" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q214">
+        <v>9</v>
+      </c>
+      <c r="R214">
+        <v>5</v>
+      </c>
+      <c r="S214">
+        <v>14</v>
+      </c>
+      <c r="T214">
+        <v>2.3</v>
+      </c>
+      <c r="U214">
+        <v>2.05</v>
+      </c>
+      <c r="V214">
+        <v>4.8</v>
+      </c>
+      <c r="W214">
+        <v>1.43</v>
+      </c>
+      <c r="X214">
+        <v>2.6</v>
+      </c>
+      <c r="Y214">
+        <v>2.95</v>
+      </c>
+      <c r="Z214">
+        <v>1.35</v>
+      </c>
+      <c r="AA214">
+        <v>7.75</v>
+      </c>
+      <c r="AB214">
+        <v>1.07</v>
+      </c>
+      <c r="AC214">
+        <v>1.7</v>
+      </c>
+      <c r="AD214">
+        <v>3.25</v>
+      </c>
+      <c r="AE214">
+        <v>4.6</v>
+      </c>
+      <c r="AF214">
+        <v>1.04</v>
+      </c>
+      <c r="AG214">
+        <v>7.4</v>
+      </c>
+      <c r="AH214">
+        <v>1.36</v>
+      </c>
+      <c r="AI214">
+        <v>2.83</v>
+      </c>
+      <c r="AJ214">
+        <v>2.05</v>
+      </c>
+      <c r="AK214">
+        <v>1.67</v>
+      </c>
+      <c r="AL214">
+        <v>1.98</v>
+      </c>
+      <c r="AM214">
+        <v>1.72</v>
+      </c>
+      <c r="AN214">
+        <v>1.18</v>
+      </c>
+      <c r="AO214">
+        <v>1.31</v>
+      </c>
+      <c r="AP214">
+        <v>2.01</v>
+      </c>
+      <c r="AQ214">
+        <v>1.73</v>
+      </c>
+      <c r="AR214">
+        <v>0.73</v>
+      </c>
+      <c r="AS214">
+        <v>1.67</v>
+      </c>
+      <c r="AT214">
+        <v>0.75</v>
+      </c>
+      <c r="AU214">
+        <v>1.8</v>
+      </c>
+      <c r="AV214">
+        <v>1.07</v>
+      </c>
+      <c r="AW214">
+        <v>2.87</v>
+      </c>
+      <c r="AX214">
+        <v>1.54</v>
+      </c>
+      <c r="AY214">
+        <v>8.4</v>
+      </c>
+      <c r="AZ214">
+        <v>3.1</v>
+      </c>
+      <c r="BA214">
+        <v>1.23</v>
+      </c>
+      <c r="BB214">
+        <v>1.42</v>
+      </c>
+      <c r="BC214">
+        <v>1.77</v>
+      </c>
+      <c r="BD214">
+        <v>2.18</v>
+      </c>
+      <c r="BE214">
+        <v>2.75</v>
+      </c>
+      <c r="BF214">
+        <v>6</v>
+      </c>
+      <c r="BG214">
+        <v>3</v>
+      </c>
+      <c r="BH214">
+        <v>6</v>
+      </c>
+      <c r="BI214">
+        <v>5</v>
+      </c>
+      <c r="BJ214">
+        <v>12</v>
+      </c>
+      <c r="BK214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>6166990</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45080.9375</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>84</v>
+      </c>
+      <c r="H215" t="s">
+        <v>77</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>229</v>
+      </c>
+      <c r="P215" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>5</v>
+      </c>
+      <c r="S215">
+        <v>7</v>
+      </c>
+      <c r="T215">
+        <v>2.6</v>
+      </c>
+      <c r="U215">
+        <v>2.23</v>
+      </c>
+      <c r="V215">
+        <v>4.37</v>
+      </c>
+      <c r="W215">
+        <v>1.43</v>
+      </c>
+      <c r="X215">
+        <v>2.64</v>
+      </c>
+      <c r="Y215">
+        <v>3.08</v>
+      </c>
+      <c r="Z215">
+        <v>1.3</v>
+      </c>
+      <c r="AA215">
+        <v>6.8</v>
+      </c>
+      <c r="AB215">
+        <v>1.07</v>
+      </c>
+      <c r="AC215">
+        <v>1.91</v>
+      </c>
+      <c r="AD215">
+        <v>3.2</v>
+      </c>
+      <c r="AE215">
+        <v>3.6</v>
+      </c>
+      <c r="AF215">
+        <v>1.06</v>
+      </c>
+      <c r="AG215">
+        <v>7.5</v>
+      </c>
+      <c r="AH215">
+        <v>1.3</v>
+      </c>
+      <c r="AI215">
+        <v>3.2</v>
+      </c>
+      <c r="AJ215">
+        <v>1.95</v>
+      </c>
+      <c r="AK215">
+        <v>1.75</v>
+      </c>
+      <c r="AL215">
+        <v>1.8</v>
+      </c>
+      <c r="AM215">
+        <v>1.96</v>
+      </c>
+      <c r="AN215">
+        <v>1.24</v>
+      </c>
+      <c r="AO215">
+        <v>1.31</v>
+      </c>
+      <c r="AP215">
+        <v>1.82</v>
+      </c>
+      <c r="AQ215">
+        <v>2.45</v>
+      </c>
+      <c r="AR215">
+        <v>1.09</v>
+      </c>
+      <c r="AS215">
+        <v>2.5</v>
+      </c>
+      <c r="AT215">
+        <v>1</v>
+      </c>
+      <c r="AU215">
+        <v>1.64</v>
+      </c>
+      <c r="AV215">
+        <v>1.3</v>
+      </c>
+      <c r="AW215">
+        <v>2.94</v>
+      </c>
+      <c r="AX215">
+        <v>1.57</v>
+      </c>
+      <c r="AY215">
+        <v>7.6</v>
+      </c>
+      <c r="AZ215">
+        <v>3.11</v>
+      </c>
+      <c r="BA215">
+        <v>1.51</v>
+      </c>
+      <c r="BB215">
+        <v>1.85</v>
+      </c>
+      <c r="BC215">
+        <v>2.32</v>
+      </c>
+      <c r="BD215">
+        <v>3.1</v>
+      </c>
+      <c r="BE215">
+        <v>4.4</v>
+      </c>
+      <c r="BF215">
+        <v>10</v>
+      </c>
+      <c r="BG215">
+        <v>2</v>
+      </c>
+      <c r="BH215">
+        <v>7</v>
+      </c>
+      <c r="BI215">
+        <v>5</v>
+      </c>
+      <c r="BJ215">
+        <v>17</v>
+      </c>
+      <c r="BK215">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>6166988</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45081.83680555555</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>67</v>
+      </c>
+      <c r="H216" t="s">
+        <v>70</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+      <c r="O216" t="s">
+        <v>85</v>
+      </c>
+      <c r="P216" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q216">
+        <v>15</v>
+      </c>
+      <c r="R216">
+        <v>7</v>
+      </c>
+      <c r="S216">
+        <v>22</v>
+      </c>
+      <c r="T216">
+        <v>3.2</v>
+      </c>
+      <c r="U216">
+        <v>2.17</v>
+      </c>
+      <c r="V216">
+        <v>3.61</v>
+      </c>
+      <c r="W216">
+        <v>1.43</v>
+      </c>
+      <c r="X216">
+        <v>2.86</v>
+      </c>
+      <c r="Y216">
+        <v>3.15</v>
+      </c>
+      <c r="Z216">
+        <v>1.37</v>
+      </c>
+      <c r="AA216">
+        <v>7.5</v>
+      </c>
+      <c r="AB216">
+        <v>1.06</v>
+      </c>
+      <c r="AC216">
+        <v>2.45</v>
+      </c>
+      <c r="AD216">
+        <v>3.21</v>
+      </c>
+      <c r="AE216">
+        <v>2.89</v>
+      </c>
+      <c r="AF216">
+        <v>1.03</v>
+      </c>
+      <c r="AG216">
+        <v>9</v>
+      </c>
+      <c r="AH216">
+        <v>1.29</v>
+      </c>
+      <c r="AI216">
+        <v>3.3</v>
+      </c>
+      <c r="AJ216">
+        <v>1.95</v>
+      </c>
+      <c r="AK216">
+        <v>1.75</v>
+      </c>
+      <c r="AL216">
+        <v>1.87</v>
+      </c>
+      <c r="AM216">
+        <v>1.93</v>
+      </c>
+      <c r="AN216">
+        <v>1.42</v>
+      </c>
+      <c r="AO216">
+        <v>1.33</v>
+      </c>
+      <c r="AP216">
+        <v>1.56</v>
+      </c>
+      <c r="AQ216">
+        <v>2.45</v>
+      </c>
+      <c r="AR216">
+        <v>1.55</v>
+      </c>
+      <c r="AS216">
+        <v>2.25</v>
+      </c>
+      <c r="AT216">
+        <v>1.67</v>
+      </c>
+      <c r="AU216">
+        <v>1.72</v>
+      </c>
+      <c r="AV216">
+        <v>1.46</v>
+      </c>
+      <c r="AW216">
+        <v>3.18</v>
+      </c>
+      <c r="AX216">
+        <v>1.67</v>
+      </c>
+      <c r="AY216">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ216">
+        <v>2.66</v>
+      </c>
+      <c r="BA216">
+        <v>1.23</v>
+      </c>
+      <c r="BB216">
+        <v>1.39</v>
+      </c>
+      <c r="BC216">
+        <v>1.77</v>
+      </c>
+      <c r="BD216">
+        <v>2.18</v>
+      </c>
+      <c r="BE216">
+        <v>2.8</v>
+      </c>
+      <c r="BF216">
+        <v>9</v>
+      </c>
+      <c r="BG216">
+        <v>6</v>
+      </c>
+      <c r="BH216">
+        <v>7</v>
+      </c>
+      <c r="BI216">
+        <v>5</v>
+      </c>
+      <c r="BJ216">
+        <v>16</v>
+      </c>
+      <c r="BK216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>6166989</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45081.92708333334</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>81</v>
+      </c>
+      <c r="H217" t="s">
+        <v>79</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>161</v>
+      </c>
+      <c r="P217" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q217">
+        <v>6</v>
+      </c>
+      <c r="R217">
+        <v>8</v>
+      </c>
+      <c r="S217">
+        <v>14</v>
+      </c>
+      <c r="T217">
+        <v>2.98</v>
+      </c>
+      <c r="U217">
+        <v>2.18</v>
+      </c>
+      <c r="V217">
+        <v>3.9</v>
+      </c>
+      <c r="W217">
+        <v>1.43</v>
+      </c>
+      <c r="X217">
+        <v>2.87</v>
+      </c>
+      <c r="Y217">
+        <v>3.13</v>
+      </c>
+      <c r="Z217">
+        <v>1.37</v>
+      </c>
+      <c r="AA217">
+        <v>7.5</v>
+      </c>
+      <c r="AB217">
+        <v>1.06</v>
+      </c>
+      <c r="AC217">
+        <v>2.2</v>
+      </c>
+      <c r="AD217">
+        <v>3</v>
+      </c>
+      <c r="AE217">
+        <v>3</v>
+      </c>
+      <c r="AF217">
+        <v>1.05</v>
+      </c>
+      <c r="AG217">
+        <v>8</v>
+      </c>
+      <c r="AH217">
+        <v>1.33</v>
+      </c>
+      <c r="AI217">
+        <v>3.32</v>
+      </c>
+      <c r="AJ217">
+        <v>2.05</v>
+      </c>
+      <c r="AK217">
+        <v>1.7</v>
+      </c>
+      <c r="AL217">
+        <v>1.75</v>
+      </c>
+      <c r="AM217">
+        <v>1.95</v>
+      </c>
+      <c r="AN217">
+        <v>1.29</v>
+      </c>
+      <c r="AO217">
+        <v>1.3</v>
+      </c>
+      <c r="AP217">
+        <v>1.62</v>
+      </c>
+      <c r="AQ217">
+        <v>2.45</v>
+      </c>
+      <c r="AR217">
+        <v>1.09</v>
+      </c>
+      <c r="AS217">
+        <v>2.5</v>
+      </c>
+      <c r="AT217">
+        <v>1</v>
+      </c>
+      <c r="AU217">
+        <v>1.72</v>
+      </c>
+      <c r="AV217">
+        <v>1.41</v>
+      </c>
+      <c r="AW217">
+        <v>3.13</v>
+      </c>
+      <c r="AX217">
+        <v>1.74</v>
+      </c>
+      <c r="AY217">
+        <v>7.5</v>
+      </c>
+      <c r="AZ217">
+        <v>2.62</v>
+      </c>
+      <c r="BA217">
+        <v>1.31</v>
+      </c>
+      <c r="BB217">
+        <v>1.58</v>
+      </c>
+      <c r="BC217">
+        <v>1.94</v>
+      </c>
+      <c r="BD217">
+        <v>2.41</v>
+      </c>
+      <c r="BE217">
+        <v>3.3</v>
+      </c>
+      <c r="BF217">
+        <v>5</v>
+      </c>
+      <c r="BG217">
+        <v>4</v>
+      </c>
+      <c r="BH217">
+        <v>12</v>
+      </c>
+      <c r="BI217">
+        <v>7</v>
+      </c>
+      <c r="BJ217">
+        <v>17</v>
+      </c>
+      <c r="BK217">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,9 @@
     <t>['45', '83']</t>
   </si>
   <si>
+    <t>['52', '60', '88']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -1272,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2280,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2662,7 +2665,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3044,7 +3047,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3325,7 +3328,7 @@
         <v>1.92</v>
       </c>
       <c r="AT11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>2.15</v>
@@ -3426,7 +3429,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3808,7 +3811,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4381,7 +4384,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4763,7 +4766,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4954,7 +4957,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5041,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -5718,7 +5721,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6291,7 +6294,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6673,7 +6676,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6763,7 +6766,7 @@
         <v>1.3</v>
       </c>
       <c r="AT29">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.95</v>
@@ -6864,7 +6867,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7246,7 +7249,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7437,7 +7440,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -8201,7 +8204,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8670,7 +8673,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT39">
         <v>1.1</v>
@@ -8774,7 +8777,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8965,7 +8968,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9156,7 +9159,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9347,7 +9350,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9437,7 +9440,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.81</v>
@@ -10684,7 +10687,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11448,7 +11451,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11830,7 +11833,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12021,7 +12024,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12493,7 +12496,7 @@
         <v>1.67</v>
       </c>
       <c r="AT59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU59">
         <v>1.98</v>
@@ -12872,7 +12875,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT61">
         <v>1.67</v>
@@ -12976,7 +12979,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13167,7 +13170,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13549,7 +13552,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13740,7 +13743,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14886,7 +14889,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15459,7 +15462,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16032,7 +16035,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16119,7 +16122,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT78">
         <v>0.8</v>
@@ -16223,7 +16226,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16605,7 +16608,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16695,7 +16698,7 @@
         <v>2.5</v>
       </c>
       <c r="AT81">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>1.68</v>
@@ -17751,7 +17754,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18706,7 +18709,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18897,7 +18900,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19088,7 +19091,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19470,7 +19473,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19852,7 +19855,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20043,7 +20046,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20321,7 +20324,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT100">
         <v>0.9</v>
@@ -21189,7 +21192,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21571,7 +21574,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21661,7 +21664,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -22144,7 +22147,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23290,7 +23293,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23672,7 +23675,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24054,7 +24057,7 @@
         <v>123</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24245,7 +24248,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24335,7 +24338,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <v>1.98</v>
@@ -24436,7 +24439,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24818,7 +24821,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25096,7 +25099,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT125">
         <v>0.7</v>
@@ -25773,7 +25776,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25964,7 +25967,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26155,7 +26158,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26537,7 +26540,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26728,7 +26731,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26919,7 +26922,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27388,10 +27391,10 @@
         <v>1.29</v>
       </c>
       <c r="AS137">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27683,7 +27686,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -29020,7 +29023,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29298,7 +29301,7 @@
         <v>0.57</v>
       </c>
       <c r="AS147">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT147">
         <v>0.7</v>
@@ -29402,7 +29405,7 @@
         <v>186</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29593,7 +29596,7 @@
         <v>187</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29975,7 +29978,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30548,7 +30551,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30739,7 +30742,7 @@
         <v>191</v>
       </c>
       <c r="P155" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31312,7 +31315,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31402,7 +31405,7 @@
         <v>2.5</v>
       </c>
       <c r="AT158">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU158">
         <v>1.71</v>
@@ -31503,7 +31506,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -32076,7 +32079,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32840,7 +32843,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -33222,7 +33225,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33604,7 +33607,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33986,7 +33989,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34177,7 +34180,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34646,7 +34649,7 @@
         <v>0.38</v>
       </c>
       <c r="AS175">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT175">
         <v>0.3</v>
@@ -34941,7 +34944,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35514,7 +35517,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q180">
         <v>6</v>
@@ -35705,7 +35708,7 @@
         <v>85</v>
       </c>
       <c r="P181" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35896,7 +35899,7 @@
         <v>128</v>
       </c>
       <c r="P182" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -35986,7 +35989,7 @@
         <v>1.3</v>
       </c>
       <c r="AT182">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU182">
         <v>1.41</v>
@@ -38761,7 +38764,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -38952,7 +38955,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39334,7 +39337,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q200">
         <v>9</v>
@@ -39525,7 +39528,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39612,7 +39615,7 @@
         <v>0.78</v>
       </c>
       <c r="AS201">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT201">
         <v>0.7</v>
@@ -39803,7 +39806,7 @@
         <v>1.6</v>
       </c>
       <c r="AS202">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT202">
         <v>1.67</v>
@@ -39907,7 +39910,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40098,7 +40101,7 @@
         <v>119</v>
       </c>
       <c r="P204" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -40289,7 +40292,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40379,7 +40382,7 @@
         <v>2.5</v>
       </c>
       <c r="AT205">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU205">
         <v>1.64</v>
@@ -41435,7 +41438,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41713,7 +41716,7 @@
         <v>0.64</v>
       </c>
       <c r="AS212">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT212">
         <v>0.67</v>
@@ -41907,7 +41910,7 @@
         <v>1.92</v>
       </c>
       <c r="AT213">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU213">
         <v>1.47</v>
@@ -42199,7 +42202,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42390,7 +42393,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q216">
         <v>15</v>
@@ -42723,6 +42726,197 @@
       </c>
       <c r="BK217">
         <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>6166993</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45087.89583333334</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>79</v>
+      </c>
+      <c r="H218" t="s">
+        <v>67</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218" t="s">
+        <v>230</v>
+      </c>
+      <c r="P218" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q218">
+        <v>2</v>
+      </c>
+      <c r="R218">
+        <v>7</v>
+      </c>
+      <c r="S218">
+        <v>9</v>
+      </c>
+      <c r="T218">
+        <v>3.02</v>
+      </c>
+      <c r="U218">
+        <v>1.95</v>
+      </c>
+      <c r="V218">
+        <v>4.05</v>
+      </c>
+      <c r="W218">
+        <v>1.48</v>
+      </c>
+      <c r="X218">
+        <v>2.5</v>
+      </c>
+      <c r="Y218">
+        <v>3.25</v>
+      </c>
+      <c r="Z218">
+        <v>1.3</v>
+      </c>
+      <c r="AA218">
+        <v>8.9</v>
+      </c>
+      <c r="AB218">
+        <v>1.04</v>
+      </c>
+      <c r="AC218">
+        <v>2.2</v>
+      </c>
+      <c r="AD218">
+        <v>3.1</v>
+      </c>
+      <c r="AE218">
+        <v>3.1</v>
+      </c>
+      <c r="AF218">
+        <v>1.08</v>
+      </c>
+      <c r="AG218">
+        <v>8.5</v>
+      </c>
+      <c r="AH218">
+        <v>1.44</v>
+      </c>
+      <c r="AI218">
+        <v>2.8</v>
+      </c>
+      <c r="AJ218">
+        <v>2.35</v>
+      </c>
+      <c r="AK218">
+        <v>1.53</v>
+      </c>
+      <c r="AL218">
+        <v>1.96</v>
+      </c>
+      <c r="AM218">
+        <v>1.79</v>
+      </c>
+      <c r="AN218">
+        <v>1.34</v>
+      </c>
+      <c r="AO218">
+        <v>1.36</v>
+      </c>
+      <c r="AP218">
+        <v>1.6</v>
+      </c>
+      <c r="AQ218">
+        <v>1.67</v>
+      </c>
+      <c r="AR218">
+        <v>1.08</v>
+      </c>
+      <c r="AS218">
+        <v>1.77</v>
+      </c>
+      <c r="AT218">
+        <v>1</v>
+      </c>
+      <c r="AU218">
+        <v>1.65</v>
+      </c>
+      <c r="AV218">
+        <v>1.51</v>
+      </c>
+      <c r="AW218">
+        <v>3.16</v>
+      </c>
+      <c r="AX218">
+        <v>1.92</v>
+      </c>
+      <c r="AY218">
+        <v>8.5</v>
+      </c>
+      <c r="AZ218">
+        <v>2.2</v>
+      </c>
+      <c r="BA218">
+        <v>1.36</v>
+      </c>
+      <c r="BB218">
+        <v>1.58</v>
+      </c>
+      <c r="BC218">
+        <v>1.92</v>
+      </c>
+      <c r="BD218">
+        <v>2.4</v>
+      </c>
+      <c r="BE218">
+        <v>3.64</v>
+      </c>
+      <c r="BF218">
+        <v>7</v>
+      </c>
+      <c r="BG218">
+        <v>2</v>
+      </c>
+      <c r="BH218">
+        <v>5</v>
+      </c>
+      <c r="BI218">
+        <v>4</v>
+      </c>
+      <c r="BJ218">
+        <v>12</v>
+      </c>
+      <c r="BK218">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,9 @@
     <t>['52', '60', '88']</t>
   </si>
   <si>
+    <t>['64', '67']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -1275,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK218"/>
+  <dimension ref="A1:BK219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2179,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT5">
         <v>0.67</v>
@@ -2283,7 +2286,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2665,7 +2668,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3047,7 +3050,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3429,7 +3432,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3519,7 +3522,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3811,7 +3814,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4089,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT15">
         <v>0.3</v>
@@ -4384,7 +4387,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4766,7 +4769,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4957,7 +4960,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5721,7 +5724,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6294,7 +6297,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6676,7 +6679,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6867,7 +6870,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7145,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT31">
         <v>0.9</v>
@@ -7249,7 +7252,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7440,7 +7443,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -8204,7 +8207,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8777,7 +8780,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8968,7 +8971,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9159,7 +9162,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9350,7 +9353,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -10586,7 +10589,7 @@
         <v>1.3</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU49">
         <v>1.92</v>
@@ -10687,7 +10690,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11347,7 +11350,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11451,7 +11454,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11833,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12024,7 +12027,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12979,7 +12982,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13170,7 +13173,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13552,7 +13555,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13743,7 +13746,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14024,7 +14027,7 @@
         <v>1.92</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14212,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT68">
         <v>0.92</v>
@@ -14889,7 +14892,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15462,7 +15465,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16035,7 +16038,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16226,7 +16229,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16608,7 +16611,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -17754,7 +17757,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18709,7 +18712,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18900,7 +18903,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19091,7 +19094,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19473,7 +19476,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19563,7 +19566,7 @@
         <v>1.9</v>
       </c>
       <c r="AT96">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU96">
         <v>2.07</v>
@@ -19855,7 +19858,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19942,7 +19945,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT98">
         <v>0.7</v>
@@ -20046,7 +20049,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20136,7 +20139,7 @@
         <v>1.8</v>
       </c>
       <c r="AT99">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU99">
         <v>1.85</v>
@@ -21192,7 +21195,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21282,7 +21285,7 @@
         <v>1.3</v>
       </c>
       <c r="AT105">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU105">
         <v>1.58</v>
@@ -21574,7 +21577,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22147,7 +22150,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23293,7 +23296,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23675,7 +23678,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24057,7 +24060,7 @@
         <v>123</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24147,7 +24150,7 @@
         <v>1.2</v>
       </c>
       <c r="AT120">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU120">
         <v>1.46</v>
@@ -24248,7 +24251,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24439,7 +24442,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24821,7 +24824,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25776,7 +25779,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25967,7 +25970,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26158,7 +26161,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26540,7 +26543,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26731,7 +26734,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26922,7 +26925,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27200,7 +27203,7 @@
         <v>1.4</v>
       </c>
       <c r="AS136">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT136">
         <v>1</v>
@@ -27686,7 +27689,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -28540,7 +28543,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU143">
         <v>1.41</v>
@@ -28728,7 +28731,7 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT144">
         <v>0.6</v>
@@ -29023,7 +29026,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29405,7 +29408,7 @@
         <v>186</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29596,7 +29599,7 @@
         <v>187</v>
       </c>
       <c r="P149" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29978,7 +29981,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30551,7 +30554,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30742,7 +30745,7 @@
         <v>191</v>
       </c>
       <c r="P155" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31315,7 +31318,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31506,7 +31509,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31978,7 +31981,7 @@
         <v>1.7</v>
       </c>
       <c r="AT161">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU161">
         <v>1.77</v>
@@ -32079,7 +32082,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32357,7 +32360,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT163">
         <v>0.7</v>
@@ -32843,7 +32846,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -33225,7 +33228,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33607,7 +33610,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33989,7 +33992,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34180,7 +34183,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34944,7 +34947,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35517,7 +35520,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q180">
         <v>6</v>
@@ -35708,7 +35711,7 @@
         <v>85</v>
       </c>
       <c r="P181" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35899,7 +35902,7 @@
         <v>128</v>
       </c>
       <c r="P182" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36750,10 +36753,10 @@
         <v>1.44</v>
       </c>
       <c r="AS186">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT186">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU186">
         <v>1.57</v>
@@ -38764,7 +38767,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -38955,7 +38958,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39337,7 +39340,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q200">
         <v>9</v>
@@ -39528,7 +39531,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39910,7 +39913,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40000,7 +40003,7 @@
         <v>1.67</v>
       </c>
       <c r="AT203">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU203">
         <v>1.86</v>
@@ -40101,7 +40104,7 @@
         <v>119</v>
       </c>
       <c r="P204" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -40188,7 +40191,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT204">
         <v>1</v>
@@ -40292,7 +40295,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -41334,7 +41337,7 @@
         <v>1</v>
       </c>
       <c r="AS210">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT210">
         <v>0.92</v>
@@ -41438,7 +41441,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41528,7 +41531,7 @@
         <v>2</v>
       </c>
       <c r="AT211">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU211">
         <v>1.78</v>
@@ -42202,7 +42205,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42393,7 +42396,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q216">
         <v>15</v>
@@ -42917,6 +42920,197 @@
       </c>
       <c r="BK218">
         <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>6166995</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45088.85416666666</v>
+      </c>
+      <c r="F219">
+        <v>25</v>
+      </c>
+      <c r="G219" t="s">
+        <v>68</v>
+      </c>
+      <c r="H219" t="s">
+        <v>84</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>231</v>
+      </c>
+      <c r="P219" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q219">
+        <v>5</v>
+      </c>
+      <c r="R219">
+        <v>10</v>
+      </c>
+      <c r="S219">
+        <v>15</v>
+      </c>
+      <c r="T219">
+        <v>3.5</v>
+      </c>
+      <c r="U219">
+        <v>1.86</v>
+      </c>
+      <c r="V219">
+        <v>3.72</v>
+      </c>
+      <c r="W219">
+        <v>1.55</v>
+      </c>
+      <c r="X219">
+        <v>2.32</v>
+      </c>
+      <c r="Y219">
+        <v>3.7</v>
+      </c>
+      <c r="Z219">
+        <v>1.24</v>
+      </c>
+      <c r="AA219">
+        <v>10.5</v>
+      </c>
+      <c r="AB219">
+        <v>1.02</v>
+      </c>
+      <c r="AC219">
+        <v>2.42</v>
+      </c>
+      <c r="AD219">
+        <v>2.82</v>
+      </c>
+      <c r="AE219">
+        <v>2.93</v>
+      </c>
+      <c r="AF219">
+        <v>1.1</v>
+      </c>
+      <c r="AG219">
+        <v>7</v>
+      </c>
+      <c r="AH219">
+        <v>1.5</v>
+      </c>
+      <c r="AI219">
+        <v>2.55</v>
+      </c>
+      <c r="AJ219">
+        <v>2.3</v>
+      </c>
+      <c r="AK219">
+        <v>1.5</v>
+      </c>
+      <c r="AL219">
+        <v>2.08</v>
+      </c>
+      <c r="AM219">
+        <v>1.7</v>
+      </c>
+      <c r="AN219">
+        <v>1.42</v>
+      </c>
+      <c r="AO219">
+        <v>1.4</v>
+      </c>
+      <c r="AP219">
+        <v>1.45</v>
+      </c>
+      <c r="AQ219">
+        <v>2.17</v>
+      </c>
+      <c r="AR219">
+        <v>1.5</v>
+      </c>
+      <c r="AS219">
+        <v>2.23</v>
+      </c>
+      <c r="AT219">
+        <v>1.38</v>
+      </c>
+      <c r="AU219">
+        <v>1.54</v>
+      </c>
+      <c r="AV219">
+        <v>1.02</v>
+      </c>
+      <c r="AW219">
+        <v>2.56</v>
+      </c>
+      <c r="AX219">
+        <v>1.91</v>
+      </c>
+      <c r="AY219">
+        <v>7.5</v>
+      </c>
+      <c r="AZ219">
+        <v>2.2</v>
+      </c>
+      <c r="BA219">
+        <v>1.34</v>
+      </c>
+      <c r="BB219">
+        <v>1.93</v>
+      </c>
+      <c r="BC219">
+        <v>2.04</v>
+      </c>
+      <c r="BD219">
+        <v>2.75</v>
+      </c>
+      <c r="BE219">
+        <v>3.7</v>
+      </c>
+      <c r="BF219">
+        <v>4</v>
+      </c>
+      <c r="BG219">
+        <v>5</v>
+      </c>
+      <c r="BH219">
+        <v>3</v>
+      </c>
+      <c r="BI219">
+        <v>6</v>
+      </c>
+      <c r="BJ219">
+        <v>7</v>
+      </c>
+      <c r="BK219">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,16 +667,10 @@
     <t>['12', '37', '45+4', '47', '65']</t>
   </si>
   <si>
-    <t>['19', '54']</t>
+    <t>['70', '83']</t>
   </si>
   <si>
-    <t>['6', '52', '83']</t>
-  </si>
-  <si>
-    <t>['53', '68', '83', '90+3']</t>
-  </si>
-  <si>
-    <t>['29', '35']</t>
+    <t>['19', '54']</t>
   </si>
   <si>
     <t>['52', '90', '90+2']</t>
@@ -685,7 +679,13 @@
     <t>['39', '86']</t>
   </si>
   <si>
-    <t>['70', '83']</t>
+    <t>['29', '35']</t>
+  </si>
+  <si>
+    <t>['53', '68', '83', '90+3']</t>
+  </si>
+  <si>
+    <t>['6', '52', '83']</t>
   </si>
   <si>
     <t>['53', '69']</t>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK219"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2376,7 +2379,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -4665,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT18">
         <v>0.7</v>
@@ -4859,7 +4862,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU19">
         <v>1.29</v>
@@ -5050,7 +5053,7 @@
         <v>1.77</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -6193,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT26">
         <v>0.6</v>
@@ -8294,10 +8297,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU37">
         <v>2.6</v>
@@ -9252,7 +9255,7 @@
         <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU42">
         <v>1.97</v>
@@ -10968,7 +10971,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT51">
         <v>0.92</v>
@@ -12496,7 +12499,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12881,7 +12884,7 @@
         <v>1.77</v>
       </c>
       <c r="AT61">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU61">
         <v>1.76</v>
@@ -13451,7 +13454,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -14788,7 +14791,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT71">
         <v>0.4</v>
@@ -15364,7 +15367,7 @@
         <v>1.9</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU74">
         <v>2.32</v>
@@ -15555,7 +15558,7 @@
         <v>1.6</v>
       </c>
       <c r="AT75">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU75">
         <v>1.63</v>
@@ -16889,7 +16892,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT82">
         <v>0.3</v>
@@ -18608,7 +18611,7 @@
         <v>1.25</v>
       </c>
       <c r="AS91">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT91">
         <v>0.7</v>
@@ -19375,7 +19378,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU95">
         <v>1.81</v>
@@ -20900,7 +20903,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT103">
         <v>0.6</v>
@@ -21094,7 +21097,7 @@
         <v>1.9</v>
       </c>
       <c r="AT104">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU104">
         <v>1.81</v>
@@ -23383,7 +23386,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT116">
         <v>0.7</v>
@@ -24720,7 +24723,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT123">
         <v>0.8</v>
@@ -25484,7 +25487,7 @@
         <v>0.4</v>
       </c>
       <c r="AS127">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT127">
         <v>0.3</v>
@@ -27206,7 +27209,7 @@
         <v>2.23</v>
       </c>
       <c r="AT136">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU136">
         <v>1.61</v>
@@ -27776,7 +27779,7 @@
         <v>0.57</v>
       </c>
       <c r="AS139">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT139">
         <v>0.8</v>
@@ -28352,7 +28355,7 @@
         <v>1.3</v>
       </c>
       <c r="AT142">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU142">
         <v>1.41</v>
@@ -30835,7 +30838,7 @@
         <v>2.5</v>
       </c>
       <c r="AT155">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU155">
         <v>1.61</v>
@@ -31405,7 +31408,7 @@
         <v>1.25</v>
       </c>
       <c r="AS158">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT158">
         <v>1</v>
@@ -31596,10 +31599,10 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT159">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU159">
         <v>1.57</v>
@@ -33127,7 +33130,7 @@
         <v>1.92</v>
       </c>
       <c r="AT167">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -35037,7 +35040,7 @@
         <v>1.2</v>
       </c>
       <c r="AT177">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU177">
         <v>1.43</v>
@@ -35607,7 +35610,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT180">
         <v>0.7</v>
@@ -35801,7 +35804,7 @@
         <v>1.9</v>
       </c>
       <c r="AT181">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU181">
         <v>1.89</v>
@@ -37135,7 +37138,7 @@
         <v>1.22</v>
       </c>
       <c r="AS188">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT188">
         <v>1</v>
@@ -37517,10 +37520,10 @@
         <v>1.88</v>
       </c>
       <c r="AS190">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT190">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU190">
         <v>1.69</v>
@@ -37770,7 +37773,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>5240280</v>
+        <v>5240282</v>
       </c>
       <c r="C192" t="s">
         <v>63</v>
@@ -37785,175 +37788,175 @@
         <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H192" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O192" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="Q192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S192">
         <v>6</v>
       </c>
       <c r="T192">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="U192">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V192">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="W192">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y192">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Z192">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA192">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB192">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC192">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AD192">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AE192">
         <v>5.5</v>
       </c>
       <c r="AF192">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG192">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH192">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AI192">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AJ192">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AK192">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AL192">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AM192">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AN192">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AO192">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AP192">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="AQ192">
-        <v>2.56</v>
+        <v>1.67</v>
       </c>
       <c r="AR192">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="AS192">
-        <v>2.5</v>
+        <v>1.77</v>
       </c>
       <c r="AT192">
         <v>0.7</v>
       </c>
       <c r="AU192">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="AV192">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="AW192">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="AX192">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AY192">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ192">
-        <v>3.52</v>
+        <v>4.05</v>
       </c>
       <c r="BA192">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="BB192">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="BC192">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="BD192">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="BE192">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BF192">
+        <v>8</v>
+      </c>
+      <c r="BG192">
         <v>6</v>
       </c>
-      <c r="BG192">
-        <v>4</v>
-      </c>
       <c r="BH192">
+        <v>13</v>
+      </c>
+      <c r="BI192">
         <v>7</v>
       </c>
-      <c r="BI192">
-        <v>16</v>
-      </c>
       <c r="BJ192">
+        <v>21</v>
+      </c>
+      <c r="BK192">
         <v>13</v>
-      </c>
-      <c r="BK192">
-        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:63">
@@ -37961,7 +37964,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>5240279</v>
+        <v>5240280</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -37976,10 +37979,10 @@
         <v>20</v>
       </c>
       <c r="G193" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H193" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -38006,145 +38009,145 @@
         <v>85</v>
       </c>
       <c r="Q193">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S193">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T193">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="U193">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V193">
+        <v>5.5</v>
+      </c>
+      <c r="W193">
+        <v>1.4</v>
+      </c>
+      <c r="X193">
+        <v>2.75</v>
+      </c>
+      <c r="Y193">
+        <v>3</v>
+      </c>
+      <c r="Z193">
+        <v>1.36</v>
+      </c>
+      <c r="AA193">
+        <v>8</v>
+      </c>
+      <c r="AB193">
+        <v>1.08</v>
+      </c>
+      <c r="AC193">
+        <v>1.63</v>
+      </c>
+      <c r="AD193">
+        <v>3.75</v>
+      </c>
+      <c r="AE193">
+        <v>5.5</v>
+      </c>
+      <c r="AF193">
+        <v>1.03</v>
+      </c>
+      <c r="AG193">
+        <v>10.5</v>
+      </c>
+      <c r="AH193">
+        <v>1.3</v>
+      </c>
+      <c r="AI193">
+        <v>3.4</v>
+      </c>
+      <c r="AJ193">
+        <v>2</v>
+      </c>
+      <c r="AK193">
+        <v>1.8</v>
+      </c>
+      <c r="AL193">
+        <v>1.91</v>
+      </c>
+      <c r="AM193">
+        <v>1.8</v>
+      </c>
+      <c r="AN193">
+        <v>1.16</v>
+      </c>
+      <c r="AO193">
+        <v>1.29</v>
+      </c>
+      <c r="AP193">
+        <v>2.25</v>
+      </c>
+      <c r="AQ193">
+        <v>2.56</v>
+      </c>
+      <c r="AR193">
+        <v>0.67</v>
+      </c>
+      <c r="AS193">
+        <v>2.5</v>
+      </c>
+      <c r="AT193">
+        <v>0.7</v>
+      </c>
+      <c r="AU193">
+        <v>1.66</v>
+      </c>
+      <c r="AV193">
+        <v>1.17</v>
+      </c>
+      <c r="AW193">
+        <v>2.83</v>
+      </c>
+      <c r="AX193">
+        <v>1.44</v>
+      </c>
+      <c r="AY193">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ193">
+        <v>3.52</v>
+      </c>
+      <c r="BA193">
+        <v>1.67</v>
+      </c>
+      <c r="BB193">
+        <v>2.1</v>
+      </c>
+      <c r="BC193">
+        <v>2.7</v>
+      </c>
+      <c r="BD193">
         <v>4</v>
       </c>
-      <c r="W193">
-        <v>1.5</v>
-      </c>
-      <c r="X193">
-        <v>2.5</v>
-      </c>
-      <c r="Y193">
-        <v>3.4</v>
-      </c>
-      <c r="Z193">
-        <v>1.3</v>
-      </c>
-      <c r="AA193">
-        <v>10</v>
-      </c>
-      <c r="AB193">
-        <v>1.06</v>
-      </c>
-      <c r="AC193">
-        <v>2.2</v>
-      </c>
-      <c r="AD193">
-        <v>3.3</v>
-      </c>
-      <c r="AE193">
-        <v>3.3</v>
-      </c>
-      <c r="AF193">
-        <v>1.05</v>
-      </c>
-      <c r="AG193">
-        <v>7.5</v>
-      </c>
-      <c r="AH193">
-        <v>1.38</v>
-      </c>
-      <c r="AI193">
-        <v>2.8</v>
-      </c>
-      <c r="AJ193">
-        <v>2.25</v>
-      </c>
-      <c r="AK193">
-        <v>1.63</v>
-      </c>
-      <c r="AL193">
-        <v>1.83</v>
-      </c>
-      <c r="AM193">
-        <v>1.83</v>
-      </c>
-      <c r="AN193">
-        <v>1.31</v>
-      </c>
-      <c r="AO193">
-        <v>1.33</v>
-      </c>
-      <c r="AP193">
-        <v>1.69</v>
-      </c>
-      <c r="AQ193">
-        <v>1.56</v>
-      </c>
-      <c r="AR193">
-        <v>0.78</v>
-      </c>
-      <c r="AS193">
-        <v>1.5</v>
-      </c>
-      <c r="AT193">
-        <v>0.75</v>
-      </c>
-      <c r="AU193">
-        <v>1.74</v>
-      </c>
-      <c r="AV193">
-        <v>0.98</v>
-      </c>
-      <c r="AW193">
-        <v>2.72</v>
-      </c>
-      <c r="AX193">
-        <v>1.6</v>
-      </c>
-      <c r="AY193">
-        <v>8.9</v>
-      </c>
-      <c r="AZ193">
-        <v>2.88</v>
-      </c>
-      <c r="BA193">
-        <v>1.44</v>
-      </c>
-      <c r="BB193">
-        <v>1.73</v>
-      </c>
-      <c r="BC193">
-        <v>2.2</v>
-      </c>
-      <c r="BD193">
-        <v>2.98</v>
-      </c>
       <c r="BE193">
         <v>0</v>
       </c>
       <c r="BF193">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG193">
         <v>4</v>
       </c>
       <c r="BH193">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI193">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BJ193">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BK193">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:63">
@@ -38152,7 +38155,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>5240278</v>
+        <v>5240279</v>
       </c>
       <c r="C194" t="s">
         <v>63</v>
@@ -38167,64 +38170,64 @@
         <v>20</v>
       </c>
       <c r="G194" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H194" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O194" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="P194" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="Q194">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T194">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="U194">
         <v>2.05</v>
       </c>
       <c r="V194">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="W194">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X194">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y194">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z194">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA194">
         <v>10</v>
@@ -38233,31 +38236,31 @@
         <v>1.06</v>
       </c>
       <c r="AC194">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AD194">
         <v>3.3</v>
       </c>
       <c r="AE194">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AF194">
         <v>1.05</v>
       </c>
       <c r="AG194">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH194">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AI194">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AJ194">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AK194">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AL194">
         <v>1.83</v>
@@ -38266,76 +38269,76 @@
         <v>1.83</v>
       </c>
       <c r="AN194">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AO194">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP194">
+        <v>1.69</v>
+      </c>
+      <c r="AQ194">
+        <v>1.56</v>
+      </c>
+      <c r="AR194">
+        <v>0.78</v>
+      </c>
+      <c r="AS194">
         <v>1.5</v>
       </c>
-      <c r="AQ194">
-        <v>1.11</v>
-      </c>
-      <c r="AR194">
-        <v>1.22</v>
-      </c>
-      <c r="AS194">
-        <v>1.3</v>
-      </c>
       <c r="AT194">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU194">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="AV194">
-        <v>1.31</v>
+        <v>0.98</v>
       </c>
       <c r="AW194">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="AX194">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AY194">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="AZ194">
-        <v>2.19</v>
+        <v>2.88</v>
       </c>
       <c r="BA194">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="BB194">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="BC194">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BD194">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="BE194">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BF194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG194">
         <v>4</v>
       </c>
       <c r="BH194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI194">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BJ194">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BK194">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:63">
@@ -38343,7 +38346,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>5240277</v>
+        <v>5240278</v>
       </c>
       <c r="C195" t="s">
         <v>63</v>
@@ -38358,10 +38361,10 @@
         <v>20</v>
       </c>
       <c r="G195" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H195" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -38373,37 +38376,37 @@
         <v>2</v>
       </c>
       <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
         <v>3</v>
-      </c>
-      <c r="M195">
-        <v>1</v>
-      </c>
-      <c r="N195">
-        <v>4</v>
       </c>
       <c r="O195" t="s">
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R195">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S195">
         <v>10</v>
       </c>
       <c r="T195">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="U195">
         <v>2.05</v>
       </c>
       <c r="V195">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="W195">
         <v>1.44</v>
@@ -38418,37 +38421,37 @@
         <v>1.33</v>
       </c>
       <c r="AA195">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB195">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC195">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="AD195">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AE195">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AF195">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG195">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH195">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AI195">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="AJ195">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AK195">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AL195">
         <v>1.83</v>
@@ -38457,76 +38460,76 @@
         <v>1.83</v>
       </c>
       <c r="AN195">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="AO195">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AP195">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ195">
         <v>1.11</v>
       </c>
       <c r="AR195">
-        <v>0.78</v>
+        <v>1.22</v>
       </c>
       <c r="AS195">
         <v>1.3</v>
       </c>
       <c r="AT195">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="AU195">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AV195">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="AW195">
-        <v>3.1</v>
+        <v>2.83</v>
       </c>
       <c r="AX195">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="AY195">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ195">
-        <v>1.99</v>
+        <v>2.19</v>
       </c>
       <c r="BA195">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="BB195">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="BC195">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BD195">
+        <v>2.5</v>
+      </c>
+      <c r="BE195">
         <v>3.4</v>
-      </c>
-      <c r="BE195">
-        <v>4.7</v>
       </c>
       <c r="BF195">
         <v>9</v>
       </c>
       <c r="BG195">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BH195">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BI195">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BJ195">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BK195">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:63">
@@ -38534,7 +38537,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>5240273</v>
+        <v>5240281</v>
       </c>
       <c r="C196" t="s">
         <v>63</v>
@@ -38549,10 +38552,10 @@
         <v>20</v>
       </c>
       <c r="G196" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H196" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -38564,13 +38567,13 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M196">
         <v>0</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O196" t="s">
         <v>219</v>
@@ -38579,67 +38582,67 @@
         <v>85</v>
       </c>
       <c r="Q196">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="R196">
         <v>2</v>
       </c>
       <c r="S196">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T196">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="V196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W196">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X196">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Y196">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Z196">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA196">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB196">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC196">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AD196">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AE196">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF196">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AG196">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH196">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AI196">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="AJ196">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="AK196">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="AL196">
         <v>2.1</v>
@@ -38648,43 +38651,43 @@
         <v>1.67</v>
       </c>
       <c r="AN196">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="AO196">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ196">
-        <v>1.67</v>
+        <v>2.56</v>
       </c>
       <c r="AR196">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="AS196">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="AT196">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AU196">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="AV196">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW196">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="AX196">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AY196">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ196">
-        <v>4.34</v>
+        <v>3.68</v>
       </c>
       <c r="BA196">
         <v>1.48</v>
@@ -38699,25 +38702,25 @@
         <v>3</v>
       </c>
       <c r="BE196">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="BF196">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BG196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH196">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="BI196">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ196">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="BK196">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:63">
@@ -38725,7 +38728,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>5240275</v>
+        <v>5240276</v>
       </c>
       <c r="C197" t="s">
         <v>63</v>
@@ -38740,52 +38743,52 @@
         <v>20</v>
       </c>
       <c r="G197" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H197" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197">
         <v>1</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O197" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="P197" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="Q197">
         <v>9</v>
       </c>
       <c r="R197">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S197">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T197">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="U197">
         <v>2.1</v>
       </c>
       <c r="V197">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="W197">
         <v>1.44</v>
@@ -38794,10 +38797,10 @@
         <v>2.63</v>
       </c>
       <c r="Y197">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z197">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA197">
         <v>9</v>
@@ -38806,25 +38809,25 @@
         <v>1.07</v>
       </c>
       <c r="AC197">
+        <v>1.95</v>
+      </c>
+      <c r="AD197">
+        <v>3.6</v>
+      </c>
+      <c r="AE197">
         <v>3.75</v>
       </c>
-      <c r="AD197">
-        <v>3.5</v>
-      </c>
-      <c r="AE197">
-        <v>1.95</v>
-      </c>
       <c r="AF197">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG197">
-        <v>10.25</v>
+        <v>7</v>
       </c>
       <c r="AH197">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AI197">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="AJ197">
         <v>2.05</v>
@@ -38839,76 +38842,76 @@
         <v>1.83</v>
       </c>
       <c r="AN197">
-        <v>2.05</v>
+        <v>1.21</v>
       </c>
       <c r="AO197">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AP197">
-        <v>1.18</v>
+        <v>1.68</v>
       </c>
       <c r="AQ197">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AR197">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="AS197">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AT197">
-        <v>1.1</v>
+        <v>0.67</v>
       </c>
       <c r="AU197">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AV197">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="AW197">
-        <v>2.47</v>
+        <v>2.91</v>
       </c>
       <c r="AX197">
-        <v>3.14</v>
+        <v>1.63</v>
       </c>
       <c r="AY197">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="AZ197">
-        <v>1.51</v>
+        <v>2.72</v>
       </c>
       <c r="BA197">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="BB197">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BC197">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BD197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BE197">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="BF197">
         <v>5</v>
       </c>
       <c r="BG197">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH197">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI197">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BJ197">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BK197">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:63">
@@ -38916,7 +38919,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>5240274</v>
+        <v>5240275</v>
       </c>
       <c r="C198" t="s">
         <v>63</v>
@@ -38931,52 +38934,52 @@
         <v>20</v>
       </c>
       <c r="G198" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H198" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>1</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M198">
         <v>2</v>
       </c>
       <c r="N198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O198" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="P198" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q198">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R198">
+        <v>1</v>
+      </c>
+      <c r="S198">
         <v>10</v>
       </c>
-      <c r="S198">
-        <v>13</v>
-      </c>
       <c r="T198">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="U198">
         <v>2.1</v>
       </c>
       <c r="V198">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="W198">
         <v>1.44</v>
@@ -38997,31 +39000,31 @@
         <v>1.07</v>
       </c>
       <c r="AC198">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="AD198">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE198">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="AF198">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG198">
         <v>10.25</v>
       </c>
       <c r="AH198">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AI198">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AJ198">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK198">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AL198">
         <v>1.83</v>
@@ -39030,76 +39033,76 @@
         <v>1.83</v>
       </c>
       <c r="AN198">
-        <v>1.35</v>
+        <v>2.05</v>
       </c>
       <c r="AO198">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AP198">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="AQ198">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="AR198">
-        <v>1.67</v>
+        <v>0.89</v>
       </c>
       <c r="AS198">
+        <v>1.2</v>
+      </c>
+      <c r="AT198">
+        <v>1.1</v>
+      </c>
+      <c r="AU198">
+        <v>1.36</v>
+      </c>
+      <c r="AV198">
+        <v>1.11</v>
+      </c>
+      <c r="AW198">
+        <v>2.47</v>
+      </c>
+      <c r="AX198">
+        <v>3.14</v>
+      </c>
+      <c r="AY198">
+        <v>9.6</v>
+      </c>
+      <c r="AZ198">
+        <v>1.51</v>
+      </c>
+      <c r="BA198">
+        <v>1.23</v>
+      </c>
+      <c r="BB198">
+        <v>1.5</v>
+      </c>
+      <c r="BC198">
         <v>1.8</v>
       </c>
-      <c r="AT198">
-        <v>1.67</v>
-      </c>
-      <c r="AU198">
-        <v>1.9</v>
-      </c>
-      <c r="AV198">
-        <v>1.47</v>
-      </c>
-      <c r="AW198">
-        <v>3.37</v>
-      </c>
-      <c r="AX198">
-        <v>1.94</v>
-      </c>
-      <c r="AY198">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ198">
-        <v>2.16</v>
-      </c>
-      <c r="BA198">
-        <v>1.3</v>
-      </c>
-      <c r="BB198">
-        <v>1.62</v>
-      </c>
-      <c r="BC198">
-        <v>2</v>
-      </c>
       <c r="BD198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BE198">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="BF198">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG198">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH198">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BI198">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BJ198">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BK198">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:63">
@@ -39107,7 +39110,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>5240281</v>
+        <v>5240274</v>
       </c>
       <c r="C199" t="s">
         <v>63</v>
@@ -39122,52 +39125,52 @@
         <v>20</v>
       </c>
       <c r="G199" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H199" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O199" t="s">
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="Q199">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S199">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="U199">
         <v>2.1</v>
       </c>
       <c r="V199">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W199">
         <v>1.44</v>
@@ -39188,109 +39191,109 @@
         <v>1.07</v>
       </c>
       <c r="AC199">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="AD199">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AE199">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="AF199">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AG199">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH199">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AI199">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AJ199">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK199">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AL199">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AM199">
+        <v>1.83</v>
+      </c>
+      <c r="AN199">
+        <v>1.35</v>
+      </c>
+      <c r="AO199">
+        <v>1.22</v>
+      </c>
+      <c r="AP199">
+        <v>1.62</v>
+      </c>
+      <c r="AQ199">
+        <v>1.89</v>
+      </c>
+      <c r="AR199">
         <v>1.67</v>
       </c>
-      <c r="AN199">
-        <v>1.15</v>
-      </c>
-      <c r="AO199">
-        <v>1.25</v>
-      </c>
-      <c r="AP199">
-        <v>2.25</v>
-      </c>
-      <c r="AQ199">
-        <v>2.56</v>
-      </c>
-      <c r="AR199">
-        <v>0.33</v>
-      </c>
       <c r="AS199">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT199">
-        <v>0.3</v>
+        <v>1.62</v>
       </c>
       <c r="AU199">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="AV199">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AW199">
-        <v>2.69</v>
+        <v>3.37</v>
       </c>
       <c r="AX199">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AY199">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ199">
-        <v>3.68</v>
+        <v>2.16</v>
       </c>
       <c r="BA199">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="BB199">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="BC199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BD199">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BE199">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="BF199">
+        <v>8</v>
+      </c>
+      <c r="BG199">
         <v>6</v>
-      </c>
-      <c r="BG199">
-        <v>2</v>
       </c>
       <c r="BH199">
         <v>12</v>
       </c>
       <c r="BI199">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ199">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BK199">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:63">
@@ -39298,7 +39301,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>5240276</v>
+        <v>5240273</v>
       </c>
       <c r="C200" t="s">
         <v>63</v>
@@ -39313,175 +39316,175 @@
         <v>20</v>
       </c>
       <c r="G200" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H200" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="K200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O200" t="s">
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="Q200">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
+        <v>20</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
+        <v>2.3</v>
+      </c>
+      <c r="V200">
         <v>7</v>
       </c>
-      <c r="S200">
-        <v>16</v>
-      </c>
-      <c r="T200">
-        <v>2.6</v>
-      </c>
-      <c r="U200">
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>3</v>
+      </c>
+      <c r="Y200">
+        <v>2.75</v>
+      </c>
+      <c r="Z200">
+        <v>1.4</v>
+      </c>
+      <c r="AA200">
+        <v>7</v>
+      </c>
+      <c r="AB200">
+        <v>1.1</v>
+      </c>
+      <c r="AC200">
+        <v>1.44</v>
+      </c>
+      <c r="AD200">
+        <v>4.33</v>
+      </c>
+      <c r="AE200">
+        <v>7.5</v>
+      </c>
+      <c r="AF200">
+        <v>1.05</v>
+      </c>
+      <c r="AG200">
+        <v>10.75</v>
+      </c>
+      <c r="AH200">
+        <v>1.26</v>
+      </c>
+      <c r="AI200">
+        <v>3.65</v>
+      </c>
+      <c r="AJ200">
+        <v>1.87</v>
+      </c>
+      <c r="AK200">
+        <v>1.9</v>
+      </c>
+      <c r="AL200">
         <v>2.1</v>
       </c>
-      <c r="V200">
-        <v>4.5</v>
-      </c>
-      <c r="W200">
-        <v>1.44</v>
-      </c>
-      <c r="X200">
-        <v>2.63</v>
-      </c>
-      <c r="Y200">
+      <c r="AM200">
+        <v>1.67</v>
+      </c>
+      <c r="AN200">
+        <v>1.04</v>
+      </c>
+      <c r="AO200">
+        <v>1.07</v>
+      </c>
+      <c r="AP200">
+        <v>3.2</v>
+      </c>
+      <c r="AQ200">
+        <v>1.67</v>
+      </c>
+      <c r="AR200">
+        <v>0.44</v>
+      </c>
+      <c r="AS200">
+        <v>1.54</v>
+      </c>
+      <c r="AT200">
+        <v>0.4</v>
+      </c>
+      <c r="AU200">
+        <v>1.68</v>
+      </c>
+      <c r="AV200">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW200">
+        <v>2.62</v>
+      </c>
+      <c r="AX200">
+        <v>1.33</v>
+      </c>
+      <c r="AY200">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ200">
+        <v>4.34</v>
+      </c>
+      <c r="BA200">
+        <v>1.48</v>
+      </c>
+      <c r="BB200">
+        <v>1.75</v>
+      </c>
+      <c r="BC200">
+        <v>2.25</v>
+      </c>
+      <c r="BD200">
         <v>3</v>
       </c>
-      <c r="Z200">
-        <v>1.36</v>
-      </c>
-      <c r="AA200">
-        <v>9</v>
-      </c>
-      <c r="AB200">
-        <v>1.07</v>
-      </c>
-      <c r="AC200">
-        <v>1.95</v>
-      </c>
-      <c r="AD200">
-        <v>3.6</v>
-      </c>
-      <c r="AE200">
-        <v>3.75</v>
-      </c>
-      <c r="AF200">
-        <v>1.06</v>
-      </c>
-      <c r="AG200">
-        <v>7</v>
-      </c>
-      <c r="AH200">
-        <v>1.37</v>
-      </c>
-      <c r="AI200">
-        <v>2.8</v>
-      </c>
-      <c r="AJ200">
-        <v>2.05</v>
-      </c>
-      <c r="AK200">
-        <v>1.75</v>
-      </c>
-      <c r="AL200">
-        <v>1.83</v>
-      </c>
-      <c r="AM200">
-        <v>1.83</v>
-      </c>
-      <c r="AN200">
-        <v>1.21</v>
-      </c>
-      <c r="AO200">
-        <v>1.33</v>
-      </c>
-      <c r="AP200">
-        <v>1.68</v>
-      </c>
-      <c r="AQ200">
-        <v>1.44</v>
-      </c>
-      <c r="AR200">
-        <v>0.67</v>
-      </c>
-      <c r="AS200">
-        <v>1.6</v>
-      </c>
-      <c r="AT200">
-        <v>0.67</v>
-      </c>
-      <c r="AU200">
-        <v>1.6</v>
-      </c>
-      <c r="AV200">
-        <v>1.31</v>
-      </c>
-      <c r="AW200">
-        <v>2.91</v>
-      </c>
-      <c r="AX200">
-        <v>1.63</v>
-      </c>
-      <c r="AY200">
-        <v>8.9</v>
-      </c>
-      <c r="AZ200">
-        <v>2.72</v>
-      </c>
-      <c r="BA200">
-        <v>1.25</v>
-      </c>
-      <c r="BB200">
-        <v>1.6</v>
-      </c>
-      <c r="BC200">
-        <v>1.95</v>
-      </c>
-      <c r="BD200">
-        <v>2.5</v>
-      </c>
       <c r="BE200">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="BF200">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BG200">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH200">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BI200">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BJ200">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="BK200">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:63">
@@ -39489,7 +39492,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>5240282</v>
+        <v>5240277</v>
       </c>
       <c r="C201" t="s">
         <v>63</v>
@@ -39504,151 +39507,151 @@
         <v>20</v>
       </c>
       <c r="G201" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H201" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201">
         <v>1</v>
       </c>
       <c r="K201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M201">
         <v>1</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O201" t="s">
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="Q201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R201">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S201">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T201">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="U201">
         <v>2.05</v>
       </c>
       <c r="V201">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="W201">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X201">
+        <v>2.63</v>
+      </c>
+      <c r="Y201">
+        <v>3.25</v>
+      </c>
+      <c r="Z201">
+        <v>1.33</v>
+      </c>
+      <c r="AA201">
+        <v>9</v>
+      </c>
+      <c r="AB201">
+        <v>1.07</v>
+      </c>
+      <c r="AC201">
+        <v>2.85</v>
+      </c>
+      <c r="AD201">
+        <v>3.25</v>
+      </c>
+      <c r="AE201">
         <v>2.5</v>
       </c>
-      <c r="Y201">
-        <v>3.4</v>
-      </c>
-      <c r="Z201">
-        <v>1.3</v>
-      </c>
-      <c r="AA201">
-        <v>10</v>
-      </c>
-      <c r="AB201">
+      <c r="AF201">
         <v>1.06</v>
       </c>
-      <c r="AC201">
-        <v>1.68</v>
-      </c>
-      <c r="AD201">
-        <v>3.6</v>
-      </c>
-      <c r="AE201">
-        <v>5.5</v>
-      </c>
-      <c r="AF201">
-        <v>1.05</v>
-      </c>
       <c r="AG201">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AH201">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AI201">
-        <v>3.25</v>
+        <v>3.03</v>
       </c>
       <c r="AJ201">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AK201">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AL201">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AM201">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AN201">
+        <v>1.57</v>
+      </c>
+      <c r="AO201">
+        <v>1.37</v>
+      </c>
+      <c r="AP201">
+        <v>1.4</v>
+      </c>
+      <c r="AQ201">
         <v>1.11</v>
-      </c>
-      <c r="AO201">
-        <v>1.2</v>
-      </c>
-      <c r="AP201">
-        <v>2.65</v>
-      </c>
-      <c r="AQ201">
-        <v>1.67</v>
       </c>
       <c r="AR201">
         <v>0.78</v>
       </c>
       <c r="AS201">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
       <c r="AT201">
         <v>0.7</v>
       </c>
       <c r="AU201">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AV201">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AW201">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AX201">
-        <v>1.35</v>
+        <v>2.12</v>
       </c>
       <c r="AY201">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AZ201">
-        <v>4.05</v>
+        <v>1.99</v>
       </c>
       <c r="BA201">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BB201">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BC201">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="BD201">
         <v>3.4</v>
@@ -39657,22 +39660,22 @@
         <v>4.7</v>
       </c>
       <c r="BF201">
+        <v>9</v>
+      </c>
+      <c r="BG201">
+        <v>10</v>
+      </c>
+      <c r="BH201">
+        <v>12</v>
+      </c>
+      <c r="BI201">
         <v>8</v>
-      </c>
-      <c r="BG201">
-        <v>6</v>
-      </c>
-      <c r="BH201">
-        <v>13</v>
-      </c>
-      <c r="BI201">
-        <v>7</v>
       </c>
       <c r="BJ201">
         <v>21</v>
       </c>
       <c r="BK201">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:63">
@@ -39812,7 +39815,7 @@
         <v>1.77</v>
       </c>
       <c r="AT202">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU202">
         <v>1.56</v>
@@ -40000,7 +40003,7 @@
         <v>1.4</v>
       </c>
       <c r="AS203">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT203">
         <v>1.38</v>
@@ -40194,7 +40197,7 @@
         <v>2.23</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU204">
         <v>1.56</v>
@@ -40382,7 +40385,7 @@
         <v>1.3</v>
       </c>
       <c r="AS205">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT205">
         <v>1</v>
@@ -42101,7 +42104,7 @@
         <v>0.73</v>
       </c>
       <c r="AS214">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT214">
         <v>0.75</v>
@@ -42295,7 +42298,7 @@
         <v>2.5</v>
       </c>
       <c r="AT215">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU215">
         <v>1.64</v>
@@ -42486,7 +42489,7 @@
         <v>2.25</v>
       </c>
       <c r="AT216">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU216">
         <v>1.72</v>
@@ -42674,7 +42677,7 @@
         <v>1.09</v>
       </c>
       <c r="AS217">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT217">
         <v>1</v>
@@ -43111,6 +43114,388 @@
       </c>
       <c r="BK219">
         <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>6166994</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45089.79166666666</v>
+      </c>
+      <c r="F220">
+        <v>25</v>
+      </c>
+      <c r="G220" t="s">
+        <v>78</v>
+      </c>
+      <c r="H220" t="s">
+        <v>77</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
+        <v>85</v>
+      </c>
+      <c r="P220" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q220">
+        <v>10</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>12</v>
+      </c>
+      <c r="T220">
+        <v>2.64</v>
+      </c>
+      <c r="U220">
+        <v>2.16</v>
+      </c>
+      <c r="V220">
+        <v>3.98</v>
+      </c>
+      <c r="W220">
+        <v>1.38</v>
+      </c>
+      <c r="X220">
+        <v>2.91</v>
+      </c>
+      <c r="Y220">
+        <v>2.78</v>
+      </c>
+      <c r="Z220">
+        <v>1.41</v>
+      </c>
+      <c r="AA220">
+        <v>6.95</v>
+      </c>
+      <c r="AB220">
+        <v>1.08</v>
+      </c>
+      <c r="AC220">
+        <v>2.11</v>
+      </c>
+      <c r="AD220">
+        <v>3.35</v>
+      </c>
+      <c r="AE220">
+        <v>3.25</v>
+      </c>
+      <c r="AF220">
+        <v>1.02</v>
+      </c>
+      <c r="AG220">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH220">
+        <v>1.26</v>
+      </c>
+      <c r="AI220">
+        <v>3.4</v>
+      </c>
+      <c r="AJ220">
+        <v>1.88</v>
+      </c>
+      <c r="AK220">
+        <v>1.89</v>
+      </c>
+      <c r="AL220">
+        <v>1.74</v>
+      </c>
+      <c r="AM220">
+        <v>2.02</v>
+      </c>
+      <c r="AN220">
+        <v>1.32</v>
+      </c>
+      <c r="AO220">
+        <v>1.3</v>
+      </c>
+      <c r="AP220">
+        <v>1.73</v>
+      </c>
+      <c r="AQ220">
+        <v>1.67</v>
+      </c>
+      <c r="AR220">
+        <v>1</v>
+      </c>
+      <c r="AS220">
+        <v>1.54</v>
+      </c>
+      <c r="AT220">
+        <v>1.15</v>
+      </c>
+      <c r="AU220">
+        <v>1.78</v>
+      </c>
+      <c r="AV220">
+        <v>1.26</v>
+      </c>
+      <c r="AW220">
+        <v>3.04</v>
+      </c>
+      <c r="AX220">
+        <v>1.82</v>
+      </c>
+      <c r="AY220">
+        <v>8</v>
+      </c>
+      <c r="AZ220">
+        <v>2.39</v>
+      </c>
+      <c r="BA220">
+        <v>1.3</v>
+      </c>
+      <c r="BB220">
+        <v>1.6</v>
+      </c>
+      <c r="BC220">
+        <v>2.04</v>
+      </c>
+      <c r="BD220">
+        <v>2.49</v>
+      </c>
+      <c r="BE220">
+        <v>3.48</v>
+      </c>
+      <c r="BF220">
+        <v>3</v>
+      </c>
+      <c r="BG220">
+        <v>3</v>
+      </c>
+      <c r="BH220">
+        <v>4</v>
+      </c>
+      <c r="BI220">
+        <v>4</v>
+      </c>
+      <c r="BJ220">
+        <v>7</v>
+      </c>
+      <c r="BK220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>6166992</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45089.89583333334</v>
+      </c>
+      <c r="F221">
+        <v>25</v>
+      </c>
+      <c r="G221" t="s">
+        <v>81</v>
+      </c>
+      <c r="H221" t="s">
+        <v>70</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221" t="s">
+        <v>85</v>
+      </c>
+      <c r="P221" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q221">
+        <v>6</v>
+      </c>
+      <c r="R221">
+        <v>6</v>
+      </c>
+      <c r="S221">
+        <v>12</v>
+      </c>
+      <c r="T221">
+        <v>3.25</v>
+      </c>
+      <c r="U221">
+        <v>2.2</v>
+      </c>
+      <c r="V221">
+        <v>3.2</v>
+      </c>
+      <c r="W221">
+        <v>1.4</v>
+      </c>
+      <c r="X221">
+        <v>2.75</v>
+      </c>
+      <c r="Y221">
+        <v>2.75</v>
+      </c>
+      <c r="Z221">
+        <v>1.4</v>
+      </c>
+      <c r="AA221">
+        <v>8</v>
+      </c>
+      <c r="AB221">
+        <v>1.08</v>
+      </c>
+      <c r="AC221">
+        <v>2.65</v>
+      </c>
+      <c r="AD221">
+        <v>3.3</v>
+      </c>
+      <c r="AE221">
+        <v>2.5</v>
+      </c>
+      <c r="AF221">
+        <v>1.04</v>
+      </c>
+      <c r="AG221">
+        <v>12</v>
+      </c>
+      <c r="AH221">
+        <v>1.3</v>
+      </c>
+      <c r="AI221">
+        <v>3.5</v>
+      </c>
+      <c r="AJ221">
+        <v>1.85</v>
+      </c>
+      <c r="AK221">
+        <v>1.92</v>
+      </c>
+      <c r="AL221">
+        <v>1.73</v>
+      </c>
+      <c r="AM221">
+        <v>2</v>
+      </c>
+      <c r="AN221">
+        <v>1.52</v>
+      </c>
+      <c r="AO221">
+        <v>1.25</v>
+      </c>
+      <c r="AP221">
+        <v>1.5</v>
+      </c>
+      <c r="AQ221">
+        <v>2.5</v>
+      </c>
+      <c r="AR221">
+        <v>1.67</v>
+      </c>
+      <c r="AS221">
+        <v>2.38</v>
+      </c>
+      <c r="AT221">
+        <v>1.62</v>
+      </c>
+      <c r="AU221">
+        <v>1.73</v>
+      </c>
+      <c r="AV221">
+        <v>1.46</v>
+      </c>
+      <c r="AW221">
+        <v>3.19</v>
+      </c>
+      <c r="AX221">
+        <v>2.05</v>
+      </c>
+      <c r="AY221">
+        <v>8</v>
+      </c>
+      <c r="AZ221">
+        <v>2</v>
+      </c>
+      <c r="BA221">
+        <v>1.21</v>
+      </c>
+      <c r="BB221">
+        <v>1.47</v>
+      </c>
+      <c r="BC221">
+        <v>1.93</v>
+      </c>
+      <c r="BD221">
+        <v>2.19</v>
+      </c>
+      <c r="BE221">
+        <v>2.88</v>
+      </c>
+      <c r="BF221">
+        <v>5</v>
+      </c>
+      <c r="BG221">
+        <v>2</v>
+      </c>
+      <c r="BH221">
+        <v>3</v>
+      </c>
+      <c r="BI221">
+        <v>10</v>
+      </c>
+      <c r="BJ221">
+        <v>8</v>
+      </c>
+      <c r="BK221">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,16 +667,13 @@
     <t>['12', '37', '45+4', '47', '65']</t>
   </si>
   <si>
-    <t>['70', '83']</t>
-  </si>
-  <si>
     <t>['19', '54']</t>
   </si>
   <si>
-    <t>['52', '90', '90+2']</t>
+    <t>['6', '52', '83']</t>
   </si>
   <si>
-    <t>['39', '86']</t>
+    <t>['52', '90', '90+2']</t>
   </si>
   <si>
     <t>['29', '35']</t>
@@ -685,7 +682,10 @@
     <t>['53', '68', '83', '90+3']</t>
   </si>
   <si>
-    <t>['6', '52', '83']</t>
+    <t>['39', '86']</t>
+  </si>
+  <si>
+    <t>['70', '83']</t>
   </si>
   <si>
     <t>['53', '69']</t>
@@ -710,6 +710,18 @@
   </si>
   <si>
     <t>['64', '67']</t>
+  </si>
+  <si>
+    <t>['43', '68', '72']</t>
+  </si>
+  <si>
+    <t>['50', '63']</t>
+  </si>
+  <si>
+    <t>['20', '79', '90+2']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -823,9 +835,6 @@
     <t>['44']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['21', '56', '90+4']</t>
   </si>
   <si>
@@ -920,6 +929,12 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['37', '64']</t>
+  </si>
+  <si>
+    <t>['26', '66']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1994,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT4">
         <v>1.1</v>
@@ -2188,7 +2203,7 @@
         <v>2.23</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2289,7 +2304,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2567,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>0.7</v>
@@ -2671,7 +2686,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3053,7 +3068,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3331,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3435,7 +3450,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3716,7 +3731,7 @@
         <v>1.7</v>
       </c>
       <c r="AT13">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3817,7 +3832,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4286,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT16">
         <v>0.4</v>
@@ -4390,7 +4405,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4772,7 +4787,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4963,7 +4978,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5727,7 +5742,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5814,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT24">
         <v>0.6</v>
@@ -6300,7 +6315,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6581,7 +6596,7 @@
         <v>1.3</v>
       </c>
       <c r="AT28">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU28">
         <v>1.46</v>
@@ -6682,7 +6697,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6873,7 +6888,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6960,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT30">
         <v>0.7</v>
@@ -7255,7 +7270,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7342,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT32">
         <v>0.8</v>
@@ -7446,7 +7461,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7536,7 +7551,7 @@
         <v>1.9</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7727,7 +7742,7 @@
         <v>1.9</v>
       </c>
       <c r="AT34">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8109,7 +8124,7 @@
         <v>1.3</v>
       </c>
       <c r="AT36">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU36">
         <v>1.59</v>
@@ -8210,7 +8225,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8488,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT38">
         <v>0.3</v>
@@ -8783,7 +8798,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8974,7 +8989,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9165,7 +9180,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9356,7 +9371,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9634,7 +9649,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT44">
         <v>0.7</v>
@@ -10207,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT47">
         <v>0.7</v>
@@ -10693,7 +10708,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10974,7 +10989,7 @@
         <v>2.38</v>
       </c>
       <c r="AT51">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU51">
         <v>2.46</v>
@@ -11162,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT52">
         <v>0.6</v>
@@ -11356,7 +11371,7 @@
         <v>2.23</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU53">
         <v>1.73</v>
@@ -11457,7 +11472,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11839,7 +11854,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11929,7 +11944,7 @@
         <v>1.9</v>
       </c>
       <c r="AT56">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU56">
         <v>1.2</v>
@@ -12030,7 +12045,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12690,7 +12705,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT60">
         <v>0.8</v>
@@ -12985,7 +13000,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13176,7 +13191,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13266,7 +13281,7 @@
         <v>1.2</v>
       </c>
       <c r="AT63">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU63">
         <v>1.93</v>
@@ -13457,7 +13472,7 @@
         <v>2.38</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU64">
         <v>1.95</v>
@@ -13558,7 +13573,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13749,7 +13764,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14027,7 +14042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>1.38</v>
@@ -14221,7 +14236,7 @@
         <v>2.23</v>
       </c>
       <c r="AT68">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU68">
         <v>1.75</v>
@@ -14409,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT69">
         <v>0.9</v>
@@ -14895,7 +14910,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14985,7 +15000,7 @@
         <v>1.3</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -15468,7 +15483,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15749,7 +15764,7 @@
         <v>1.3</v>
       </c>
       <c r="AT76">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU76">
         <v>1.7</v>
@@ -16041,7 +16056,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16232,7 +16247,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16510,10 +16525,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU80">
         <v>1.8</v>
@@ -16614,7 +16629,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16701,7 +16716,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -17656,10 +17671,10 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU86">
         <v>1.6</v>
@@ -17760,7 +17775,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17850,7 +17865,7 @@
         <v>1.9</v>
       </c>
       <c r="AT87">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU87">
         <v>1.81</v>
@@ -18038,7 +18053,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT88">
         <v>1.1</v>
@@ -18229,7 +18244,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT89">
         <v>0.7</v>
@@ -18715,7 +18730,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18802,10 +18817,10 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT92">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU92">
         <v>1.45</v>
@@ -18906,7 +18921,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19097,7 +19112,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19479,7 +19494,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19760,7 +19775,7 @@
         <v>1.6</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU97">
         <v>1.69</v>
@@ -19861,7 +19876,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20052,7 +20067,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20524,7 +20539,7 @@
         <v>1.9</v>
       </c>
       <c r="AT101">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU101">
         <v>1.91</v>
@@ -21198,7 +21213,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21476,7 +21491,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT106">
         <v>0.3</v>
@@ -21580,7 +21595,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22052,7 +22067,7 @@
         <v>1.7</v>
       </c>
       <c r="AT109">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -22153,7 +22168,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22240,7 +22255,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT110">
         <v>0.6</v>
@@ -23004,10 +23019,10 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT114">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -23299,7 +23314,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23577,7 +23592,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT117">
         <v>1.1</v>
@@ -23681,7 +23696,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23771,7 +23786,7 @@
         <v>1.8</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU118">
         <v>1.96</v>
@@ -24063,7 +24078,7 @@
         <v>123</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24254,7 +24269,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24341,7 +24356,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT121">
         <v>1</v>
@@ -24445,7 +24460,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24827,7 +24842,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25299,7 +25314,7 @@
         <v>1.7</v>
       </c>
       <c r="AT126">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU126">
         <v>1.83</v>
@@ -25782,7 +25797,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25973,7 +25988,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26063,7 +26078,7 @@
         <v>1.3</v>
       </c>
       <c r="AT130">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU130">
         <v>1.51</v>
@@ -26164,7 +26179,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26442,10 +26457,10 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT132">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU132">
         <v>1.74</v>
@@ -26546,7 +26561,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26636,7 +26651,7 @@
         <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>1.4</v>
@@ -26737,7 +26752,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26827,7 +26842,7 @@
         <v>1.3</v>
       </c>
       <c r="AT134">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU134">
         <v>1.59</v>
@@ -26928,7 +26943,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27692,7 +27707,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -28925,7 +28940,7 @@
         <v>1.14</v>
       </c>
       <c r="AS145">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT145">
         <v>0.9</v>
@@ -29029,7 +29044,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29119,7 +29134,7 @@
         <v>1.3</v>
       </c>
       <c r="AT146">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU146">
         <v>1.48</v>
@@ -29411,7 +29426,7 @@
         <v>186</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29501,7 +29516,7 @@
         <v>1.2</v>
       </c>
       <c r="AT148">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU148">
         <v>1.39</v>
@@ -29602,7 +29617,7 @@
         <v>187</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29692,7 +29707,7 @@
         <v>1.3</v>
       </c>
       <c r="AT149">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU149">
         <v>1.59</v>
@@ -29984,7 +29999,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30071,7 +30086,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT151">
         <v>0.7</v>
@@ -30262,7 +30277,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT152">
         <v>0.4</v>
@@ -30557,7 +30572,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30748,7 +30763,7 @@
         <v>191</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30835,7 +30850,7 @@
         <v>1.33</v>
       </c>
       <c r="AS155">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT155">
         <v>1.15</v>
@@ -31220,7 +31235,7 @@
         <v>1.5</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU157">
         <v>1.43</v>
@@ -31321,7 +31336,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31512,7 +31527,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -32085,7 +32100,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32172,7 +32187,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT162">
         <v>0.8</v>
@@ -32849,7 +32864,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -32936,7 +32951,7 @@
         <v>0.86</v>
       </c>
       <c r="AS166">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT166">
         <v>0.7</v>
@@ -33127,7 +33142,7 @@
         <v>1.14</v>
       </c>
       <c r="AS167">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT167">
         <v>1.15</v>
@@ -33231,7 +33246,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33318,7 +33333,7 @@
         <v>0.63</v>
       </c>
       <c r="AS168">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT168">
         <v>0.7</v>
@@ -33613,7 +33628,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33703,7 +33718,7 @@
         <v>1.8</v>
       </c>
       <c r="AT170">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU170">
         <v>1.89</v>
@@ -33995,7 +34010,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34085,7 +34100,7 @@
         <v>1.6</v>
       </c>
       <c r="AT172">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU172">
         <v>1.55</v>
@@ -34186,7 +34201,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34273,10 +34288,10 @@
         <v>0.86</v>
       </c>
       <c r="AS173">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT173">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU173">
         <v>1.42</v>
@@ -34464,7 +34479,7 @@
         <v>0.88</v>
       </c>
       <c r="AS174">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT174">
         <v>0.7</v>
@@ -34950,7 +34965,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35231,7 +35246,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU178">
         <v>1.49</v>
@@ -35419,10 +35434,10 @@
         <v>0.75</v>
       </c>
       <c r="AS179">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT179">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU179">
         <v>1.59</v>
@@ -35523,7 +35538,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q180">
         <v>6</v>
@@ -35714,7 +35729,7 @@
         <v>85</v>
       </c>
       <c r="P181" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35905,7 +35920,7 @@
         <v>128</v>
       </c>
       <c r="P182" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -37141,7 +37156,7 @@
         <v>1.54</v>
       </c>
       <c r="AT188">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU188">
         <v>1.59</v>
@@ -37329,7 +37344,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT189">
         <v>0.7</v>
@@ -37773,7 +37788,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>5240282</v>
+        <v>5240278</v>
       </c>
       <c r="C192" t="s">
         <v>63</v>
@@ -37788,19 +37803,19 @@
         <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H192" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
         <v>1</v>
       </c>
       <c r="K192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L192">
         <v>2</v>
@@ -37815,37 +37830,37 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>262</v>
+        <v>128</v>
       </c>
       <c r="Q192">
         <v>5</v>
       </c>
       <c r="R192">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S192">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T192">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="U192">
         <v>2.05</v>
       </c>
       <c r="V192">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="W192">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X192">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y192">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z192">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA192">
         <v>10</v>
@@ -37854,109 +37869,109 @@
         <v>1.06</v>
       </c>
       <c r="AC192">
-        <v>1.68</v>
+        <v>2.35</v>
       </c>
       <c r="AD192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AE192">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="AF192">
         <v>1.05</v>
       </c>
       <c r="AG192">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH192">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AI192">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AJ192">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AK192">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AL192">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AM192">
+        <v>1.83</v>
+      </c>
+      <c r="AN192">
+        <v>1.37</v>
+      </c>
+      <c r="AO192">
+        <v>1.25</v>
+      </c>
+      <c r="AP192">
+        <v>1.5</v>
+      </c>
+      <c r="AQ192">
+        <v>1.11</v>
+      </c>
+      <c r="AR192">
+        <v>1.22</v>
+      </c>
+      <c r="AS192">
+        <v>1.3</v>
+      </c>
+      <c r="AT192">
+        <v>1.15</v>
+      </c>
+      <c r="AU192">
+        <v>1.52</v>
+      </c>
+      <c r="AV192">
+        <v>1.31</v>
+      </c>
+      <c r="AW192">
+        <v>2.83</v>
+      </c>
+      <c r="AX192">
+        <v>1.92</v>
+      </c>
+      <c r="AY192">
+        <v>8.6</v>
+      </c>
+      <c r="AZ192">
+        <v>2.19</v>
+      </c>
+      <c r="BA192">
+        <v>1.25</v>
+      </c>
+      <c r="BB192">
         <v>1.62</v>
       </c>
-      <c r="AN192">
-        <v>1.11</v>
-      </c>
-      <c r="AO192">
-        <v>1.2</v>
-      </c>
-      <c r="AP192">
-        <v>2.65</v>
-      </c>
-      <c r="AQ192">
-        <v>1.67</v>
-      </c>
-      <c r="AR192">
-        <v>0.78</v>
-      </c>
-      <c r="AS192">
-        <v>1.77</v>
-      </c>
-      <c r="AT192">
-        <v>0.7</v>
-      </c>
-      <c r="AU192">
-        <v>1.5</v>
-      </c>
-      <c r="AV192">
-        <v>1.45</v>
-      </c>
-      <c r="AW192">
-        <v>2.95</v>
-      </c>
-      <c r="AX192">
-        <v>1.35</v>
-      </c>
-      <c r="AY192">
-        <v>9.4</v>
-      </c>
-      <c r="AZ192">
-        <v>4.05</v>
-      </c>
-      <c r="BA192">
-        <v>1.5</v>
-      </c>
-      <c r="BB192">
-        <v>1.85</v>
-      </c>
       <c r="BC192">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="BD192">
+        <v>2.5</v>
+      </c>
+      <c r="BE192">
         <v>3.4</v>
       </c>
-      <c r="BE192">
-        <v>4.7</v>
-      </c>
       <c r="BF192">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG192">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH192">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BI192">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BJ192">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BK192">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:63">
@@ -38093,7 +38108,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT193">
         <v>0.7</v>
@@ -38287,7 +38302,7 @@
         <v>1.5</v>
       </c>
       <c r="AT194">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU194">
         <v>1.74</v>
@@ -38346,7 +38361,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>5240278</v>
+        <v>5240277</v>
       </c>
       <c r="C195" t="s">
         <v>63</v>
@@ -38361,10 +38376,10 @@
         <v>20</v>
       </c>
       <c r="G195" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H195" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -38376,37 +38391,37 @@
         <v>2</v>
       </c>
       <c r="L195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M195">
         <v>1</v>
       </c>
       <c r="N195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O195" t="s">
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S195">
         <v>10</v>
       </c>
       <c r="T195">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U195">
         <v>2.05</v>
       </c>
       <c r="V195">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="W195">
         <v>1.44</v>
@@ -38421,37 +38436,37 @@
         <v>1.33</v>
       </c>
       <c r="AA195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB195">
+        <v>1.07</v>
+      </c>
+      <c r="AC195">
+        <v>2.85</v>
+      </c>
+      <c r="AD195">
+        <v>3.25</v>
+      </c>
+      <c r="AE195">
+        <v>2.5</v>
+      </c>
+      <c r="AF195">
         <v>1.06</v>
       </c>
-      <c r="AC195">
-        <v>2.35</v>
-      </c>
-      <c r="AD195">
-        <v>3.3</v>
-      </c>
-      <c r="AE195">
-        <v>3</v>
-      </c>
-      <c r="AF195">
-        <v>1.05</v>
-      </c>
       <c r="AG195">
-        <v>10.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH195">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AI195">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="AJ195">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK195">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AL195">
         <v>1.83</v>
@@ -38460,76 +38475,76 @@
         <v>1.83</v>
       </c>
       <c r="AN195">
+        <v>1.57</v>
+      </c>
+      <c r="AO195">
         <v>1.37</v>
       </c>
-      <c r="AO195">
-        <v>1.25</v>
-      </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ195">
         <v>1.11</v>
       </c>
       <c r="AR195">
-        <v>1.22</v>
+        <v>0.78</v>
       </c>
       <c r="AS195">
         <v>1.3</v>
       </c>
       <c r="AT195">
-        <v>1.15</v>
+        <v>0.7</v>
       </c>
       <c r="AU195">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AV195">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="AW195">
-        <v>2.83</v>
+        <v>3.1</v>
       </c>
       <c r="AX195">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="AY195">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AZ195">
-        <v>2.19</v>
+        <v>1.99</v>
       </c>
       <c r="BA195">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="BB195">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="BC195">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BD195">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="BE195">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="BF195">
         <v>9</v>
       </c>
       <c r="BG195">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BH195">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BI195">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BJ195">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BK195">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:63">
@@ -38666,7 +38681,7 @@
         <v>0.33</v>
       </c>
       <c r="AS196">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT196">
         <v>0.3</v>
@@ -38728,7 +38743,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>5240276</v>
+        <v>5240275</v>
       </c>
       <c r="C197" t="s">
         <v>63</v>
@@ -38743,52 +38758,52 @@
         <v>20</v>
       </c>
       <c r="G197" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H197" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197">
         <v>1</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O197" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="Q197">
         <v>9</v>
       </c>
       <c r="R197">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S197">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T197">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="U197">
         <v>2.1</v>
       </c>
       <c r="V197">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="W197">
         <v>1.44</v>
@@ -38797,10 +38812,10 @@
         <v>2.63</v>
       </c>
       <c r="Y197">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z197">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA197">
         <v>9</v>
@@ -38809,25 +38824,25 @@
         <v>1.07</v>
       </c>
       <c r="AC197">
+        <v>3.75</v>
+      </c>
+      <c r="AD197">
+        <v>3.5</v>
+      </c>
+      <c r="AE197">
         <v>1.95</v>
       </c>
-      <c r="AD197">
-        <v>3.6</v>
-      </c>
-      <c r="AE197">
-        <v>3.75</v>
-      </c>
       <c r="AF197">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG197">
-        <v>7</v>
+        <v>10.25</v>
       </c>
       <c r="AH197">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AI197">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="AJ197">
         <v>2.05</v>
@@ -38842,76 +38857,76 @@
         <v>1.83</v>
       </c>
       <c r="AN197">
-        <v>1.21</v>
+        <v>2.05</v>
       </c>
       <c r="AO197">
+        <v>1.32</v>
+      </c>
+      <c r="AP197">
+        <v>1.18</v>
+      </c>
+      <c r="AQ197">
         <v>1.33</v>
       </c>
-      <c r="AP197">
-        <v>1.68</v>
-      </c>
-      <c r="AQ197">
-        <v>1.44</v>
-      </c>
       <c r="AR197">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="AS197">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AT197">
-        <v>0.67</v>
+        <v>1.1</v>
       </c>
       <c r="AU197">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AV197">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="AW197">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="AX197">
-        <v>1.63</v>
+        <v>3.14</v>
       </c>
       <c r="AY197">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="AZ197">
-        <v>2.72</v>
+        <v>1.51</v>
       </c>
       <c r="BA197">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="BB197">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BC197">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BD197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BE197">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="BF197">
         <v>5</v>
       </c>
       <c r="BG197">
+        <v>4</v>
+      </c>
+      <c r="BH197">
+        <v>10</v>
+      </c>
+      <c r="BI197">
+        <v>1</v>
+      </c>
+      <c r="BJ197">
+        <v>15</v>
+      </c>
+      <c r="BK197">
         <v>5</v>
-      </c>
-      <c r="BH197">
-        <v>13</v>
-      </c>
-      <c r="BI197">
-        <v>8</v>
-      </c>
-      <c r="BJ197">
-        <v>18</v>
-      </c>
-      <c r="BK197">
-        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:63">
@@ -38919,7 +38934,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>5240275</v>
+        <v>5240274</v>
       </c>
       <c r="C198" t="s">
         <v>63</v>
@@ -38934,52 +38949,52 @@
         <v>20</v>
       </c>
       <c r="G198" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H198" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198">
         <v>1</v>
       </c>
       <c r="K198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M198">
         <v>2</v>
       </c>
       <c r="N198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O198" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q198">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R198">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S198">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T198">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="U198">
         <v>2.1</v>
       </c>
       <c r="V198">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="W198">
         <v>1.44</v>
@@ -39000,31 +39015,31 @@
         <v>1.07</v>
       </c>
       <c r="AC198">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="AD198">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE198">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="AF198">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG198">
         <v>10.25</v>
       </c>
       <c r="AH198">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AI198">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AJ198">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK198">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AL198">
         <v>1.83</v>
@@ -39033,76 +39048,76 @@
         <v>1.83</v>
       </c>
       <c r="AN198">
-        <v>2.05</v>
+        <v>1.35</v>
       </c>
       <c r="AO198">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AP198">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
       <c r="AQ198">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="AR198">
-        <v>0.89</v>
+        <v>1.67</v>
       </c>
       <c r="AS198">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AT198">
-        <v>1.1</v>
+        <v>1.62</v>
       </c>
       <c r="AU198">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="AV198">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AW198">
-        <v>2.47</v>
+        <v>3.37</v>
       </c>
       <c r="AX198">
-        <v>3.14</v>
+        <v>1.94</v>
       </c>
       <c r="AY198">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ198">
-        <v>1.51</v>
+        <v>2.16</v>
       </c>
       <c r="BA198">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BB198">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BC198">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BD198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BE198">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="BF198">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG198">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH198">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI198">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BJ198">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BK198">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:63">
@@ -39110,7 +39125,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>5240274</v>
+        <v>5240273</v>
       </c>
       <c r="C199" t="s">
         <v>63</v>
@@ -39125,25 +39140,25 @@
         <v>20</v>
       </c>
       <c r="G199" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H199" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K199">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N199">
         <v>4</v>
@@ -39152,148 +39167,148 @@
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>294</v>
+        <v>85</v>
       </c>
       <c r="Q199">
+        <v>18</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>20</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
+        <v>2.3</v>
+      </c>
+      <c r="V199">
+        <v>7</v>
+      </c>
+      <c r="W199">
+        <v>1.36</v>
+      </c>
+      <c r="X199">
         <v>3</v>
       </c>
-      <c r="R199">
-        <v>10</v>
-      </c>
-      <c r="S199">
-        <v>13</v>
-      </c>
-      <c r="T199">
-        <v>2.88</v>
-      </c>
-      <c r="U199">
+      <c r="Y199">
+        <v>2.75</v>
+      </c>
+      <c r="Z199">
+        <v>1.4</v>
+      </c>
+      <c r="AA199">
+        <v>7</v>
+      </c>
+      <c r="AB199">
+        <v>1.1</v>
+      </c>
+      <c r="AC199">
+        <v>1.44</v>
+      </c>
+      <c r="AD199">
+        <v>4.33</v>
+      </c>
+      <c r="AE199">
+        <v>7.5</v>
+      </c>
+      <c r="AF199">
+        <v>1.05</v>
+      </c>
+      <c r="AG199">
+        <v>10.75</v>
+      </c>
+      <c r="AH199">
+        <v>1.26</v>
+      </c>
+      <c r="AI199">
+        <v>3.65</v>
+      </c>
+      <c r="AJ199">
+        <v>1.87</v>
+      </c>
+      <c r="AK199">
+        <v>1.9</v>
+      </c>
+      <c r="AL199">
         <v>2.1</v>
       </c>
-      <c r="V199">
-        <v>4</v>
-      </c>
-      <c r="W199">
-        <v>1.44</v>
-      </c>
-      <c r="X199">
-        <v>2.63</v>
-      </c>
-      <c r="Y199">
-        <v>3.25</v>
-      </c>
-      <c r="Z199">
+      <c r="AM199">
+        <v>1.67</v>
+      </c>
+      <c r="AN199">
+        <v>1.04</v>
+      </c>
+      <c r="AO199">
+        <v>1.07</v>
+      </c>
+      <c r="AP199">
+        <v>3.2</v>
+      </c>
+      <c r="AQ199">
+        <v>1.67</v>
+      </c>
+      <c r="AR199">
+        <v>0.44</v>
+      </c>
+      <c r="AS199">
+        <v>1.54</v>
+      </c>
+      <c r="AT199">
+        <v>0.4</v>
+      </c>
+      <c r="AU199">
+        <v>1.68</v>
+      </c>
+      <c r="AV199">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW199">
+        <v>2.62</v>
+      </c>
+      <c r="AX199">
         <v>1.33</v>
       </c>
-      <c r="AA199">
-        <v>9</v>
-      </c>
-      <c r="AB199">
-        <v>1.07</v>
-      </c>
-      <c r="AC199">
-        <v>2.1</v>
-      </c>
-      <c r="AD199">
-        <v>3.4</v>
-      </c>
-      <c r="AE199">
-        <v>3.4</v>
-      </c>
-      <c r="AF199">
-        <v>1.06</v>
-      </c>
-      <c r="AG199">
-        <v>10.25</v>
-      </c>
-      <c r="AH199">
-        <v>1.33</v>
-      </c>
-      <c r="AI199">
+      <c r="AY199">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ199">
+        <v>4.34</v>
+      </c>
+      <c r="BA199">
+        <v>1.48</v>
+      </c>
+      <c r="BB199">
+        <v>1.75</v>
+      </c>
+      <c r="BC199">
+        <v>2.25</v>
+      </c>
+      <c r="BD199">
         <v>3</v>
       </c>
-      <c r="AJ199">
-        <v>2</v>
-      </c>
-      <c r="AK199">
-        <v>1.78</v>
-      </c>
-      <c r="AL199">
-        <v>1.83</v>
-      </c>
-      <c r="AM199">
-        <v>1.83</v>
-      </c>
-      <c r="AN199">
-        <v>1.35</v>
-      </c>
-      <c r="AO199">
-        <v>1.22</v>
-      </c>
-      <c r="AP199">
-        <v>1.62</v>
-      </c>
-      <c r="AQ199">
-        <v>1.89</v>
-      </c>
-      <c r="AR199">
-        <v>1.67</v>
-      </c>
-      <c r="AS199">
-        <v>1.8</v>
-      </c>
-      <c r="AT199">
-        <v>1.62</v>
-      </c>
-      <c r="AU199">
-        <v>1.9</v>
-      </c>
-      <c r="AV199">
-        <v>1.47</v>
-      </c>
-      <c r="AW199">
-        <v>3.37</v>
-      </c>
-      <c r="AX199">
-        <v>1.94</v>
-      </c>
-      <c r="AY199">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ199">
-        <v>2.16</v>
-      </c>
-      <c r="BA199">
-        <v>1.3</v>
-      </c>
-      <c r="BB199">
-        <v>1.62</v>
-      </c>
-      <c r="BC199">
-        <v>2</v>
-      </c>
-      <c r="BD199">
-        <v>2.5</v>
-      </c>
       <c r="BE199">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="BF199">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG199">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH199">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="BI199">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BJ199">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="BK199">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:63">
@@ -39301,7 +39316,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>5240273</v>
+        <v>5240276</v>
       </c>
       <c r="C200" t="s">
         <v>63</v>
@@ -39316,175 +39331,175 @@
         <v>20</v>
       </c>
       <c r="G200" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H200" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O200" t="s">
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="Q200">
+        <v>9</v>
+      </c>
+      <c r="R200">
+        <v>7</v>
+      </c>
+      <c r="S200">
+        <v>16</v>
+      </c>
+      <c r="T200">
+        <v>2.6</v>
+      </c>
+      <c r="U200">
+        <v>2.1</v>
+      </c>
+      <c r="V200">
+        <v>4.5</v>
+      </c>
+      <c r="W200">
+        <v>1.44</v>
+      </c>
+      <c r="X200">
+        <v>2.63</v>
+      </c>
+      <c r="Y200">
+        <v>3</v>
+      </c>
+      <c r="Z200">
+        <v>1.36</v>
+      </c>
+      <c r="AA200">
+        <v>9</v>
+      </c>
+      <c r="AB200">
+        <v>1.07</v>
+      </c>
+      <c r="AC200">
+        <v>1.95</v>
+      </c>
+      <c r="AD200">
+        <v>3.6</v>
+      </c>
+      <c r="AE200">
+        <v>3.75</v>
+      </c>
+      <c r="AF200">
+        <v>1.06</v>
+      </c>
+      <c r="AG200">
+        <v>7</v>
+      </c>
+      <c r="AH200">
+        <v>1.37</v>
+      </c>
+      <c r="AI200">
+        <v>2.8</v>
+      </c>
+      <c r="AJ200">
+        <v>2.05</v>
+      </c>
+      <c r="AK200">
+        <v>1.75</v>
+      </c>
+      <c r="AL200">
+        <v>1.83</v>
+      </c>
+      <c r="AM200">
+        <v>1.83</v>
+      </c>
+      <c r="AN200">
+        <v>1.21</v>
+      </c>
+      <c r="AO200">
+        <v>1.33</v>
+      </c>
+      <c r="AP200">
+        <v>1.68</v>
+      </c>
+      <c r="AQ200">
+        <v>1.44</v>
+      </c>
+      <c r="AR200">
+        <v>0.67</v>
+      </c>
+      <c r="AS200">
+        <v>1.6</v>
+      </c>
+      <c r="AT200">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU200">
+        <v>1.6</v>
+      </c>
+      <c r="AV200">
+        <v>1.31</v>
+      </c>
+      <c r="AW200">
+        <v>2.91</v>
+      </c>
+      <c r="AX200">
+        <v>1.63</v>
+      </c>
+      <c r="AY200">
+        <v>8.9</v>
+      </c>
+      <c r="AZ200">
+        <v>2.72</v>
+      </c>
+      <c r="BA200">
+        <v>1.25</v>
+      </c>
+      <c r="BB200">
+        <v>1.6</v>
+      </c>
+      <c r="BC200">
+        <v>1.95</v>
+      </c>
+      <c r="BD200">
+        <v>2.5</v>
+      </c>
+      <c r="BE200">
+        <v>3.4</v>
+      </c>
+      <c r="BF200">
+        <v>5</v>
+      </c>
+      <c r="BG200">
+        <v>5</v>
+      </c>
+      <c r="BH200">
+        <v>13</v>
+      </c>
+      <c r="BI200">
+        <v>8</v>
+      </c>
+      <c r="BJ200">
         <v>18</v>
       </c>
-      <c r="R200">
-        <v>2</v>
-      </c>
-      <c r="S200">
-        <v>20</v>
-      </c>
-      <c r="T200">
-        <v>2</v>
-      </c>
-      <c r="U200">
-        <v>2.3</v>
-      </c>
-      <c r="V200">
-        <v>7</v>
-      </c>
-      <c r="W200">
-        <v>1.36</v>
-      </c>
-      <c r="X200">
-        <v>3</v>
-      </c>
-      <c r="Y200">
-        <v>2.75</v>
-      </c>
-      <c r="Z200">
-        <v>1.4</v>
-      </c>
-      <c r="AA200">
-        <v>7</v>
-      </c>
-      <c r="AB200">
-        <v>1.1</v>
-      </c>
-      <c r="AC200">
-        <v>1.44</v>
-      </c>
-      <c r="AD200">
-        <v>4.33</v>
-      </c>
-      <c r="AE200">
-        <v>7.5</v>
-      </c>
-      <c r="AF200">
-        <v>1.05</v>
-      </c>
-      <c r="AG200">
-        <v>10.75</v>
-      </c>
-      <c r="AH200">
-        <v>1.26</v>
-      </c>
-      <c r="AI200">
-        <v>3.65</v>
-      </c>
-      <c r="AJ200">
-        <v>1.87</v>
-      </c>
-      <c r="AK200">
-        <v>1.9</v>
-      </c>
-      <c r="AL200">
-        <v>2.1</v>
-      </c>
-      <c r="AM200">
-        <v>1.67</v>
-      </c>
-      <c r="AN200">
-        <v>1.04</v>
-      </c>
-      <c r="AO200">
-        <v>1.07</v>
-      </c>
-      <c r="AP200">
-        <v>3.2</v>
-      </c>
-      <c r="AQ200">
-        <v>1.67</v>
-      </c>
-      <c r="AR200">
-        <v>0.44</v>
-      </c>
-      <c r="AS200">
-        <v>1.54</v>
-      </c>
-      <c r="AT200">
-        <v>0.4</v>
-      </c>
-      <c r="AU200">
-        <v>1.68</v>
-      </c>
-      <c r="AV200">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AW200">
-        <v>2.62</v>
-      </c>
-      <c r="AX200">
-        <v>1.33</v>
-      </c>
-      <c r="AY200">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AZ200">
-        <v>4.34</v>
-      </c>
-      <c r="BA200">
-        <v>1.48</v>
-      </c>
-      <c r="BB200">
-        <v>1.75</v>
-      </c>
-      <c r="BC200">
-        <v>2.25</v>
-      </c>
-      <c r="BD200">
-        <v>3</v>
-      </c>
-      <c r="BE200">
-        <v>4.7</v>
-      </c>
-      <c r="BF200">
-        <v>11</v>
-      </c>
-      <c r="BG200">
-        <v>0</v>
-      </c>
-      <c r="BH200">
-        <v>22</v>
-      </c>
-      <c r="BI200">
-        <v>3</v>
-      </c>
-      <c r="BJ200">
-        <v>33</v>
-      </c>
       <c r="BK200">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:63">
@@ -39492,7 +39507,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>5240277</v>
+        <v>5240282</v>
       </c>
       <c r="C201" t="s">
         <v>63</v>
@@ -39507,151 +39522,151 @@
         <v>20</v>
       </c>
       <c r="G201" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H201" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201">
         <v>1</v>
       </c>
       <c r="K201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
         <v>3</v>
-      </c>
-      <c r="M201">
-        <v>1</v>
-      </c>
-      <c r="N201">
-        <v>4</v>
       </c>
       <c r="O201" t="s">
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="Q201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
         <v>6</v>
       </c>
-      <c r="S201">
-        <v>10</v>
-      </c>
       <c r="T201">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="U201">
         <v>2.05</v>
       </c>
       <c r="V201">
+        <v>6</v>
+      </c>
+      <c r="W201">
+        <v>1.5</v>
+      </c>
+      <c r="X201">
+        <v>2.5</v>
+      </c>
+      <c r="Y201">
+        <v>3.4</v>
+      </c>
+      <c r="Z201">
+        <v>1.3</v>
+      </c>
+      <c r="AA201">
+        <v>10</v>
+      </c>
+      <c r="AB201">
+        <v>1.06</v>
+      </c>
+      <c r="AC201">
+        <v>1.68</v>
+      </c>
+      <c r="AD201">
+        <v>3.6</v>
+      </c>
+      <c r="AE201">
+        <v>5.5</v>
+      </c>
+      <c r="AF201">
+        <v>1.05</v>
+      </c>
+      <c r="AG201">
+        <v>11</v>
+      </c>
+      <c r="AH201">
+        <v>1.33</v>
+      </c>
+      <c r="AI201">
         <v>3.25</v>
       </c>
-      <c r="W201">
-        <v>1.44</v>
-      </c>
-      <c r="X201">
-        <v>2.63</v>
-      </c>
-      <c r="Y201">
-        <v>3.25</v>
-      </c>
-      <c r="Z201">
-        <v>1.33</v>
-      </c>
-      <c r="AA201">
-        <v>9</v>
-      </c>
-      <c r="AB201">
-        <v>1.07</v>
-      </c>
-      <c r="AC201">
-        <v>2.85</v>
-      </c>
-      <c r="AD201">
-        <v>3.25</v>
-      </c>
-      <c r="AE201">
-        <v>2.5</v>
-      </c>
-      <c r="AF201">
-        <v>1.06</v>
-      </c>
-      <c r="AG201">
-        <v>8.25</v>
-      </c>
-      <c r="AH201">
-        <v>1.38</v>
-      </c>
-      <c r="AI201">
-        <v>3.03</v>
-      </c>
       <c r="AJ201">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK201">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AL201">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AM201">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AN201">
-        <v>1.57</v>
+        <v>1.11</v>
       </c>
       <c r="AO201">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AP201">
-        <v>1.4</v>
+        <v>2.65</v>
       </c>
       <c r="AQ201">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="AR201">
         <v>0.78</v>
       </c>
       <c r="AS201">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="AT201">
         <v>0.7</v>
       </c>
       <c r="AU201">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AV201">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AW201">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AX201">
-        <v>2.12</v>
+        <v>1.35</v>
       </c>
       <c r="AY201">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AZ201">
-        <v>1.99</v>
+        <v>4.05</v>
       </c>
       <c r="BA201">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BB201">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BC201">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="BD201">
         <v>3.4</v>
@@ -39660,22 +39675,22 @@
         <v>4.7</v>
       </c>
       <c r="BF201">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG201">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BH201">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI201">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ201">
         <v>21</v>
       </c>
       <c r="BK201">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:63">
@@ -39916,7 +39931,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40107,7 +40122,7 @@
         <v>119</v>
       </c>
       <c r="P204" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -40298,7 +40313,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40576,10 +40591,10 @@
         <v>0.8</v>
       </c>
       <c r="AS206">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT206">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU206">
         <v>1.64</v>
@@ -40767,10 +40782,10 @@
         <v>1.1</v>
       </c>
       <c r="AS207">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT207">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU207">
         <v>1.72</v>
@@ -40958,10 +40973,10 @@
         <v>0.6</v>
       </c>
       <c r="AS208">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT208">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU208">
         <v>1.41</v>
@@ -41149,10 +41164,10 @@
         <v>1.1</v>
       </c>
       <c r="AS209">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT209">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU209">
         <v>1.71</v>
@@ -41343,7 +41358,7 @@
         <v>2.23</v>
       </c>
       <c r="AT210">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU210">
         <v>1.52</v>
@@ -41444,7 +41459,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41531,7 +41546,7 @@
         <v>1.36</v>
       </c>
       <c r="AS211">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT211">
         <v>1.38</v>
@@ -41725,7 +41740,7 @@
         <v>1.77</v>
       </c>
       <c r="AT212">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU212">
         <v>1.62</v>
@@ -41913,7 +41928,7 @@
         <v>1.18</v>
       </c>
       <c r="AS213">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT213">
         <v>1</v>
@@ -42107,7 +42122,7 @@
         <v>1.54</v>
       </c>
       <c r="AT214">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU214">
         <v>1.8</v>
@@ -42208,7 +42223,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42295,7 +42310,7 @@
         <v>1.09</v>
       </c>
       <c r="AS215">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT215">
         <v>1.15</v>
@@ -42399,7 +42414,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q216">
         <v>15</v>
@@ -42486,7 +42501,7 @@
         <v>1.55</v>
       </c>
       <c r="AS216">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT216">
         <v>1.62</v>
@@ -42680,7 +42695,7 @@
         <v>2.38</v>
       </c>
       <c r="AT217">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU217">
         <v>1.72</v>
@@ -43163,7 +43178,7 @@
         <v>85</v>
       </c>
       <c r="P220" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43357,13 +43372,13 @@
         <v>85</v>
       </c>
       <c r="Q221">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R221">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S221">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T221">
         <v>3.25</v>
@@ -43496,6 +43511,770 @@
       </c>
       <c r="BK221">
         <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>6166998</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45094.80208333334</v>
+      </c>
+      <c r="F222">
+        <v>26</v>
+      </c>
+      <c r="G222" t="s">
+        <v>77</v>
+      </c>
+      <c r="H222" t="s">
+        <v>68</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>5</v>
+      </c>
+      <c r="O222" t="s">
+        <v>232</v>
+      </c>
+      <c r="P222" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q222">
+        <v>-1</v>
+      </c>
+      <c r="R222">
+        <v>-1</v>
+      </c>
+      <c r="S222">
+        <v>-1</v>
+      </c>
+      <c r="T222">
+        <v>2.38</v>
+      </c>
+      <c r="U222">
+        <v>2.1</v>
+      </c>
+      <c r="V222">
+        <v>5.5</v>
+      </c>
+      <c r="W222">
+        <v>1.44</v>
+      </c>
+      <c r="X222">
+        <v>2.63</v>
+      </c>
+      <c r="Y222">
+        <v>3.25</v>
+      </c>
+      <c r="Z222">
+        <v>1.33</v>
+      </c>
+      <c r="AA222">
+        <v>9</v>
+      </c>
+      <c r="AB222">
+        <v>1.07</v>
+      </c>
+      <c r="AC222">
+        <v>1.75</v>
+      </c>
+      <c r="AD222">
+        <v>3.5</v>
+      </c>
+      <c r="AE222">
+        <v>4.2</v>
+      </c>
+      <c r="AF222">
+        <v>1.07</v>
+      </c>
+      <c r="AG222">
+        <v>6.8</v>
+      </c>
+      <c r="AH222">
+        <v>1.32</v>
+      </c>
+      <c r="AI222">
+        <v>3.1</v>
+      </c>
+      <c r="AJ222">
+        <v>2.15</v>
+      </c>
+      <c r="AK222">
+        <v>1.67</v>
+      </c>
+      <c r="AL222">
+        <v>2.1</v>
+      </c>
+      <c r="AM222">
+        <v>1.67</v>
+      </c>
+      <c r="AN222">
+        <v>1.1</v>
+      </c>
+      <c r="AO222">
+        <v>1.25</v>
+      </c>
+      <c r="AP222">
+        <v>2</v>
+      </c>
+      <c r="AQ222">
+        <v>2</v>
+      </c>
+      <c r="AR222">
+        <v>0.75</v>
+      </c>
+      <c r="AS222">
+        <v>2.08</v>
+      </c>
+      <c r="AT222">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU222">
+        <v>1.76</v>
+      </c>
+      <c r="AV222">
+        <v>1.06</v>
+      </c>
+      <c r="AW222">
+        <v>2.82</v>
+      </c>
+      <c r="AX222">
+        <v>1.45</v>
+      </c>
+      <c r="AY222">
+        <v>9.6</v>
+      </c>
+      <c r="AZ222">
+        <v>3.34</v>
+      </c>
+      <c r="BA222">
+        <v>1.29</v>
+      </c>
+      <c r="BB222">
+        <v>1.98</v>
+      </c>
+      <c r="BC222">
+        <v>1.97</v>
+      </c>
+      <c r="BD222">
+        <v>2.57</v>
+      </c>
+      <c r="BE222">
+        <v>3.48</v>
+      </c>
+      <c r="BF222">
+        <v>-1</v>
+      </c>
+      <c r="BG222">
+        <v>-1</v>
+      </c>
+      <c r="BH222">
+        <v>-1</v>
+      </c>
+      <c r="BI222">
+        <v>-1</v>
+      </c>
+      <c r="BJ222">
+        <v>-1</v>
+      </c>
+      <c r="BK222">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>6166999</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45094.80208333334</v>
+      </c>
+      <c r="F223">
+        <v>26</v>
+      </c>
+      <c r="G223" t="s">
+        <v>84</v>
+      </c>
+      <c r="H223" t="s">
+        <v>78</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>233</v>
+      </c>
+      <c r="P223" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q223">
+        <v>3</v>
+      </c>
+      <c r="R223">
+        <v>8</v>
+      </c>
+      <c r="S223">
+        <v>11</v>
+      </c>
+      <c r="T223">
+        <v>2.25</v>
+      </c>
+      <c r="U223">
+        <v>2.2</v>
+      </c>
+      <c r="V223">
+        <v>5.5</v>
+      </c>
+      <c r="W223">
+        <v>1.4</v>
+      </c>
+      <c r="X223">
+        <v>2.75</v>
+      </c>
+      <c r="Y223">
+        <v>3</v>
+      </c>
+      <c r="Z223">
+        <v>1.36</v>
+      </c>
+      <c r="AA223">
+        <v>8</v>
+      </c>
+      <c r="AB223">
+        <v>1.08</v>
+      </c>
+      <c r="AC223">
+        <v>1.57</v>
+      </c>
+      <c r="AD223">
+        <v>3.75</v>
+      </c>
+      <c r="AE223">
+        <v>5.5</v>
+      </c>
+      <c r="AF223">
+        <v>1.05</v>
+      </c>
+      <c r="AG223">
+        <v>10.75</v>
+      </c>
+      <c r="AH223">
+        <v>1.29</v>
+      </c>
+      <c r="AI223">
+        <v>3.3</v>
+      </c>
+      <c r="AJ223">
+        <v>2.03</v>
+      </c>
+      <c r="AK223">
+        <v>1.83</v>
+      </c>
+      <c r="AL223">
+        <v>1.91</v>
+      </c>
+      <c r="AM223">
+        <v>1.8</v>
+      </c>
+      <c r="AN223">
+        <v>1.1</v>
+      </c>
+      <c r="AO223">
+        <v>1.22</v>
+      </c>
+      <c r="AP223">
+        <v>2.1</v>
+      </c>
+      <c r="AQ223">
+        <v>2.5</v>
+      </c>
+      <c r="AR223">
+        <v>0.92</v>
+      </c>
+      <c r="AS223">
+        <v>2.54</v>
+      </c>
+      <c r="AT223">
+        <v>0.85</v>
+      </c>
+      <c r="AU223">
+        <v>1.67</v>
+      </c>
+      <c r="AV223">
+        <v>1.32</v>
+      </c>
+      <c r="AW223">
+        <v>2.99</v>
+      </c>
+      <c r="AX223">
+        <v>1.58</v>
+      </c>
+      <c r="AY223">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ223">
+        <v>2.89</v>
+      </c>
+      <c r="BA223">
+        <v>1.38</v>
+      </c>
+      <c r="BB223">
+        <v>1.85</v>
+      </c>
+      <c r="BC223">
+        <v>2.23</v>
+      </c>
+      <c r="BD223">
+        <v>2.98</v>
+      </c>
+      <c r="BE223">
+        <v>4.2</v>
+      </c>
+      <c r="BF223">
+        <v>4</v>
+      </c>
+      <c r="BG223">
+        <v>5</v>
+      </c>
+      <c r="BH223">
+        <v>5</v>
+      </c>
+      <c r="BI223">
+        <v>5</v>
+      </c>
+      <c r="BJ223">
+        <v>9</v>
+      </c>
+      <c r="BK223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>6166996</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45094.91666666666</v>
+      </c>
+      <c r="F224">
+        <v>26</v>
+      </c>
+      <c r="G224" t="s">
+        <v>70</v>
+      </c>
+      <c r="H224" t="s">
+        <v>79</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>5</v>
+      </c>
+      <c r="O224" t="s">
+        <v>234</v>
+      </c>
+      <c r="P224" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q224">
+        <v>9</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>11</v>
+      </c>
+      <c r="T224">
+        <v>2.3</v>
+      </c>
+      <c r="U224">
+        <v>2.2</v>
+      </c>
+      <c r="V224">
+        <v>5.5</v>
+      </c>
+      <c r="W224">
+        <v>1.4</v>
+      </c>
+      <c r="X224">
+        <v>2.75</v>
+      </c>
+      <c r="Y224">
+        <v>3</v>
+      </c>
+      <c r="Z224">
+        <v>1.36</v>
+      </c>
+      <c r="AA224">
+        <v>8</v>
+      </c>
+      <c r="AB224">
+        <v>1.08</v>
+      </c>
+      <c r="AC224">
+        <v>1.67</v>
+      </c>
+      <c r="AD224">
+        <v>3.75</v>
+      </c>
+      <c r="AE224">
+        <v>4.5</v>
+      </c>
+      <c r="AF224">
+        <v>1.06</v>
+      </c>
+      <c r="AG224">
+        <v>9</v>
+      </c>
+      <c r="AH224">
+        <v>1.31</v>
+      </c>
+      <c r="AI224">
+        <v>3.2</v>
+      </c>
+      <c r="AJ224">
+        <v>2</v>
+      </c>
+      <c r="AK224">
+        <v>1.85</v>
+      </c>
+      <c r="AL224">
+        <v>2</v>
+      </c>
+      <c r="AM224">
+        <v>1.73</v>
+      </c>
+      <c r="AN224">
+        <v>1.08</v>
+      </c>
+      <c r="AO224">
+        <v>1.25</v>
+      </c>
+      <c r="AP224">
+        <v>2.1</v>
+      </c>
+      <c r="AQ224">
+        <v>1.92</v>
+      </c>
+      <c r="AR224">
+        <v>1</v>
+      </c>
+      <c r="AS224">
+        <v>2</v>
+      </c>
+      <c r="AT224">
+        <v>0.92</v>
+      </c>
+      <c r="AU224">
+        <v>1.51</v>
+      </c>
+      <c r="AV224">
+        <v>1.39</v>
+      </c>
+      <c r="AW224">
+        <v>2.9</v>
+      </c>
+      <c r="AX224">
+        <v>1.47</v>
+      </c>
+      <c r="AY224">
+        <v>9.6</v>
+      </c>
+      <c r="AZ224">
+        <v>3.24</v>
+      </c>
+      <c r="BA224">
+        <v>1.26</v>
+      </c>
+      <c r="BB224">
+        <v>1.5</v>
+      </c>
+      <c r="BC224">
+        <v>1.88</v>
+      </c>
+      <c r="BD224">
+        <v>2.41</v>
+      </c>
+      <c r="BE224">
+        <v>3.28</v>
+      </c>
+      <c r="BF224">
+        <v>10</v>
+      </c>
+      <c r="BG224">
+        <v>5</v>
+      </c>
+      <c r="BH224">
+        <v>7</v>
+      </c>
+      <c r="BI224">
+        <v>4</v>
+      </c>
+      <c r="BJ224">
+        <v>17</v>
+      </c>
+      <c r="BK224">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>6166997</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45094.91666666666</v>
+      </c>
+      <c r="F225">
+        <v>26</v>
+      </c>
+      <c r="G225" t="s">
+        <v>67</v>
+      </c>
+      <c r="H225" t="s">
+        <v>81</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>235</v>
+      </c>
+      <c r="P225" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q225">
+        <v>6</v>
+      </c>
+      <c r="R225">
+        <v>8</v>
+      </c>
+      <c r="S225">
+        <v>14</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>2.2</v>
+      </c>
+      <c r="V225">
+        <v>4</v>
+      </c>
+      <c r="W225">
+        <v>1.4</v>
+      </c>
+      <c r="X225">
+        <v>2.75</v>
+      </c>
+      <c r="Y225">
+        <v>2.75</v>
+      </c>
+      <c r="Z225">
+        <v>1.4</v>
+      </c>
+      <c r="AA225">
+        <v>8</v>
+      </c>
+      <c r="AB225">
+        <v>1.08</v>
+      </c>
+      <c r="AC225">
+        <v>2.15</v>
+      </c>
+      <c r="AD225">
+        <v>3.3</v>
+      </c>
+      <c r="AE225">
+        <v>3.5</v>
+      </c>
+      <c r="AF225">
+        <v>1.03</v>
+      </c>
+      <c r="AG225">
+        <v>11.5</v>
+      </c>
+      <c r="AH225">
+        <v>1.27</v>
+      </c>
+      <c r="AI225">
+        <v>3.74</v>
+      </c>
+      <c r="AJ225">
+        <v>2.03</v>
+      </c>
+      <c r="AK225">
+        <v>1.83</v>
+      </c>
+      <c r="AL225">
+        <v>1.73</v>
+      </c>
+      <c r="AM225">
+        <v>2</v>
+      </c>
+      <c r="AN225">
+        <v>1.32</v>
+      </c>
+      <c r="AO225">
+        <v>1.3</v>
+      </c>
+      <c r="AP225">
+        <v>1.47</v>
+      </c>
+      <c r="AQ225">
+        <v>2.25</v>
+      </c>
+      <c r="AR225">
+        <v>0.67</v>
+      </c>
+      <c r="AS225">
+        <v>2.15</v>
+      </c>
+      <c r="AT225">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU225">
+        <v>1.76</v>
+      </c>
+      <c r="AV225">
+        <v>1.28</v>
+      </c>
+      <c r="AW225">
+        <v>3.04</v>
+      </c>
+      <c r="AX225">
+        <v>1.29</v>
+      </c>
+      <c r="AY225">
+        <v>10.75</v>
+      </c>
+      <c r="AZ225">
+        <v>4.45</v>
+      </c>
+      <c r="BA225">
+        <v>1.26</v>
+      </c>
+      <c r="BB225">
+        <v>1.5</v>
+      </c>
+      <c r="BC225">
+        <v>1.87</v>
+      </c>
+      <c r="BD225">
+        <v>2.39</v>
+      </c>
+      <c r="BE225">
+        <v>3.2</v>
+      </c>
+      <c r="BF225">
+        <v>8</v>
+      </c>
+      <c r="BG225">
+        <v>2</v>
+      </c>
+      <c r="BH225">
+        <v>8</v>
+      </c>
+      <c r="BI225">
+        <v>7</v>
+      </c>
+      <c r="BJ225">
+        <v>16</v>
+      </c>
+      <c r="BK225">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1296,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT7">
         <v>0.7</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3540,7 +3540,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT32">
         <v>0.8</v>
@@ -10607,7 +10607,7 @@
         <v>1.3</v>
       </c>
       <c r="AT49">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU49">
         <v>1.92</v>
@@ -11177,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT52">
         <v>0.6</v>
@@ -14042,10 +14042,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT67">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -18817,7 +18817,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT92">
         <v>0.85</v>
@@ -19584,7 +19584,7 @@
         <v>1.9</v>
       </c>
       <c r="AT96">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU96">
         <v>2.07</v>
@@ -20157,7 +20157,7 @@
         <v>1.8</v>
       </c>
       <c r="AT99">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU99">
         <v>1.85</v>
@@ -21303,7 +21303,7 @@
         <v>1.3</v>
       </c>
       <c r="AT105">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU105">
         <v>1.58</v>
@@ -23592,7 +23592,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT117">
         <v>1.1</v>
@@ -24168,7 +24168,7 @@
         <v>1.2</v>
       </c>
       <c r="AT120">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU120">
         <v>1.46</v>
@@ -28561,7 +28561,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU143">
         <v>1.41</v>
@@ -30277,7 +30277,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT152">
         <v>0.4</v>
@@ -31999,7 +31999,7 @@
         <v>1.7</v>
       </c>
       <c r="AT161">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU161">
         <v>1.77</v>
@@ -33142,7 +33142,7 @@
         <v>1.14</v>
       </c>
       <c r="AS167">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT167">
         <v>1.15</v>
@@ -34288,7 +34288,7 @@
         <v>0.86</v>
       </c>
       <c r="AS173">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT173">
         <v>0.6899999999999999</v>
@@ -36774,7 +36774,7 @@
         <v>2.23</v>
       </c>
       <c r="AT186">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU186">
         <v>1.57</v>
@@ -40021,7 +40021,7 @@
         <v>1.54</v>
       </c>
       <c r="AT203">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU203">
         <v>1.86</v>
@@ -40973,7 +40973,7 @@
         <v>0.6</v>
       </c>
       <c r="AS208">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT208">
         <v>0.6899999999999999</v>
@@ -41549,7 +41549,7 @@
         <v>2.08</v>
       </c>
       <c r="AT211">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU211">
         <v>1.78</v>
@@ -41928,7 +41928,7 @@
         <v>1.18</v>
       </c>
       <c r="AS213">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT213">
         <v>1</v>
@@ -43077,7 +43077,7 @@
         <v>2.23</v>
       </c>
       <c r="AT219">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU219">
         <v>1.54</v>
@@ -43563,13 +43563,13 @@
         <v>305</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R222">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S222">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="T222">
         <v>2.38</v>
@@ -43686,22 +43686,22 @@
         <v>3.48</v>
       </c>
       <c r="BF222">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG222">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH222">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI222">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ222">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK222">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:63">
@@ -43877,22 +43877,22 @@
         <v>4.2</v>
       </c>
       <c r="BF223">
+        <v>7</v>
+      </c>
+      <c r="BG223">
+        <v>6</v>
+      </c>
+      <c r="BH223">
         <v>4</v>
       </c>
-      <c r="BG223">
-        <v>5</v>
-      </c>
-      <c r="BH223">
-        <v>5</v>
-      </c>
       <c r="BI223">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ223">
+        <v>11</v>
+      </c>
+      <c r="BK223">
         <v>9</v>
-      </c>
-      <c r="BK223">
-        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:63">
@@ -44029,7 +44029,7 @@
         <v>1</v>
       </c>
       <c r="AS224">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT224">
         <v>0.92</v>
@@ -44275,6 +44275,197 @@
       </c>
       <c r="BK225">
         <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>6493711</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45098.91666666666</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>70</v>
+      </c>
+      <c r="H226" t="s">
+        <v>84</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226" t="s">
+        <v>85</v>
+      </c>
+      <c r="P226" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q226">
+        <v>1</v>
+      </c>
+      <c r="R226">
+        <v>8</v>
+      </c>
+      <c r="S226">
+        <v>9</v>
+      </c>
+      <c r="T226">
+        <v>2.65</v>
+      </c>
+      <c r="U226">
+        <v>2.05</v>
+      </c>
+      <c r="V226">
+        <v>3.9</v>
+      </c>
+      <c r="W226">
+        <v>1.42</v>
+      </c>
+      <c r="X226">
+        <v>2.65</v>
+      </c>
+      <c r="Y226">
+        <v>2.95</v>
+      </c>
+      <c r="Z226">
+        <v>1.35</v>
+      </c>
+      <c r="AA226">
+        <v>7.75</v>
+      </c>
+      <c r="AB226">
+        <v>1.07</v>
+      </c>
+      <c r="AC226">
+        <v>2.05</v>
+      </c>
+      <c r="AD226">
+        <v>3.3</v>
+      </c>
+      <c r="AE226">
+        <v>3.3</v>
+      </c>
+      <c r="AF226">
+        <v>1.07</v>
+      </c>
+      <c r="AG226">
+        <v>10</v>
+      </c>
+      <c r="AH226">
+        <v>1.34</v>
+      </c>
+      <c r="AI226">
+        <v>3.24</v>
+      </c>
+      <c r="AJ226">
+        <v>2.1</v>
+      </c>
+      <c r="AK226">
+        <v>1.67</v>
+      </c>
+      <c r="AL226">
+        <v>1.85</v>
+      </c>
+      <c r="AM226">
+        <v>1.83</v>
+      </c>
+      <c r="AN226">
+        <v>1.3</v>
+      </c>
+      <c r="AO226">
+        <v>1.3</v>
+      </c>
+      <c r="AP226">
+        <v>1.72</v>
+      </c>
+      <c r="AQ226">
+        <v>1.81</v>
+      </c>
+      <c r="AR226">
+        <v>1.96</v>
+      </c>
+      <c r="AS226">
+        <v>1.78</v>
+      </c>
+      <c r="AT226">
+        <v>1.93</v>
+      </c>
+      <c r="AU226">
+        <v>1.55</v>
+      </c>
+      <c r="AV226">
+        <v>1.04</v>
+      </c>
+      <c r="AW226">
+        <v>2.59</v>
+      </c>
+      <c r="AX226">
+        <v>1.69</v>
+      </c>
+      <c r="AY226">
+        <v>8.5</v>
+      </c>
+      <c r="AZ226">
+        <v>2.6</v>
+      </c>
+      <c r="BA226">
+        <v>1.2</v>
+      </c>
+      <c r="BB226">
+        <v>1.44</v>
+      </c>
+      <c r="BC226">
+        <v>1.75</v>
+      </c>
+      <c r="BD226">
+        <v>2.15</v>
+      </c>
+      <c r="BE226">
+        <v>2.63</v>
+      </c>
+      <c r="BF226">
+        <v>4</v>
+      </c>
+      <c r="BG226">
+        <v>3</v>
+      </c>
+      <c r="BH226">
+        <v>8</v>
+      </c>
+      <c r="BI226">
+        <v>4</v>
+      </c>
+      <c r="BJ226">
+        <v>12</v>
+      </c>
+      <c r="BK226">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -936,6 +936,9 @@
   <si>
     <t>['26', '66']</t>
   </si>
+  <si>
+    <t>['31']</t>
+  </si>
 </sst>
 </file>
 
@@ -1296,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4877,7 +4880,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU19">
         <v>1.29</v>
@@ -8503,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT38">
         <v>0.3</v>
@@ -9270,7 +9273,7 @@
         <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU42">
         <v>1.97</v>
@@ -12705,7 +12708,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT60">
         <v>0.8</v>
@@ -12899,7 +12902,7 @@
         <v>1.77</v>
       </c>
       <c r="AT61">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU61">
         <v>1.76</v>
@@ -15573,7 +15576,7 @@
         <v>1.6</v>
       </c>
       <c r="AT75">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU75">
         <v>1.63</v>
@@ -16716,7 +16719,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -17671,7 +17674,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT86">
         <v>0.92</v>
@@ -21112,7 +21115,7 @@
         <v>1.9</v>
       </c>
       <c r="AT104">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU104">
         <v>1.81</v>
@@ -23019,7 +23022,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT114">
         <v>0.85</v>
@@ -28370,7 +28373,7 @@
         <v>1.3</v>
       </c>
       <c r="AT142">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU142">
         <v>1.41</v>
@@ -30850,7 +30853,7 @@
         <v>1.33</v>
       </c>
       <c r="AS155">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT155">
         <v>1.15</v>
@@ -31617,7 +31620,7 @@
         <v>1.54</v>
       </c>
       <c r="AT159">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU159">
         <v>1.57</v>
@@ -32951,7 +32954,7 @@
         <v>0.86</v>
       </c>
       <c r="AS166">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT166">
         <v>0.7</v>
@@ -34479,7 +34482,7 @@
         <v>0.88</v>
       </c>
       <c r="AS174">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT174">
         <v>0.7</v>
@@ -35434,7 +35437,7 @@
         <v>0.75</v>
       </c>
       <c r="AS179">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT179">
         <v>0.6899999999999999</v>
@@ -35819,7 +35822,7 @@
         <v>1.9</v>
       </c>
       <c r="AT181">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU181">
         <v>1.89</v>
@@ -37538,7 +37541,7 @@
         <v>2.38</v>
       </c>
       <c r="AT190">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU190">
         <v>1.69</v>
@@ -38108,7 +38111,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT193">
         <v>0.7</v>
@@ -39066,7 +39069,7 @@
         <v>1.8</v>
       </c>
       <c r="AT198">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU198">
         <v>1.9</v>
@@ -39830,7 +39833,7 @@
         <v>1.77</v>
       </c>
       <c r="AT202">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU202">
         <v>1.56</v>
@@ -40591,7 +40594,7 @@
         <v>0.8</v>
       </c>
       <c r="AS206">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT206">
         <v>0.6899999999999999</v>
@@ -42310,7 +42313,7 @@
         <v>1.09</v>
       </c>
       <c r="AS215">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT215">
         <v>1.15</v>
@@ -42504,7 +42507,7 @@
         <v>2.15</v>
       </c>
       <c r="AT216">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU216">
         <v>1.72</v>
@@ -43459,7 +43462,7 @@
         <v>2.38</v>
       </c>
       <c r="AT221">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU221">
         <v>1.73</v>
@@ -43838,7 +43841,7 @@
         <v>0.92</v>
       </c>
       <c r="AS223">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT223">
         <v>0.85</v>
@@ -44411,10 +44414,10 @@
         <v>1.96</v>
       </c>
       <c r="AS226">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AT226">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AU226">
         <v>1.55</v>
@@ -44466,6 +44469,197 @@
       </c>
       <c r="BK226">
         <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>6493712</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45101.875</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>84</v>
+      </c>
+      <c r="H227" t="s">
+        <v>70</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>118</v>
+      </c>
+      <c r="P227" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q227">
+        <v>11</v>
+      </c>
+      <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>13</v>
+      </c>
+      <c r="T227">
+        <v>2.74</v>
+      </c>
+      <c r="U227">
+        <v>2.18</v>
+      </c>
+      <c r="V227">
+        <v>4.42</v>
+      </c>
+      <c r="W227">
+        <v>1.44</v>
+      </c>
+      <c r="X227">
+        <v>2.83</v>
+      </c>
+      <c r="Y227">
+        <v>3.2</v>
+      </c>
+      <c r="Z227">
+        <v>1.36</v>
+      </c>
+      <c r="AA227">
+        <v>7.8</v>
+      </c>
+      <c r="AB227">
+        <v>1.05</v>
+      </c>
+      <c r="AC227">
+        <v>1.82</v>
+      </c>
+      <c r="AD227">
+        <v>3.2</v>
+      </c>
+      <c r="AE227">
+        <v>3.9</v>
+      </c>
+      <c r="AF227">
+        <v>1.04</v>
+      </c>
+      <c r="AG227">
+        <v>8.4</v>
+      </c>
+      <c r="AH227">
+        <v>1.34</v>
+      </c>
+      <c r="AI227">
+        <v>3.29</v>
+      </c>
+      <c r="AJ227">
+        <v>2.3</v>
+      </c>
+      <c r="AK227">
+        <v>1.6</v>
+      </c>
+      <c r="AL227">
+        <v>1.79</v>
+      </c>
+      <c r="AM227">
+        <v>2.02</v>
+      </c>
+      <c r="AN227">
+        <v>1.25</v>
+      </c>
+      <c r="AO227">
+        <v>1.31</v>
+      </c>
+      <c r="AP227">
+        <v>1.52</v>
+      </c>
+      <c r="AQ227">
+        <v>1.93</v>
+      </c>
+      <c r="AR227">
+        <v>1.78</v>
+      </c>
+      <c r="AS227">
+        <v>1.89</v>
+      </c>
+      <c r="AT227">
+        <v>1.75</v>
+      </c>
+      <c r="AU227">
+        <v>1.65</v>
+      </c>
+      <c r="AV227">
+        <v>1.43</v>
+      </c>
+      <c r="AW227">
+        <v>3.08</v>
+      </c>
+      <c r="AX227">
+        <v>1.53</v>
+      </c>
+      <c r="AY227">
+        <v>9.6</v>
+      </c>
+      <c r="AZ227">
+        <v>2.98</v>
+      </c>
+      <c r="BA227">
+        <v>1.24</v>
+      </c>
+      <c r="BB227">
+        <v>1.38</v>
+      </c>
+      <c r="BC227">
+        <v>1.74</v>
+      </c>
+      <c r="BD227">
+        <v>2.14</v>
+      </c>
+      <c r="BE227">
+        <v>2.77</v>
+      </c>
+      <c r="BF227">
+        <v>9</v>
+      </c>
+      <c r="BG227">
+        <v>2</v>
+      </c>
+      <c r="BH227">
+        <v>7</v>
+      </c>
+      <c r="BI227">
+        <v>3</v>
+      </c>
+      <c r="BJ227">
+        <v>16</v>
+      </c>
+      <c r="BK227">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
